--- a/Översikt KARLSKOGA.xlsx
+++ b/Översikt KARLSKOGA.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 64125-2021</t>
+          <t>A 59524-2025</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>44510</v>
+        <v>45989</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -587,17 +587,22 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G2" t="n">
-        <v>6.5</v>
+        <v>4.6</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -612,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -621,6 +626,108 @@
         <v>14</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Garnlav
+Havsörn
+Järpe
+Kolflarnlav
+Orange taggsvamp
+Talltita
+Tretåig hackspett
+Vedflamlav
+Korallblylav
+Mörk husmossa
+Stor revmossa
+Vedticka
+Västlig hakmossa
+Sparvuggla</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 59524-2025 artfynd.xlsx", "A 59524-2025")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 59524-2025 karta.png", "A 59524-2025")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 59524-2025 FSC-klagomål.docx", "A 59524-2025")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 59524-2025 FSC-klagomål mail.docx", "A 59524-2025")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 59524-2025 tillsynsbegäran.docx", "A 59524-2025")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 59524-2025 tillsynsbegäran mail.docx", "A 59524-2025")</f>
+        <v/>
+      </c>
+      <c r="Z2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/fåglar/A 59524-2025 prioriterade fågelarter.docx", "A 59524-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 64125-2021</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>44510</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>14</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Gäckporing
 Motaggsvamp
@@ -638,138 +745,31 @@
 Zontaggsvamp</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 64125-2021 artfynd.xlsx", "A 64125-2021")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 64125-2021 karta.png", "A 64125-2021")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 64125-2021 FSC-klagomål.docx", "A 64125-2021")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 64125-2021 FSC-klagomål mail.docx", "A 64125-2021")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 64125-2021 tillsynsbegäran.docx", "A 64125-2021")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 64125-2021 tillsynsbegäran mail.docx", "A 64125-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 59524-2025</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>45989</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>8</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>8</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>14</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Garnlav
-Havsörn
-Järpe
-Kolflarnlav
-Orange taggsvamp
-Talltita
-Tretåig hackspett
-Vedflamlav
-Korallblylav
-Mörk husmossa
-Stor revmossa
-Vedticka
-Västlig hakmossa
-Sparvuggla</t>
-        </is>
-      </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 59524-2025 artfynd.xlsx", "A 59524-2025")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 59524-2025 karta.png", "A 59524-2025")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 59524-2025 FSC-klagomål.docx", "A 59524-2025")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 59524-2025 FSC-klagomål mail.docx", "A 59524-2025")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 59524-2025 tillsynsbegäran.docx", "A 59524-2025")</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 59524-2025 tillsynsbegäran mail.docx", "A 59524-2025")</f>
-        <v/>
-      </c>
-      <c r="Z3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/fåglar/A 59524-2025 prioriterade fågelarter.docx", "A 59524-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45958</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45989</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>45744.66456018519</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>44495</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>45840.87771990741</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>45849.38643518519</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>44354</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1432,14 +1432,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 59512-2025</t>
+          <t>A 24188-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45989.64748842592</v>
+        <v>45456.9100925926</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1491,945 +1491,945 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 24188-2024 artfynd.xlsx", "A 24188-2024")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 24188-2024 karta.png", "A 24188-2024")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 24188-2024 FSC-klagomål.docx", "A 24188-2024")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 24188-2024 FSC-klagomål mail.docx", "A 24188-2024")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 24188-2024 tillsynsbegäran.docx", "A 24188-2024")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 24188-2024 tillsynsbegäran mail.docx", "A 24188-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 39025-2022</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>44817.3353125</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 39025-2022 artfynd.xlsx", "A 39025-2022")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 39025-2022 karta.png", "A 39025-2022")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 39025-2022 FSC-klagomål.docx", "A 39025-2022")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 39025-2022 FSC-klagomål mail.docx", "A 39025-2022")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 39025-2022 tillsynsbegäran.docx", "A 39025-2022")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 39025-2022 tillsynsbegäran mail.docx", "A 39025-2022")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/fåglar/A 39025-2022 prioriterade fågelarter.docx", "A 39025-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 26651-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45810</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Fläcknycklar</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 26651-2025 artfynd.xlsx", "A 26651-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 26651-2025 karta.png", "A 26651-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 26651-2025 FSC-klagomål.docx", "A 26651-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 26651-2025 FSC-klagomål mail.docx", "A 26651-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 26651-2025 tillsynsbegäran.docx", "A 26651-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 26651-2025 tillsynsbegäran mail.docx", "A 26651-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 32081-2025</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45835.45203703704</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Smal svampklubba</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 32081-2025 artfynd.xlsx", "A 32081-2025")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 32081-2025 karta.png", "A 32081-2025")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 32081-2025 FSC-klagomål.docx", "A 32081-2025")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 32081-2025 FSC-klagomål mail.docx", "A 32081-2025")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 32081-2025 tillsynsbegäran.docx", "A 32081-2025")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 32081-2025 tillsynsbegäran mail.docx", "A 32081-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 34834-2025</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45849.38751157407</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 34834-2025 artfynd.xlsx", "A 34834-2025")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 34834-2025 karta.png", "A 34834-2025")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 34834-2025 FSC-klagomål.docx", "A 34834-2025")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 34834-2025 FSC-klagomål mail.docx", "A 34834-2025")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 34834-2025 tillsynsbegäran.docx", "A 34834-2025")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 34834-2025 tillsynsbegäran mail.docx", "A 34834-2025")</f>
+        <v/>
+      </c>
+      <c r="Z15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/fåglar/A 34834-2025 prioriterade fågelarter.docx", "A 34834-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 52375-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45953.94430555555</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Revlummer</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 52375-2025 artfynd.xlsx", "A 52375-2025")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 52375-2025 karta.png", "A 52375-2025")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 52375-2025 FSC-klagomål.docx", "A 52375-2025")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 52375-2025 FSC-klagomål mail.docx", "A 52375-2025")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 52375-2025 tillsynsbegäran.docx", "A 52375-2025")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 52375-2025 tillsynsbegäran mail.docx", "A 52375-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 59512-2025</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45989.64748842592</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
           <t>Motaggsvamp</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 59512-2025 artfynd.xlsx", "A 59512-2025")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 59512-2025 karta.png", "A 59512-2025")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 59512-2025 FSC-klagomål.docx", "A 59512-2025")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 59512-2025 FSC-klagomål mail.docx", "A 59512-2025")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 59512-2025 tillsynsbegäran.docx", "A 59512-2025")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 59512-2025 tillsynsbegäran mail.docx", "A 59512-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>A 59511-2025</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>45989.64694444444</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="C18" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G18" t="n">
         <v>1.1</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>1</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Motaggsvamp</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 59511-2025 artfynd.xlsx", "A 59511-2025")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 59511-2025 karta.png", "A 59511-2025")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 59511-2025 FSC-klagomål.docx", "A 59511-2025")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 59511-2025 FSC-klagomål mail.docx", "A 59511-2025")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 59511-2025 tillsynsbegäran.docx", "A 59511-2025")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 59511-2025 tillsynsbegäran mail.docx", "A 59511-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>A 63185-2025</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B19" s="1" t="n">
         <v>46010.43457175926</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="C19" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G13" t="n">
+      <c r="G19" t="n">
         <v>8.4</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H19" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>1</v>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>1</v>
       </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>1</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Talltita</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 63185-2025 artfynd.xlsx", "A 63185-2025")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 63185-2025 karta.png", "A 63185-2025")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 63185-2025 FSC-klagomål.docx", "A 63185-2025")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 63185-2025 FSC-klagomål mail.docx", "A 63185-2025")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 63185-2025 tillsynsbegäran.docx", "A 63185-2025")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 63185-2025 tillsynsbegäran mail.docx", "A 63185-2025")</f>
         <v/>
       </c>
-      <c r="Z13">
+      <c r="Z19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/fåglar/A 63185-2025 prioriterade fågelarter.docx", "A 63185-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 52375-2025</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45953.94430555555</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 63187-2025</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>46010.44355324074</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G14" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="G20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H20" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>1</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Revlummer</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 52375-2025 artfynd.xlsx", "A 52375-2025")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 52375-2025 karta.png", "A 52375-2025")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 52375-2025 FSC-klagomål.docx", "A 52375-2025")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 52375-2025 FSC-klagomål mail.docx", "A 52375-2025")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 52375-2025 tillsynsbegäran.docx", "A 52375-2025")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 52375-2025 tillsynsbegäran mail.docx", "A 52375-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 63187-2025</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>46010.44355324074</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H15" t="n">
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>1</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Talltita</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 63187-2025 artfynd.xlsx", "A 63187-2025")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 63187-2025 karta.png", "A 63187-2025")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 63187-2025 FSC-klagomål.docx", "A 63187-2025")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 63187-2025 FSC-klagomål mail.docx", "A 63187-2025")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 63187-2025 tillsynsbegäran.docx", "A 63187-2025")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 63187-2025 tillsynsbegäran mail.docx", "A 63187-2025")</f>
         <v/>
       </c>
-      <c r="Z15">
+      <c r="Z20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/fåglar/A 63187-2025 prioriterade fågelarter.docx", "A 63187-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 24188-2024</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45456.9100925926</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>9</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 40528-2024</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>45555.60616898148</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H21" t="n">
         <v>1</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Garnlav</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 24188-2024 artfynd.xlsx", "A 24188-2024")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 24188-2024 karta.png", "A 24188-2024")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 24188-2024 FSC-klagomål.docx", "A 24188-2024")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 24188-2024 FSC-klagomål mail.docx", "A 24188-2024")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 24188-2024 tillsynsbegäran.docx", "A 24188-2024")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 24188-2024 tillsynsbegäran mail.docx", "A 24188-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 39025-2022</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>44817.3353125</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Talltita</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 39025-2022 artfynd.xlsx", "A 39025-2022")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 39025-2022 karta.png", "A 39025-2022")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 39025-2022 FSC-klagomål.docx", "A 39025-2022")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 39025-2022 FSC-klagomål mail.docx", "A 39025-2022")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 39025-2022 tillsynsbegäran.docx", "A 39025-2022")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 39025-2022 tillsynsbegäran mail.docx", "A 39025-2022")</f>
-        <v/>
-      </c>
-      <c r="Z17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/fåglar/A 39025-2022 prioriterade fågelarter.docx", "A 39025-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 40528-2024</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>45555.60616898148</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Mattlummer</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 40528-2024 artfynd.xlsx", "A 40528-2024")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 40528-2024 karta.png", "A 40528-2024")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 40528-2024 FSC-klagomål.docx", "A 40528-2024")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 40528-2024 FSC-klagomål mail.docx", "A 40528-2024")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 40528-2024 tillsynsbegäran.docx", "A 40528-2024")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 40528-2024 tillsynsbegäran mail.docx", "A 40528-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 26651-2025</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>45810</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Fläcknycklar</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 26651-2025 artfynd.xlsx", "A 26651-2025")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 26651-2025 karta.png", "A 26651-2025")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 26651-2025 FSC-klagomål.docx", "A 26651-2025")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 26651-2025 FSC-klagomål mail.docx", "A 26651-2025")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 26651-2025 tillsynsbegäran.docx", "A 26651-2025")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 26651-2025 tillsynsbegäran mail.docx", "A 26651-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 32081-2025</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>45835.45203703704</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Smal svampklubba</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 32081-2025 artfynd.xlsx", "A 32081-2025")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 32081-2025 karta.png", "A 32081-2025")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 32081-2025 FSC-klagomål.docx", "A 32081-2025")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 32081-2025 FSC-klagomål mail.docx", "A 32081-2025")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 32081-2025 tillsynsbegäran.docx", "A 32081-2025")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 32081-2025 tillsynsbegäran mail.docx", "A 32081-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 34834-2025</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>45849.38751157407</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Talltita</t>
-        </is>
-      </c>
-      <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 34834-2025 artfynd.xlsx", "A 34834-2025")</f>
-        <v/>
-      </c>
-      <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 34834-2025 karta.png", "A 34834-2025")</f>
-        <v/>
-      </c>
-      <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 34834-2025 FSC-klagomål.docx", "A 34834-2025")</f>
-        <v/>
-      </c>
-      <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 34834-2025 FSC-klagomål mail.docx", "A 34834-2025")</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 34834-2025 tillsynsbegäran.docx", "A 34834-2025")</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 34834-2025 tillsynsbegäran mail.docx", "A 34834-2025")</f>
-        <v/>
-      </c>
-      <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/fåglar/A 34834-2025 prioriterade fågelarter.docx", "A 34834-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44552.49849537037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>44510.50043981482</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>44381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>44546</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2666,14 +2666,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 47669-2021</t>
+          <t>A 21035-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44448.43530092593</v>
+        <v>44319</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2685,8 +2685,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2723,14 +2728,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 21035-2021</t>
+          <t>A 47669-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44319</v>
+        <v>44448.43530092593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2742,13 +2747,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>44732.61756944445</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>44243</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>44257</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>44341.71480324074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>44460.7434375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>44371.6544212963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>44438</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>44245</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>44245</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3325,7 +3325,7 @@
         <v>44381</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>44512.60798611111</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>44715.48209490741</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>44421.66028935185</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3556,14 +3556,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 4537-2022</t>
+          <t>A 63671-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44590</v>
+        <v>44508</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3575,8 +3575,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3613,14 +3618,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 63671-2021</t>
+          <t>A 4537-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44508</v>
+        <v>44590</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3632,13 +3637,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>44480</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>44340</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44809.80543981482</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44811</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44344.39799768518</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>44628</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>44809.81278935185</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4089,14 +4089,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 4587-2025</t>
+          <t>A 21612-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45687.51668981482</v>
+        <v>44706.67246527778</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4146,14 +4146,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 21612-2022</t>
+          <t>A 21622-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44706.67246527778</v>
+        <v>44706.68547453704</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4203,14 +4203,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 21622-2022</t>
+          <t>A 45117-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44706.68547453704</v>
+        <v>44439</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.8</v>
+        <v>6.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4260,14 +4260,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 41777-2021</t>
+          <t>A 39027-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44425.65414351852</v>
+        <v>44817</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4322,14 +4322,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 41779-2021</t>
+          <t>A 58390-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44425.655625</v>
+        <v>45633.6719212963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4341,13 +4341,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4384,14 +4379,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 45117-2021</t>
+          <t>A 4587-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44439</v>
+        <v>45687.51668981482</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4404,7 +4399,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4441,14 +4436,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 37150-2025</t>
+          <t>A 35471-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45875.5734837963</v>
+        <v>45531.46973379629</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4461,7 +4456,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4498,14 +4493,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 37332-2025</t>
+          <t>A 61813-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45876.65920138889</v>
+        <v>45649.59596064815</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4523,7 +4518,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>8.300000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4560,14 +4555,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 39027-2022</t>
+          <t>A 9712-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44817</v>
+        <v>45362</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4581,11 +4576,11 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4622,14 +4617,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 37737-2025</t>
+          <t>A 4164-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45880.63737268518</v>
+        <v>44588</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4643,11 +4638,11 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4684,14 +4679,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 38071-2025</t>
+          <t>A 42804-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45882.4412037037</v>
+        <v>45182</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4703,8 +4698,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4741,14 +4741,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 8803-2025</t>
+          <t>A 9510-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45712.66123842593</v>
+        <v>44981.64696759259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4798,14 +4798,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 9941-2025</t>
+          <t>A 1309-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45718.83177083333</v>
+        <v>45303</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4855,14 +4855,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 20470-2025</t>
+          <t>A 35444-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45775.54530092593</v>
+        <v>45531.43599537037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4874,13 +4874,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4917,14 +4912,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 24255-2024</t>
+          <t>A 23263-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45457.39487268519</v>
+        <v>44720.40815972222</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4937,7 +4932,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4974,14 +4969,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 20463-2025</t>
+          <t>A 21915-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45775.53664351852</v>
+        <v>45784</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4993,13 +4988,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>0.9</v>
+        <v>12</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5036,14 +5026,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 28471-2023</t>
+          <t>A 47201-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45103.41175925926</v>
+        <v>45196</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5056,7 +5046,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5093,14 +5083,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 15255-2025</t>
+          <t>A 24099-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45744.65173611111</v>
+        <v>45796</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5112,13 +5102,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5155,14 +5140,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 16881-2023</t>
+          <t>A 61396-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45033</v>
+        <v>45264.64989583333</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5174,13 +5159,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5217,14 +5197,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 61396-2023</t>
+          <t>A 8259-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45264.64989583333</v>
+        <v>45708.50091435185</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5237,7 +5217,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5274,14 +5254,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 39673-2025</t>
+          <t>A 24116-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45890.64559027777</v>
+        <v>45456</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5293,13 +5273,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5336,14 +5311,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 27735-2021</t>
+          <t>A 35930-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44354.4771412037</v>
+        <v>45148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5361,7 +5336,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.9</v>
+        <v>5.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5398,14 +5373,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 17815-2025</t>
+          <t>A 26653-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45758.56148148148</v>
+        <v>45810</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5423,7 +5398,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5460,14 +5435,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 46605-2021</t>
+          <t>A 27498-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44445.55292824074</v>
+        <v>45813</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5479,13 +5454,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5522,14 +5492,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 4164-2022</t>
+          <t>A 63863-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44588</v>
+        <v>45278.50163194445</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5541,13 +5511,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5584,14 +5549,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 61271-2022</t>
+          <t>A 39673-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44909</v>
+        <v>45890.64559027777</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5605,11 +5570,11 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>14.1</v>
+        <v>1.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5646,14 +5611,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 35445-2024</t>
+          <t>A 17815-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45531.43599537037</v>
+        <v>45758.56148148148</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5665,8 +5630,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5703,14 +5673,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 39337-2022</t>
+          <t>A 41267-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44817.72568287037</v>
+        <v>45898.61796296296</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5723,7 +5693,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5760,14 +5730,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 57422-2021</t>
+          <t>A 64089-2021</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44483</v>
+        <v>44510</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5780,7 +5750,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5817,14 +5787,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 41267-2025</t>
+          <t>A 59938-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45898.61796296296</v>
+        <v>45257.67357638889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5837,7 +5807,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5874,14 +5844,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 57212-2025</t>
+          <t>A 52828-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45979.60140046296</v>
+        <v>45610.59295138889</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5894,7 +5864,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5931,14 +5901,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 58695-2025</t>
+          <t>A 23620-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45986.58576388889</v>
+        <v>45454</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5951,7 +5921,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>7.2</v>
+        <v>2.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5988,14 +5958,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 58091-2022</t>
+          <t>A 53647-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44900</v>
+        <v>45230.6046875</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6007,13 +5977,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6050,14 +6015,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 27728-2021</t>
+          <t>A 39936-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44354.47241898148</v>
+        <v>45553.56512731482</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6069,13 +6034,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>1.7</v>
+        <v>6.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6112,14 +6072,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 917-2026</t>
+          <t>A 43772-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>46030.48421296296</v>
+        <v>45912.50550925926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6132,7 +6092,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6169,14 +6129,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 28566-2024</t>
+          <t>A 30102-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45478.38914351852</v>
+        <v>45826.68414351852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6226,14 +6186,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 59522-2025</t>
+          <t>A 15254-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45989.6597800926</v>
+        <v>45744.64983796296</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6251,7 +6211,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6288,14 +6248,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 43772-2025</t>
+          <t>A 15256-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45912.50550925926</v>
+        <v>45744.65391203704</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6307,8 +6267,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6345,14 +6310,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 50863-2024</t>
+          <t>A 34585-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45602.63560185185</v>
+        <v>44382.47526620371</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6364,13 +6329,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>8.1</v>
+        <v>1.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6407,14 +6367,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 56887-2022</t>
+          <t>A 54680-2021</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44894.57006944445</v>
+        <v>44473</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6427,7 +6387,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6464,14 +6424,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 38196-2024</t>
+          <t>A 44946-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45545.49483796296</v>
+        <v>45918.6046875</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6484,7 +6444,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6521,14 +6481,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 44946-2025</t>
+          <t>A 44949-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45918.6046875</v>
+        <v>45918.60568287037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6541,7 +6501,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6578,14 +6538,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 44949-2025</t>
+          <t>A 45664-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45918.60568287037</v>
+        <v>45923.34690972222</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6597,8 +6557,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>0.8</v>
+        <v>9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6635,14 +6600,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 1788-2026</t>
+          <t>A 24115-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>46034.87616898148</v>
+        <v>45456</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6655,7 +6620,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6692,14 +6657,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 45596-2025</t>
+          <t>A 31397-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45922.68408564815</v>
+        <v>45833</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6711,13 +6676,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6754,14 +6714,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 60470-2025</t>
+          <t>A 45596-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45995.565625</v>
+        <v>45922.68408564815</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6773,8 +6733,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6811,14 +6776,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 2911-2026</t>
+          <t>A 32287-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>46038.56614583333</v>
+        <v>45835.6914699074</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6830,8 +6795,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>1.1</v>
+        <v>10.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6868,14 +6838,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 60503-2025</t>
+          <t>A 53619-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45995.62199074074</v>
+        <v>45614.73967592593</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6888,7 +6858,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6925,14 +6895,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 20289-2024</t>
+          <t>A 18768-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45435.30835648148</v>
+        <v>45764.29767361111</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6987,14 +6957,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 45664-2025</t>
+          <t>A 4801-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45923.34690972222</v>
+        <v>45328.89141203704</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7006,13 +6976,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>9</v>
+        <v>0.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7049,14 +7014,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 60508-2025</t>
+          <t>A 4802-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45995.63013888889</v>
+        <v>45328.8962962963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7069,7 +7034,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7106,14 +7071,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 60506-2025</t>
+          <t>A 32870-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45995.62744212963</v>
+        <v>45839.58939814815</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7126,7 +7091,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7163,14 +7128,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 60465-2025</t>
+          <t>A 8990-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45995.55730324074</v>
+        <v>44979.55237268518</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7183,7 +7148,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7220,14 +7185,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 38190-2024</t>
+          <t>A 42802-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45545.49076388889</v>
+        <v>45182</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7239,8 +7204,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7277,14 +7247,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 35060-2024</t>
+          <t>A 28471-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45527</v>
+        <v>45103.41175925926</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7296,13 +7266,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7339,14 +7304,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 9712-2024</t>
+          <t>A 22867-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45362</v>
+        <v>44715.49313657408</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7356,11 +7321,6 @@
       <c r="E105" t="inlineStr">
         <is>
           <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -7401,14 +7361,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 61788-2025</t>
+          <t>A 64060-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>46002.68515046296</v>
+        <v>45279.35636574074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7420,13 +7380,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7463,14 +7418,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 4058-2022</t>
+          <t>A 48707-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44588</v>
+        <v>45593.53480324074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7483,7 +7438,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7520,14 +7475,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 15254-2025</t>
+          <t>A 50957-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45744.64983796296</v>
+        <v>45946.78399305556</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7539,13 +7494,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7582,14 +7532,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 15256-2025</t>
+          <t>A 50958-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45744.65391203704</v>
+        <v>45946.78709490741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7601,13 +7551,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>5.5</v>
+        <v>0.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7644,14 +7589,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 64060-2023</t>
+          <t>A 55832-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45279.35636574074</v>
+        <v>45239.61148148148</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7664,7 +7609,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7701,14 +7646,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 16256-2025</t>
+          <t>A 58388-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45750.71596064815</v>
+        <v>45633.64746527778</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7720,13 +7665,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>3.5</v>
+        <v>5.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7763,14 +7703,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 43075-2023</t>
+          <t>A 52376-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45182.83460648148</v>
+        <v>45953.94524305555</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7782,8 +7722,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7820,14 +7765,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 23263-2022</t>
+          <t>A 52377-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44720.40815972222</v>
+        <v>45953.94622685185</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7839,8 +7784,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7877,14 +7827,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 35444-2024</t>
+          <t>A 52379-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45531.43599537037</v>
+        <v>45953.94826388889</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7896,8 +7846,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7934,14 +7889,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 35471-2024</t>
+          <t>A 18978-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45531.46973379629</v>
+        <v>45764.54626157408</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7954,7 +7909,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7991,14 +7946,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 47222-2024</t>
+          <t>A 37150-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45586</v>
+        <v>45875.5734837963</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8010,13 +7965,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>5.3</v>
+        <v>1.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8053,14 +8003,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 58390-2024</t>
+          <t>A 10816-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45633.6719212963</v>
+        <v>44990.43501157407</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8073,7 +8023,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8110,14 +8060,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 50958-2025</t>
+          <t>A 31921-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45946.78709490741</v>
+        <v>44777</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8130,7 +8080,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8167,14 +8117,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 50957-2025</t>
+          <t>A 43075-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45946.78399305556</v>
+        <v>45182.83460648148</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8187,7 +8137,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8224,14 +8174,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 52377-2025</t>
+          <t>A 37332-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45953.94622685185</v>
+        <v>45876.65920138889</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8245,11 +8195,11 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8286,14 +8236,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 14215-2024</t>
+          <t>A 37737-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45393</v>
+        <v>45880.63737268518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8307,11 +8257,11 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8348,14 +8298,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 18768-2025</t>
+          <t>A 47196-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45764.29767361111</v>
+        <v>45196</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8367,13 +8317,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>0.7</v>
+        <v>5.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8410,14 +8355,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 52379-2025</t>
+          <t>A 13454-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45953.94826388889</v>
+        <v>44645</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8429,13 +8374,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8472,14 +8412,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 42803-2023</t>
+          <t>A 15252-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45182</v>
+        <v>45744</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8497,7 +8437,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8534,14 +8474,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 52376-2025</t>
+          <t>A 15253-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45953.94524305555</v>
+        <v>45744</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8559,7 +8499,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8596,14 +8536,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 64066-2025</t>
+          <t>A 55025-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>46013</v>
+        <v>45967.63591435185</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8616,7 +8556,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8653,14 +8593,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 6255-2026</t>
+          <t>A 20470-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>46055.47542824074</v>
+        <v>45775.54530092593</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8672,8 +8612,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8710,14 +8655,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 48167-2024</t>
+          <t>A 53618-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45589.73996527777</v>
+        <v>45614.73951388889</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8730,7 +8675,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>13.7</v>
+        <v>10.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8767,14 +8712,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 63188-2025</t>
+          <t>A 38071-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>46010.44494212963</v>
+        <v>45882.4412037037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8786,13 +8731,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8829,14 +8769,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 6605-2026</t>
+          <t>A 30961-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>46056.47820601852</v>
+        <v>44768</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8848,8 +8788,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8886,14 +8831,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 63628-2025</t>
+          <t>A 42803-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>46014.36813657408</v>
+        <v>45182</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8905,8 +8850,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8943,14 +8893,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 7232-2026</t>
+          <t>A 9941-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46058.57258101852</v>
+        <v>45718.83177083333</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8963,7 +8913,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.6</v>
+        <v>5.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9000,14 +8950,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 20086-2024</t>
+          <t>A 24255-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45434</v>
+        <v>45457.39487268519</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9020,7 +8970,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9057,14 +9007,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 9510-2023</t>
+          <t>A 57212-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44981.64696759259</v>
+        <v>45979.60140046296</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9077,7 +9027,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.9</v>
+        <v>3.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9114,14 +9064,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 55025-2025</t>
+          <t>A 8803-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45967.63591435185</v>
+        <v>45712.66123842593</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9134,7 +9084,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9171,14 +9121,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 24116-2024</t>
+          <t>A 15188-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45456</v>
+        <v>45744.55122685185</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9190,8 +9140,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>1.8</v>
+        <v>11.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9228,14 +9183,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 55832-2023</t>
+          <t>A 56313-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45239.61148148148</v>
+        <v>45624</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9247,8 +9202,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9285,14 +9245,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 10515-2023</t>
+          <t>A 10743-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44987.7978125</v>
+        <v>44988.70174768518</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9304,8 +9264,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9342,14 +9307,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 59025-2024</t>
+          <t>A 14215-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45636.68592592593</v>
+        <v>45393</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9363,11 +9328,11 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.7</v>
+        <v>4.2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9404,14 +9369,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 53619-2024</t>
+          <t>A 55191-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45614.73967592593</v>
+        <v>45237.58084490741</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9424,7 +9389,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9461,14 +9426,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 22624-2021</t>
+          <t>A 58695-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44327</v>
+        <v>45986.58576388889</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9480,13 +9445,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>4.5</v>
+        <v>7.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9523,14 +9483,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 13501-2025</t>
+          <t>A 15269-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45736.45362268519</v>
+        <v>45744.66511574074</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9542,8 +9502,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9580,14 +9545,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 33011-2023</t>
+          <t>A 59025-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45125</v>
+        <v>45636.68592592593</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9599,8 +9564,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9637,14 +9607,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 47094-2023</t>
+          <t>A 59522-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45196</v>
+        <v>45989.6597800926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9656,8 +9626,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9694,14 +9669,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 10506-2025</t>
+          <t>A 917-2026</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45721</v>
+        <v>46030.48421296296</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9714,7 +9689,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9751,14 +9726,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 48168-2024</t>
+          <t>A 1788-2026</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45589.74410879629</v>
+        <v>46034.87616898148</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9771,7 +9746,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9808,14 +9783,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 31921-2022</t>
+          <t>A 17243-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44777</v>
+        <v>45414</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9828,7 +9803,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9865,14 +9840,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 42804-2023</t>
+          <t>A 60465-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45182</v>
+        <v>45995.55730324074</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9884,13 +9859,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9927,14 +9897,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 39030-2022</t>
+          <t>A 60506-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44817.34023148148</v>
+        <v>45995.62744212963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9946,13 +9916,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9989,14 +9954,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 10816-2023</t>
+          <t>A 60508-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44990.43501157407</v>
+        <v>45995.63013888889</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10009,7 +9974,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10046,14 +10011,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 8244-2025</t>
+          <t>A 60470-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45708.4852662037</v>
+        <v>45995.565625</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10066,7 +10031,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10103,14 +10068,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 13454-2022</t>
+          <t>A 60503-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44645</v>
+        <v>45995.62199074074</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10123,7 +10088,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10160,14 +10125,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 28100-2024</t>
+          <t>A 2911-2026</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45476.61674768518</v>
+        <v>46038.56614583333</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10180,7 +10145,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10217,14 +10182,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 10743-2023</t>
+          <t>A 35060-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44988.70174768518</v>
+        <v>45527</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10242,7 +10207,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10279,14 +10244,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 51344-2023</t>
+          <t>A 52826-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45219.59462962963</v>
+        <v>45610.59243055555</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10298,13 +10263,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10341,14 +10301,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 50611-2024</t>
+          <t>A 52829-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45601.63069444444</v>
+        <v>45610.59344907408</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10361,7 +10321,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10398,14 +10358,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 42802-2023</t>
+          <t>A 11974-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45182</v>
+        <v>45728.58998842593</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10417,13 +10377,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10460,14 +10415,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 52829-2024</t>
+          <t>A 28474-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45610.59344907408</v>
+        <v>45103.42020833334</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10480,7 +10435,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2</v>
+        <v>5.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10517,14 +10472,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 18468-2025</t>
+          <t>A 61788-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45762.73166666667</v>
+        <v>46002.68515046296</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10536,8 +10491,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G159" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10574,14 +10534,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 56313-2024</t>
+          <t>A 61271-2022</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45624</v>
+        <v>44909</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10595,11 +10555,11 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.2</v>
+        <v>14.1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10636,14 +10596,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 38382-2022</t>
+          <t>A 48168-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44812</v>
+        <v>45589.74410879629</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10655,13 +10615,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10698,14 +10653,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 28474-2023</t>
+          <t>A 58091-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45103.42020833334</v>
+        <v>44900</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10717,8 +10672,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G162" t="n">
-        <v>5.1</v>
+        <v>2.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10755,14 +10715,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 24115-2024</t>
+          <t>A 18468-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45456</v>
+        <v>45762.73166666667</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10775,7 +10735,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10812,14 +10772,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 6835-2025</t>
+          <t>A 18955-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45700.78726851852</v>
+        <v>45764.51512731481</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10832,7 +10792,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3</v>
+        <v>8.1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10869,14 +10829,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 10404-2022</t>
+          <t>A 50614-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44623.45096064815</v>
+        <v>45601.63342592592</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10889,7 +10849,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10926,14 +10886,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 3227-2025</t>
+          <t>A 55182-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45679</v>
+        <v>45618</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10946,7 +10906,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>4.5</v>
+        <v>11.4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10983,14 +10943,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 18955-2025</t>
+          <t>A 16476-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45764.51512731481</v>
+        <v>45751.57092592592</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11003,7 +10963,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>8.1</v>
+        <v>1.3</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11040,14 +11000,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 22867-2022</t>
+          <t>A 6255-2026</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44715.49313657408</v>
+        <v>46055.47542824074</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11060,7 +11020,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11097,14 +11057,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 18978-2025</t>
+          <t>A 64066-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45764.54626157408</v>
+        <v>46013</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11117,7 +11077,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11154,14 +11114,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 4801-2024</t>
+          <t>A 4058-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45328.89141203704</v>
+        <v>44588</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11174,7 +11134,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11211,14 +11171,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 4802-2024</t>
+          <t>A 6605-2026</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45328.8962962963</v>
+        <v>46056.47820601852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11231,7 +11191,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11268,14 +11228,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 30961-2022</t>
+          <t>A 63628-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44768</v>
+        <v>46014.36813657408</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11287,13 +11247,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11330,14 +11285,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 55191-2023</t>
+          <t>A 63188-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45237.58084490741</v>
+        <v>46010.44494212963</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11349,8 +11304,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11387,14 +11347,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 13496-2025</t>
+          <t>A 46605-2021</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45736.44390046296</v>
+        <v>44445.55292824074</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11406,8 +11366,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>8.800000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11444,14 +11409,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 11974-2025</t>
+          <t>A 7232-2026</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45728.58998842593</v>
+        <v>46058.57258101852</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11464,7 +11429,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11501,14 +11466,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 63863-2023</t>
+          <t>A 3227-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45278.50163194445</v>
+        <v>45679</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11521,7 +11486,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11558,14 +11523,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 1309-2024</t>
+          <t>A 28100-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45303</v>
+        <v>45476.61674768518</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11578,7 +11543,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11615,14 +11580,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 15252-2025</t>
+          <t>A 16256-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45744</v>
+        <v>45750.71596064815</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11636,11 +11601,11 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11677,14 +11642,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 15253-2025</t>
+          <t>A 50863-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45744</v>
+        <v>45602.63560185185</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11698,11 +11663,11 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.5</v>
+        <v>8.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11739,14 +11704,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 15188-2025</t>
+          <t>A 27728-2021</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45744.55122685185</v>
+        <v>44354.47241898148</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11760,11 +11725,11 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G180" t="n">
-        <v>11.8</v>
+        <v>1.7</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11801,14 +11766,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 52826-2024</t>
+          <t>A 1106-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45610.59243055555</v>
+        <v>45302</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11821,7 +11786,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11858,14 +11823,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 21682-2021</t>
+          <t>A 39030-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44322.41228009259</v>
+        <v>44817.34023148148</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11877,8 +11842,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G182" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11915,14 +11885,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 1106-2024</t>
+          <t>A 28566-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45302</v>
+        <v>45478.38914351852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11935,7 +11905,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11972,14 +11942,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 48707-2024</t>
+          <t>A 38382-2022</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45593.53480324074</v>
+        <v>44812</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11991,8 +11961,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G184" t="n">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12029,14 +12004,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 10492-2021</t>
+          <t>A 16881-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44258.26988425926</v>
+        <v>45033</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12048,8 +12023,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G185" t="n">
-        <v>0.4</v>
+        <v>2.3</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12086,14 +12066,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 16476-2025</t>
+          <t>A 20139-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45751.57092592592</v>
+        <v>45772</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12105,8 +12085,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G186" t="n">
-        <v>1.3</v>
+        <v>4.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12143,14 +12128,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 35470-2024</t>
+          <t>A 20140-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45531.46973379629</v>
+        <v>45772</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12162,8 +12147,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12200,14 +12190,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 8990-2023</t>
+          <t>A 57422-2021</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44979.55237268518</v>
+        <v>44483</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12220,7 +12210,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12257,14 +12247,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 50614-2024</t>
+          <t>A 8244-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45601.63342592592</v>
+        <v>45708.4852662037</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12277,7 +12267,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12314,14 +12304,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 64089-2021</t>
+          <t>A 38190-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44510</v>
+        <v>45545.49076388889</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12334,7 +12324,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12371,14 +12361,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 55182-2024</t>
+          <t>A 27735-2021</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45618</v>
+        <v>44354.4771412037</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12390,8 +12380,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G191" t="n">
-        <v>11.4</v>
+        <v>2.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12428,14 +12423,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 52797-2021</t>
+          <t>A 20463-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44467.37496527778</v>
+        <v>45775.53664351852</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12447,8 +12442,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G192" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12485,14 +12485,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 8259-2025</t>
+          <t>A 47222-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45708.50091435185</v>
+        <v>45586</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12504,8 +12504,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>0.7</v>
+        <v>5.3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12542,14 +12547,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 53620-2024</t>
+          <t>A 35470-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45614.73983796296</v>
+        <v>45531.46973379629</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12562,7 +12567,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12599,14 +12604,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 20139-2025</t>
+          <t>A 21682-2021</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45772</v>
+        <v>44322.41228009259</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12618,13 +12623,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>4.7</v>
+        <v>1.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12661,14 +12661,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 20140-2025</t>
+          <t>A 35445-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45772</v>
+        <v>45531.43599537037</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12680,13 +12680,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G196" t="n">
-        <v>3.6</v>
+        <v>0.5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12723,14 +12718,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 35930-2023</t>
+          <t>A 47094-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45148</v>
+        <v>45196</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12742,13 +12737,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>5.2</v>
+        <v>1.9</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12785,14 +12775,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 47196-2023</t>
+          <t>A 38196-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45196</v>
+        <v>45545.49483796296</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12805,7 +12795,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>5.9</v>
+        <v>0.7</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12842,14 +12832,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 53618-2024</t>
+          <t>A 50611-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45614.73951388889</v>
+        <v>45601.63069444444</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12862,7 +12852,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>10.1</v>
+        <v>1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12899,14 +12889,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 2224-2025</t>
+          <t>A 20289-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45673</v>
+        <v>45435.30835648148</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12918,8 +12908,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G200" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12956,14 +12951,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 58388-2024</t>
+          <t>A 52797-2021</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45633.64746527778</v>
+        <v>44467.37496527778</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12976,7 +12971,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>5.8</v>
+        <v>1.4</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13013,14 +13008,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 47201-2023</t>
+          <t>A 15255-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45196</v>
+        <v>45744.65173611111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13032,8 +13027,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13070,14 +13070,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 52828-2024</t>
+          <t>A 48167-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45610.59295138889</v>
+        <v>45589.73996527777</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13090,7 +13090,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>8.300000000000001</v>
+        <v>13.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13127,14 +13127,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 15269-2025</t>
+          <t>A 20086-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45744.66511574074</v>
+        <v>45434</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13146,13 +13146,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G204" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13189,14 +13184,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 17243-2024</t>
+          <t>A 13496-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45414</v>
+        <v>45736.44390046296</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13209,7 +13204,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>3.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13246,14 +13241,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 59938-2023</t>
+          <t>A 56887-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45257.67357638889</v>
+        <v>44894.57006944445</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13266,7 +13261,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13303,14 +13298,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 61813-2024</t>
+          <t>A 33011-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45649.59596064815</v>
+        <v>45125</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13322,13 +13317,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13365,14 +13355,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 21247-2025</t>
+          <t>A 41777-2021</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45779.57381944444</v>
+        <v>44425.65414351852</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13386,11 +13376,11 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13427,14 +13417,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 21210-2025</t>
+          <t>A 41779-2021</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45779.48717592593</v>
+        <v>44425.655625</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13452,7 +13442,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13489,14 +13479,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 21845-2025</t>
+          <t>A 51344-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45784.33908564815</v>
+        <v>45219.59462962963</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13510,11 +13500,11 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G210" t="n">
-        <v>13.3</v>
+        <v>4.5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13551,14 +13541,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 22234-2025</t>
+          <t>A 6835-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45785</v>
+        <v>45700.78726851852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13571,7 +13561,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13608,14 +13598,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 22244-2025</t>
+          <t>A 10515-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45785.67974537037</v>
+        <v>44987.7978125</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13628,7 +13618,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13665,14 +13655,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 38742-2023</t>
+          <t>A 39337-2022</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45161</v>
+        <v>44817.72568287037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13684,13 +13674,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G213" t="n">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13727,14 +13712,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 3735-2024</t>
+          <t>A 53620-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45321</v>
+        <v>45614.73983796296</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13746,13 +13731,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G214" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13789,14 +13769,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 23308-2025</t>
+          <t>A 2224-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45791.6047800926</v>
+        <v>45673</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13846,14 +13826,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 23716-2025</t>
+          <t>A 10492-2021</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45793.39087962963</v>
+        <v>44258.26988425926</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13866,7 +13846,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>6</v>
+        <v>0.4</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13903,14 +13883,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 23717-2025</t>
+          <t>A 13501-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45793.39612268518</v>
+        <v>45736.45362268519</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13923,7 +13903,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13960,14 +13940,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 21915-2025</t>
+          <t>A 22624-2021</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45784</v>
+        <v>44327</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13979,8 +13959,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G218" t="n">
-        <v>12</v>
+        <v>4.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14017,14 +14002,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 24099-2025</t>
+          <t>A 10404-2022</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45796</v>
+        <v>44623.45096064815</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14037,7 +14022,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14074,14 +14059,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 26653-2025</t>
+          <t>A 10506-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45810</v>
+        <v>45721</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14093,13 +14078,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G220" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14136,14 +14116,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 27498-2025</t>
+          <t>A 21247-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45813</v>
+        <v>45779.57381944444</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14155,8 +14135,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G221" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14193,14 +14178,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 54680-2021</t>
+          <t>A 21210-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44473</v>
+        <v>45779.48717592593</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14212,8 +14197,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G222" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14250,14 +14240,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 30102-2025</t>
+          <t>A 22234-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45826.68414351852</v>
+        <v>45785</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14270,7 +14260,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14307,14 +14297,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 39936-2024</t>
+          <t>A 38742-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45553.56512731482</v>
+        <v>45161</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14326,8 +14316,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G224" t="n">
-        <v>6.4</v>
+        <v>4.2</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14364,14 +14359,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 53647-2023</t>
+          <t>A 22244-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45230.6046875</v>
+        <v>45785.67974537037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14384,7 +14379,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14421,14 +14416,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 34585-2021</t>
+          <t>A 21845-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44382.47526620371</v>
+        <v>45784.33908564815</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14440,8 +14435,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G226" t="n">
-        <v>1.1</v>
+        <v>13.3</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14478,14 +14478,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 23620-2024</t>
+          <t>A 3735-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45454</v>
+        <v>45321</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14497,8 +14497,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G227" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14535,14 +14540,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 31397-2025</t>
+          <t>A 23308-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45833</v>
+        <v>45791.6047800926</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14592,14 +14597,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 32287-2025</t>
+          <t>A 23716-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45835.6914699074</v>
+        <v>45793.39087962963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14611,13 +14616,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G229" t="n">
-        <v>10.9</v>
+        <v>6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14654,14 +14654,14 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 32870-2025</t>
+          <t>A 23717-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45839.58939814815</v>
+        <v>45793.39612268518</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>

--- a/Översikt KARLSKOGA.xlsx
+++ b/Översikt KARLSKOGA.xlsx
@@ -575,7 +575,7 @@
         <v>45989</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>44510</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45958</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45989</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>45744.66456018519</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>44495</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>45840.87771990741</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>45849.38643518519</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>44354</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>45456.9100925926</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>44817.3353125</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>45810</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>45835.45203703704</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>45849.38751157407</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>45953.94430555555</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1987,7 +1987,7 @@
         <v>45989.64748842592</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>45989.64694444444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>46010.43457175926</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2261,7 +2261,7 @@
         <v>46010.44355324074</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>45555.60616898148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44552.49849537037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>44510.50043981482</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>44381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>44546</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>44319</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2735,7 +2735,7 @@
         <v>44448.43530092593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         <v>44732.61756944445</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>44243</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>44257</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>44341.71480324074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>44460.7434375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>44371.6544212963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>44438</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>44245</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>44245</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3325,7 +3325,7 @@
         <v>44381</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>44512.60798611111</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>44715.48209490741</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>44421.66028935185</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>44508</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>44590</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>44480</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>44340</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44809.80543981482</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44811</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44344.39799768518</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>44628</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>44809.81278935185</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>44706.67246527778</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>44706.68547453704</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>44439</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>44817</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4329,7 +4329,7 @@
         <v>45633.6719212963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         <v>45687.51668981482</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>45531.46973379629</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>45649.59596064815</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>45362</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>44588</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>45182</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>44981.64696759259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>45303</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>45531.43599537037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>44720.40815972222</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>45784</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>45196</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>45796</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>45264.64989583333</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45708.50091435185</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>45456</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>45148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>45810</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5442,7 +5442,7 @@
         <v>45813</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5499,7 +5499,7 @@
         <v>45278.50163194445</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>45890.64559027777</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>45758.56148148148</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>45898.61796296296</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
         <v>44510</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>45257.67357638889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>45610.59295138889</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         <v>45454</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>45230.6046875</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>45553.56512731482</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>45912.50550925926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>45826.68414351852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>45744.64983796296</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6255,7 +6255,7 @@
         <v>45744.65391203704</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>44382.47526620371</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6374,7 +6374,7 @@
         <v>44473</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>45918.6046875</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>45918.60568287037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>45923.34690972222</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6607,7 +6607,7 @@
         <v>45456</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>45833</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>45922.68408564815</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6783,7 +6783,7 @@
         <v>45835.6914699074</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>45614.73967592593</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>45764.29767361111</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>45328.89141203704</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>45328.8962962963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>45839.58939814815</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>44979.55237268518</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>45182</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>45103.41175925926</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>44715.49313657408</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>45279.35636574074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>45593.53480324074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>45946.78399305556</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>45946.78709490741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>45239.61148148148</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>45633.64746527778</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>45953.94524305555</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>45953.94622685185</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>45953.94826388889</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>45764.54626157408</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>45875.5734837963</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44990.43501157407</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44777</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>45182.83460648148</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>45876.65920138889</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>45880.63737268518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>45196</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44645</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>45744</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>45744</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>45967.63591435185</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>45775.54530092593</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>45614.73951388889</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>45882.4412037037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         <v>44768</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>45182</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>45718.83177083333</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>45457.39487268519</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>45979.60140046296</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>45712.66123842593</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>45744.55122685185</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>45624</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>44988.70174768518</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>45393</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>45237.58084490741</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>45986.58576388889</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>45744.66511574074</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>45636.68592592593</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9614,7 +9614,7 @@
         <v>45989.6597800926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>46030.48421296296</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>46034.87616898148</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>45414</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>45995.55730324074</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>45995.62744212963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>45995.63013888889</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         <v>45995.565625</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>45995.62199074074</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10132,7 +10132,7 @@
         <v>46038.56614583333</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10189,7 +10189,7 @@
         <v>45527</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>45610.59243055555</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>45610.59344907408</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>45728.58998842593</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>45103.42020833334</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>46002.68515046296</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>44909</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>45589.74410879629</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44900</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>45762.73166666667</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>45764.51512731481</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>45601.63342592592</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>45618</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>45751.57092592592</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>46055.47542824074</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>46013</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44588</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>46056.47820601852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>46014.36813657408</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>46010.44494212963</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44445.55292824074</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>46058.57258101852</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>45679</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>45476.61674768518</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>45750.71596064815</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11649,7 +11649,7 @@
         <v>45602.63560185185</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>44354.47241898148</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>45302</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11830,7 +11830,7 @@
         <v>44817.34023148148</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>45478.38914351852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>44812</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>45033</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>45772</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>45772</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>44483</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>45708.4852662037</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>45545.49076388889</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44354.4771412037</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>45775.53664351852</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>45586</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12554,7 +12554,7 @@
         <v>45531.46973379629</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>44322.41228009259</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>45531.43599537037</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>45196</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>45545.49483796296</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>45601.63069444444</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>45435.30835648148</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>44467.37496527778</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>45744.65173611111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>45589.73996527777</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>45434</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>45736.44390046296</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44894.57006944445</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>45125</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>44425.65414351852</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>44425.655625</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>45219.59462962963</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13548,7 +13548,7 @@
         <v>45700.78726851852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13605,7 +13605,7 @@
         <v>44987.7978125</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13662,7 +13662,7 @@
         <v>44817.72568287037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>45614.73983796296</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>45673</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44258.26988425926</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>45736.45362268519</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44327</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44623.45096064815</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>45721</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>45779.57381944444</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>45779.48717592593</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>45785</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>45161</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>45785.67974537037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14423,7 +14423,7 @@
         <v>45784.33908564815</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>45321</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>45791.6047800926</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>45793.39087962963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         <v>45793.39612268518</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>

--- a/Översikt KARLSKOGA.xlsx
+++ b/Översikt KARLSKOGA.xlsx
@@ -575,7 +575,7 @@
         <v>45989</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>44510</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45958</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45989</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>45744.66456018519</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>44495</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>45840.87771990741</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>45849.38643518519</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>44354</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>45456.9100925926</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>44817.3353125</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>45810</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>45835.45203703704</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>45849.38751157407</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>45953.94430555555</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1987,7 +1987,7 @@
         <v>45989.64748842592</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>45989.64694444444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>46010.43457175926</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2261,7 +2261,7 @@
         <v>46010.44355324074</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2348,14 +2348,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 40528-2024</t>
+          <t>A 28566-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45555.60616898148</v>
+        <v>45478.38914351852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2392,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2402,107 +2402,134 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
+          <t>Ärtsångare</t>
+        </is>
+      </c>
+      <c r="S21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 28566-2024 artfynd.xlsx", "A 28566-2024")</f>
+        <v/>
+      </c>
+      <c r="T21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 28566-2024 karta.png", "A 28566-2024")</f>
+        <v/>
+      </c>
+      <c r="V21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 28566-2024 FSC-klagomål.docx", "A 28566-2024")</f>
+        <v/>
+      </c>
+      <c r="W21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 28566-2024 FSC-klagomål mail.docx", "A 28566-2024")</f>
+        <v/>
+      </c>
+      <c r="X21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 28566-2024 tillsynsbegäran.docx", "A 28566-2024")</f>
+        <v/>
+      </c>
+      <c r="Y21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 28566-2024 tillsynsbegäran mail.docx", "A 28566-2024")</f>
+        <v/>
+      </c>
+      <c r="Z21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/fåglar/A 28566-2024 prioriterade fågelarter.docx", "A 28566-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A 40528-2024</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>45555.60616898148</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>46062</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
           <t>Mattlummer</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 40528-2024 artfynd.xlsx", "A 40528-2024")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 40528-2024 karta.png", "A 40528-2024")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 40528-2024 FSC-klagomål.docx", "A 40528-2024")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 40528-2024 FSC-klagomål mail.docx", "A 40528-2024")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 40528-2024 tillsynsbegäran.docx", "A 40528-2024")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 40528-2024 tillsynsbegäran mail.docx", "A 40528-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>A 73701-2021</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>44552.49849537037</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>46061</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" s="2" t="inlineStr"/>
-    </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 64133-2021</t>
+          <t>A 73701-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44510.50043981482</v>
+        <v>44552.49849537037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2514,8 +2541,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2552,14 +2584,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 34457-2021</t>
+          <t>A 64133-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44381</v>
+        <v>44510.50043981482</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2572,7 +2604,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.2</v>
+        <v>3.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2609,14 +2641,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 72803-2021</t>
+          <t>A 34457-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44546</v>
+        <v>44381</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2629,7 +2661,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2666,14 +2698,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 21035-2021</t>
+          <t>A 72803-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44319</v>
+        <v>44546</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2685,13 +2717,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2728,14 +2755,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 47669-2021</t>
+          <t>A 21035-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44448.43530092593</v>
+        <v>44319</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2747,8 +2774,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2785,14 +2817,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 25548-2022</t>
+          <t>A 47669-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44732.61756944445</v>
+        <v>44448.43530092593</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2805,7 +2837,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2842,14 +2874,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 7989-2021</t>
+          <t>A 25548-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44243</v>
+        <v>44732.61756944445</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2861,13 +2893,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2904,14 +2931,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 10327-2021</t>
+          <t>A 7989-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44257</v>
+        <v>44243</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2923,8 +2950,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>6.5</v>
+        <v>0.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2961,14 +2993,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 25116-2021</t>
+          <t>A 10327-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44341.71480324074</v>
+        <v>44257</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2980,13 +3012,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3023,14 +3050,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 50991-2021</t>
+          <t>A 25116-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44460.7434375</v>
+        <v>44341.71480324074</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3042,8 +3069,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3080,14 +3112,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 32408-2021</t>
+          <t>A 50991-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44371.6544212963</v>
+        <v>44460.7434375</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3099,13 +3131,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3142,14 +3169,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 44723-2021</t>
+          <t>A 32408-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44438</v>
+        <v>44371.6544212963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3161,8 +3188,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3199,14 +3231,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 8573-2021</t>
+          <t>A 44723-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44245</v>
+        <v>44438</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3219,7 +3251,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3256,14 +3288,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 8590-2021</t>
+          <t>A 8573-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
         <v>44245</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3275,13 +3307,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>0.3</v>
+        <v>3.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3318,14 +3345,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 34460-2021</t>
+          <t>A 8590-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44381</v>
+        <v>44245</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3337,8 +3364,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>3.4</v>
+        <v>0.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3375,14 +3407,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 64869-2021</t>
+          <t>A 34460-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44512.60798611111</v>
+        <v>44381</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3394,13 +3426,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3437,14 +3464,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 22861-2022</t>
+          <t>A 64869-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44715.48209490741</v>
+        <v>44512.60798611111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3456,8 +3483,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3494,14 +3526,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 41026-2021</t>
+          <t>A 22861-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44421.66028935185</v>
+        <v>44715.48209490741</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3513,13 +3545,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3556,14 +3583,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 63671-2021</t>
+          <t>A 41026-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44508</v>
+        <v>44421.66028935185</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3577,11 +3604,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3618,14 +3645,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 4537-2022</t>
+          <t>A 63671-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44590</v>
+        <v>44508</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3637,8 +3664,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3675,14 +3707,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 56435-2021</t>
+          <t>A 4537-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44480</v>
+        <v>44590</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3695,7 +3727,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3732,14 +3764,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 24637-2021</t>
+          <t>A 56435-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44340</v>
+        <v>44480</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3751,13 +3783,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3794,14 +3821,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 37582-2022</t>
+          <t>A 24637-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44809.80543981482</v>
+        <v>44340</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3813,8 +3840,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3851,14 +3883,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 38012-2022</t>
+          <t>A 37582-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44811</v>
+        <v>44809.80543981482</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3871,7 +3903,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3908,14 +3940,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 25898-2021</t>
+          <t>A 38012-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44344.39799768518</v>
+        <v>44811</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3927,13 +3959,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3970,14 +3997,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 11081-2022</t>
+          <t>A 25898-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44628</v>
+        <v>44344.39799768518</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3995,7 +4022,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4032,14 +4059,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 37584-2022</t>
+          <t>A 11081-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44809.81278935185</v>
+        <v>44628</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4051,8 +4078,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>4.9</v>
+        <v>0.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4089,14 +4121,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 21612-2022</t>
+          <t>A 37584-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44706.67246527778</v>
+        <v>44809.81278935185</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4109,7 +4141,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.7</v>
+        <v>4.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4146,14 +4178,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 21622-2022</t>
+          <t>A 21612-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44706.68547453704</v>
+        <v>44706.67246527778</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4166,7 +4198,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4203,14 +4235,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 45117-2021</t>
+          <t>A 21622-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44439</v>
+        <v>44706.68547453704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4223,7 +4255,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>6.5</v>
+        <v>0.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4260,14 +4292,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 39027-2022</t>
+          <t>A 45117-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44817</v>
+        <v>44439</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4279,13 +4311,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4322,14 +4349,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 58390-2024</t>
+          <t>A 39027-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45633.6719212963</v>
+        <v>44817</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4341,8 +4368,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4379,14 +4411,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 4587-2025</t>
+          <t>A 58390-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45687.51668981482</v>
+        <v>45633.6719212963</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4399,7 +4431,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4436,14 +4468,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 35471-2024</t>
+          <t>A 4587-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45531.46973379629</v>
+        <v>45687.51668981482</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4456,7 +4488,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4493,14 +4525,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 61813-2024</t>
+          <t>A 35471-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45649.59596064815</v>
+        <v>45531.46973379629</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4512,13 +4544,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4555,14 +4582,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 9712-2024</t>
+          <t>A 61813-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45362</v>
+        <v>45649.59596064815</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4580,7 +4607,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4617,14 +4644,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 4164-2022</t>
+          <t>A 9712-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44588</v>
+        <v>45362</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4638,11 +4665,11 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4679,14 +4706,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 42804-2023</t>
+          <t>A 4164-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45182</v>
+        <v>44588</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4700,11 +4727,11 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4741,14 +4768,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 9510-2023</t>
+          <t>A 42804-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44981.64696759259</v>
+        <v>45182</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4760,8 +4787,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4798,14 +4830,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 1309-2024</t>
+          <t>A 9510-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45303</v>
+        <v>44981.64696759259</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4818,7 +4850,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4855,14 +4887,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 35444-2024</t>
+          <t>A 1309-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45531.43599537037</v>
+        <v>45303</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4875,7 +4907,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4912,14 +4944,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 23263-2022</t>
+          <t>A 35444-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44720.40815972222</v>
+        <v>45531.43599537037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4932,7 +4964,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4969,14 +5001,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 21915-2025</t>
+          <t>A 23263-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45784</v>
+        <v>44720.40815972222</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4989,7 +5021,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>12</v>
+        <v>2.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5026,14 +5058,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 47201-2023</t>
+          <t>A 21915-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45196</v>
+        <v>45784</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5046,7 +5078,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.7</v>
+        <v>12</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5083,14 +5115,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 24099-2025</t>
+          <t>A 47201-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45796</v>
+        <v>45196</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5103,7 +5135,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5140,14 +5172,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 61396-2023</t>
+          <t>A 24099-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45264.64989583333</v>
+        <v>45796</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5160,7 +5192,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5197,14 +5229,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 8259-2025</t>
+          <t>A 61396-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45708.50091435185</v>
+        <v>45264.64989583333</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5217,7 +5249,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5254,14 +5286,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 24116-2024</t>
+          <t>A 8259-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45456</v>
+        <v>45708.50091435185</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5274,7 +5306,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5311,14 +5343,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 35930-2023</t>
+          <t>A 24116-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45148</v>
+        <v>45456</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5330,13 +5362,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>5.2</v>
+        <v>1.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5373,14 +5400,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 26653-2025</t>
+          <t>A 35930-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45810</v>
+        <v>45148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5398,7 +5425,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.8</v>
+        <v>5.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5435,14 +5462,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 27498-2025</t>
+          <t>A 26653-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45813</v>
+        <v>45810</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5454,8 +5481,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5492,14 +5524,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 63863-2023</t>
+          <t>A 27498-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45278.50163194445</v>
+        <v>45813</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5512,7 +5544,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5549,14 +5581,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 39673-2025</t>
+          <t>A 63863-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45890.64559027777</v>
+        <v>45278.50163194445</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5568,13 +5600,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5611,14 +5638,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 17815-2025</t>
+          <t>A 39673-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45758.56148148148</v>
+        <v>45890.64559027777</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5632,11 +5659,11 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5673,14 +5700,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 41267-2025</t>
+          <t>A 17815-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45898.61796296296</v>
+        <v>45758.56148148148</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5692,8 +5719,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5730,14 +5762,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 64089-2021</t>
+          <t>A 41267-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44510</v>
+        <v>45898.61796296296</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5750,7 +5782,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5787,14 +5819,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 59938-2023</t>
+          <t>A 64089-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45257.67357638889</v>
+        <v>44510</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5807,7 +5839,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5844,14 +5876,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 52828-2024</t>
+          <t>A 59938-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45610.59295138889</v>
+        <v>45257.67357638889</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5864,7 +5896,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>8.300000000000001</v>
+        <v>2.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5901,14 +5933,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 23620-2024</t>
+          <t>A 52828-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45454</v>
+        <v>45610.59295138889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5921,7 +5953,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5958,14 +5990,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 53647-2023</t>
+          <t>A 23620-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45230.6046875</v>
+        <v>45454</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5978,7 +6010,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6015,14 +6047,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 39936-2024</t>
+          <t>A 53647-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45553.56512731482</v>
+        <v>45230.6046875</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6035,7 +6067,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>6.4</v>
+        <v>0.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6072,14 +6104,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 43772-2025</t>
+          <t>A 39936-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45912.50550925926</v>
+        <v>45553.56512731482</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6092,7 +6124,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.6</v>
+        <v>6.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6129,14 +6161,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 30102-2025</t>
+          <t>A 43772-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45826.68414351852</v>
+        <v>45912.50550925926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6149,7 +6181,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6186,14 +6218,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 15254-2025</t>
+          <t>A 30102-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45744.64983796296</v>
+        <v>45826.68414351852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6205,13 +6237,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6248,14 +6275,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 15256-2025</t>
+          <t>A 15254-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45744.65391203704</v>
+        <v>45744.64983796296</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6273,7 +6300,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>5.5</v>
+        <v>1.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6310,14 +6337,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 34585-2021</t>
+          <t>A 15256-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44382.47526620371</v>
+        <v>45744.65391203704</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6329,8 +6356,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>1.1</v>
+        <v>5.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6367,14 +6399,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 54680-2021</t>
+          <t>A 34585-2021</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44473</v>
+        <v>44382.47526620371</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6387,7 +6419,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6424,14 +6456,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 44946-2025</t>
+          <t>A 54680-2021</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45918.6046875</v>
+        <v>44473</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6444,7 +6476,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6481,14 +6513,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 44949-2025</t>
+          <t>A 44946-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45918.60568287037</v>
+        <v>45918.6046875</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6501,7 +6533,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6538,14 +6570,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 45664-2025</t>
+          <t>A 44949-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45923.34690972222</v>
+        <v>45918.60568287037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6557,13 +6589,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>9</v>
+        <v>0.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6600,14 +6627,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 24115-2024</t>
+          <t>A 45664-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45456</v>
+        <v>45923.34690972222</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6619,8 +6646,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6657,14 +6689,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 31397-2025</t>
+          <t>A 24115-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45833</v>
+        <v>45456</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6677,7 +6709,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6714,14 +6746,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 45596-2025</t>
+          <t>A 31397-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45922.68408564815</v>
+        <v>45833</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6733,13 +6765,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6776,14 +6803,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 32287-2025</t>
+          <t>A 45596-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45835.6914699074</v>
+        <v>45922.68408564815</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6801,7 +6828,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>10.9</v>
+        <v>2.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6838,14 +6865,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 53619-2024</t>
+          <t>A 32287-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45614.73967592593</v>
+        <v>45835.6914699074</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6857,8 +6884,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>0.8</v>
+        <v>10.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6895,14 +6927,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 18768-2025</t>
+          <t>A 53619-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45764.29767361111</v>
+        <v>45614.73967592593</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6914,13 +6946,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6957,14 +6984,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 4801-2024</t>
+          <t>A 18768-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45328.89141203704</v>
+        <v>45764.29767361111</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6976,8 +7003,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7014,14 +7046,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 4802-2024</t>
+          <t>A 4801-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45328.8962962963</v>
+        <v>45328.89141203704</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7071,14 +7103,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 32870-2025</t>
+          <t>A 4802-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45839.58939814815</v>
+        <v>45328.8962962963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7091,7 +7123,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7128,14 +7160,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 8990-2023</t>
+          <t>A 32870-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44979.55237268518</v>
+        <v>45839.58939814815</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7148,7 +7180,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7185,14 +7217,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 42802-2023</t>
+          <t>A 8990-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45182</v>
+        <v>44979.55237268518</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7204,13 +7236,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7247,14 +7274,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 28471-2023</t>
+          <t>A 42802-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45103.41175925926</v>
+        <v>45182</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7266,8 +7293,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7304,14 +7336,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 22867-2022</t>
+          <t>A 28471-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44715.49313657408</v>
+        <v>45103.41175925926</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7324,7 +7356,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7361,14 +7393,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 64060-2023</t>
+          <t>A 22867-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45279.35636574074</v>
+        <v>44715.49313657408</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7381,7 +7413,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7418,14 +7450,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 48707-2024</t>
+          <t>A 64060-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45593.53480324074</v>
+        <v>45279.35636574074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7438,7 +7470,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>6</v>
+        <v>1.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7475,14 +7507,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 50957-2025</t>
+          <t>A 48707-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45946.78399305556</v>
+        <v>45593.53480324074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7495,7 +7527,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7532,14 +7564,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 50958-2025</t>
+          <t>A 50957-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45946.78709490741</v>
+        <v>45946.78399305556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7552,7 +7584,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7589,14 +7621,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 55832-2023</t>
+          <t>A 50958-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45239.61148148148</v>
+        <v>45946.78709490741</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7609,7 +7641,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7646,14 +7678,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 58388-2024</t>
+          <t>A 55832-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45633.64746527778</v>
+        <v>45239.61148148148</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7666,7 +7698,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>5.8</v>
+        <v>0.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7703,14 +7735,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 52376-2025</t>
+          <t>A 58388-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45953.94524305555</v>
+        <v>45633.64746527778</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7722,13 +7754,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>1.3</v>
+        <v>5.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7765,14 +7792,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 52377-2025</t>
+          <t>A 52376-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45953.94622685185</v>
+        <v>45953.94524305555</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7790,7 +7817,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7827,14 +7854,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 52379-2025</t>
+          <t>A 52377-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45953.94826388889</v>
+        <v>45953.94622685185</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7852,7 +7879,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7889,14 +7916,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 18978-2025</t>
+          <t>A 52379-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45764.54626157408</v>
+        <v>45953.94826388889</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7908,8 +7935,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7946,14 +7978,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 37150-2025</t>
+          <t>A 18978-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45875.5734837963</v>
+        <v>45764.54626157408</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7966,7 +7998,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8003,14 +8035,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 10816-2023</t>
+          <t>A 37150-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44990.43501157407</v>
+        <v>45875.5734837963</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8023,7 +8055,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8060,14 +8092,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 31921-2022</t>
+          <t>A 10816-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44777</v>
+        <v>44990.43501157407</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8080,7 +8112,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8117,14 +8149,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 43075-2023</t>
+          <t>A 31921-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45182.83460648148</v>
+        <v>44777</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8137,7 +8169,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8174,14 +8206,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 37332-2025</t>
+          <t>A 43075-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45876.65920138889</v>
+        <v>45182.83460648148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8193,13 +8225,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>8.300000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8236,14 +8263,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 37737-2025</t>
+          <t>A 37332-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45880.63737268518</v>
+        <v>45876.65920138889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8261,7 +8288,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8298,14 +8325,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 47196-2023</t>
+          <t>A 37737-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45196</v>
+        <v>45880.63737268518</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8317,8 +8344,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>5.9</v>
+        <v>2.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8355,14 +8387,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 13454-2022</t>
+          <t>A 47196-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44645</v>
+        <v>45196</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8375,7 +8407,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.7</v>
+        <v>5.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8412,14 +8444,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 15252-2025</t>
+          <t>A 13454-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45744</v>
+        <v>44645</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8431,13 +8463,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8474,14 +8501,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 15253-2025</t>
+          <t>A 15252-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
         <v>45744</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8499,7 +8526,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8536,14 +8563,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 55025-2025</t>
+          <t>A 15253-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45967.63591435185</v>
+        <v>45744</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8555,8 +8582,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8593,14 +8625,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 20470-2025</t>
+          <t>A 55025-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45775.54530092593</v>
+        <v>45967.63591435185</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8612,13 +8644,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8655,14 +8682,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 53618-2024</t>
+          <t>A 20470-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45614.73951388889</v>
+        <v>45775.54530092593</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8674,8 +8701,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>10.1</v>
+        <v>2.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8712,14 +8744,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 38071-2025</t>
+          <t>A 53618-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45882.4412037037</v>
+        <v>45614.73951388889</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8732,7 +8764,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.2</v>
+        <v>10.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8769,14 +8801,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 30961-2022</t>
+          <t>A 38071-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44768</v>
+        <v>45882.4412037037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8788,13 +8820,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8831,14 +8858,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 42803-2023</t>
+          <t>A 30961-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45182</v>
+        <v>44768</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8852,11 +8879,11 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8893,14 +8920,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 9941-2025</t>
+          <t>A 42803-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45718.83177083333</v>
+        <v>45182</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8912,8 +8939,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>5.5</v>
+        <v>0.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8950,14 +8982,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 24255-2024</t>
+          <t>A 9941-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45457.39487268519</v>
+        <v>45718.83177083333</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8970,7 +9002,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9007,14 +9039,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 57212-2025</t>
+          <t>A 24255-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45979.60140046296</v>
+        <v>45457.39487268519</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9027,7 +9059,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9064,14 +9096,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 8803-2025</t>
+          <t>A 57212-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45712.66123842593</v>
+        <v>45979.60140046296</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9084,7 +9116,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9121,14 +9153,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 15188-2025</t>
+          <t>A 8803-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45744.55122685185</v>
+        <v>45712.66123842593</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9140,13 +9172,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>11.8</v>
+        <v>1.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9183,14 +9210,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 56313-2024</t>
+          <t>A 15188-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45624</v>
+        <v>45744.55122685185</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9204,11 +9231,11 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.2</v>
+        <v>11.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9245,14 +9272,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 10743-2023</t>
+          <t>A 56313-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44988.70174768518</v>
+        <v>45624</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9270,7 +9297,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9307,14 +9334,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 14215-2024</t>
+          <t>A 10743-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45393</v>
+        <v>44988.70174768518</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9328,11 +9355,11 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9369,14 +9396,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 55191-2023</t>
+          <t>A 14215-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45237.58084490741</v>
+        <v>45393</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9388,8 +9415,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>1.9</v>
+        <v>4.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9426,14 +9458,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 58695-2025</t>
+          <t>A 55191-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45986.58576388889</v>
+        <v>45237.58084490741</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9446,7 +9478,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>7.2</v>
+        <v>1.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9483,14 +9515,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 15269-2025</t>
+          <t>A 58695-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45744.66511574074</v>
+        <v>45986.58576388889</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9502,13 +9534,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>3.1</v>
+        <v>7.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9545,14 +9572,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 59025-2024</t>
+          <t>A 15269-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45636.68592592593</v>
+        <v>45744.66511574074</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9566,11 +9593,11 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9607,14 +9634,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 59522-2025</t>
+          <t>A 59025-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45989.6597800926</v>
+        <v>45636.68592592593</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9628,11 +9655,11 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9669,14 +9696,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 917-2026</t>
+          <t>A 59522-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>46030.48421296296</v>
+        <v>45989.6597800926</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9688,8 +9715,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G145" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9726,14 +9758,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 1788-2026</t>
+          <t>A 917-2026</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>46034.87616898148</v>
+        <v>46030.48421296296</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9746,7 +9778,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9783,14 +9815,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 17243-2024</t>
+          <t>A 1788-2026</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45414</v>
+        <v>46034.87616898148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9803,7 +9835,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9840,14 +9872,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 60465-2025</t>
+          <t>A 17243-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45995.55730324074</v>
+        <v>45414</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9860,7 +9892,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9897,14 +9929,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 60506-2025</t>
+          <t>A 60465-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45995.62744212963</v>
+        <v>45995.55730324074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9917,7 +9949,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9954,14 +9986,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 60508-2025</t>
+          <t>A 60506-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45995.63013888889</v>
+        <v>45995.62744212963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9974,7 +10006,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10011,14 +10043,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 60470-2025</t>
+          <t>A 60508-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45995.565625</v>
+        <v>45995.63013888889</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10031,7 +10063,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10068,14 +10100,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 60503-2025</t>
+          <t>A 60470-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45995.62199074074</v>
+        <v>45995.565625</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10088,7 +10120,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10125,14 +10157,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 2911-2026</t>
+          <t>A 60503-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>46038.56614583333</v>
+        <v>45995.62199074074</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10145,7 +10177,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10182,14 +10214,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 35060-2024</t>
+          <t>A 2911-2026</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45527</v>
+        <v>46038.56614583333</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10201,13 +10233,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10244,14 +10271,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 52826-2024</t>
+          <t>A 35060-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45610.59243055555</v>
+        <v>45527</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10263,8 +10290,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10301,14 +10333,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 52829-2024</t>
+          <t>A 52826-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45610.59344907408</v>
+        <v>45610.59243055555</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10321,7 +10353,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10358,14 +10390,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 11974-2025</t>
+          <t>A 52829-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45728.58998842593</v>
+        <v>45610.59344907408</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10378,7 +10410,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10415,14 +10447,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 28474-2023</t>
+          <t>A 11974-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45103.42020833334</v>
+        <v>45728.58998842593</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10435,7 +10467,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>5.1</v>
+        <v>1.4</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10472,14 +10504,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 61788-2025</t>
+          <t>A 28474-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>46002.68515046296</v>
+        <v>45103.42020833334</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10491,13 +10523,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G159" t="n">
-        <v>0.9</v>
+        <v>5.1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10534,14 +10561,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 61271-2022</t>
+          <t>A 61788-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44909</v>
+        <v>46002.68515046296</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10555,11 +10582,11 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>14.1</v>
+        <v>0.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10596,14 +10623,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 48168-2024</t>
+          <t>A 61271-2022</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45589.74410879629</v>
+        <v>44909</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10615,8 +10642,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>5.5</v>
+        <v>14.1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10653,14 +10685,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 58091-2022</t>
+          <t>A 48168-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44900</v>
+        <v>45589.74410879629</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10672,13 +10704,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G162" t="n">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10715,14 +10742,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 18468-2025</t>
+          <t>A 58091-2022</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45762.73166666667</v>
+        <v>44900</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10734,8 +10761,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G163" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10772,14 +10804,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 18955-2025</t>
+          <t>A 18468-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45764.51512731481</v>
+        <v>45762.73166666667</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10792,7 +10824,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>8.1</v>
+        <v>3.1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10829,14 +10861,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 50614-2024</t>
+          <t>A 18955-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45601.63342592592</v>
+        <v>45764.51512731481</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10849,7 +10881,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.7</v>
+        <v>8.1</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10886,14 +10918,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 55182-2024</t>
+          <t>A 50614-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45618</v>
+        <v>45601.63342592592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10906,7 +10938,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>11.4</v>
+        <v>0.7</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10943,14 +10975,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 16476-2025</t>
+          <t>A 55182-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45751.57092592592</v>
+        <v>45618</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10963,7 +10995,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.3</v>
+        <v>11.4</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11000,14 +11032,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 6255-2026</t>
+          <t>A 16476-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>46055.47542824074</v>
+        <v>45751.57092592592</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11057,14 +11089,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 64066-2025</t>
+          <t>A 6255-2026</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>46013</v>
+        <v>46055.47542824074</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11077,7 +11109,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11114,14 +11146,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 4058-2022</t>
+          <t>A 64066-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44588</v>
+        <v>46013</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11134,7 +11166,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11171,14 +11203,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 6605-2026</t>
+          <t>A 4058-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>46056.47820601852</v>
+        <v>44588</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11191,7 +11223,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11228,14 +11260,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 63628-2025</t>
+          <t>A 6605-2026</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>46014.36813657408</v>
+        <v>46056.47820601852</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11248,7 +11280,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11285,14 +11317,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 63188-2025</t>
+          <t>A 63628-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>46010.44494212963</v>
+        <v>46014.36813657408</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11304,13 +11336,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11347,14 +11374,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 46605-2021</t>
+          <t>A 63188-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44445.55292824074</v>
+        <v>46010.44494212963</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11372,7 +11399,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11409,14 +11436,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 7232-2026</t>
+          <t>A 46605-2021</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>46058.57258101852</v>
+        <v>44445.55292824074</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11428,8 +11455,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G175" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11466,14 +11498,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 3227-2025</t>
+          <t>A 7232-2026</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45679</v>
+        <v>46058.57258101852</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11486,7 +11518,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11523,14 +11555,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 28100-2024</t>
+          <t>A 3227-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45476.61674768518</v>
+        <v>45679</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11543,7 +11575,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11580,14 +11612,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 16256-2025</t>
+          <t>A 28100-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45750.71596064815</v>
+        <v>45476.61674768518</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11599,13 +11631,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G178" t="n">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11642,14 +11669,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 50863-2024</t>
+          <t>A 16256-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45602.63560185185</v>
+        <v>45750.71596064815</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11667,7 +11694,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>8.1</v>
+        <v>3.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11704,14 +11731,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 27728-2021</t>
+          <t>A 50863-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44354.47241898148</v>
+        <v>45602.63560185185</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11725,11 +11752,11 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.7</v>
+        <v>8.1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11766,14 +11793,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 1106-2024</t>
+          <t>A 27728-2021</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45302</v>
+        <v>44354.47241898148</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11785,8 +11812,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G181" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11823,14 +11855,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 39030-2022</t>
+          <t>A 1106-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44817.34023148148</v>
+        <v>45302</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11842,13 +11874,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11885,14 +11912,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 28566-2024</t>
+          <t>A 39030-2022</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45478.38914351852</v>
+        <v>44817.34023148148</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11902,6 +11929,11 @@
       <c r="E183" t="inlineStr">
         <is>
           <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G183" t="n">
@@ -11949,7 +11981,7 @@
         <v>44812</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12011,7 +12043,7 @@
         <v>45033</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12073,7 +12105,7 @@
         <v>45772</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12135,7 +12167,7 @@
         <v>45772</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12197,7 +12229,7 @@
         <v>44483</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12254,7 +12286,7 @@
         <v>45708.4852662037</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12311,7 +12343,7 @@
         <v>45545.49076388889</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12368,7 +12400,7 @@
         <v>44354.4771412037</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12430,7 +12462,7 @@
         <v>45775.53664351852</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12492,7 +12524,7 @@
         <v>45586</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12554,7 +12586,7 @@
         <v>45531.46973379629</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12611,7 +12643,7 @@
         <v>44322.41228009259</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12668,7 +12700,7 @@
         <v>45531.43599537037</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12725,7 +12757,7 @@
         <v>45196</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12782,7 +12814,7 @@
         <v>45545.49483796296</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12839,7 +12871,7 @@
         <v>45601.63069444444</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12896,7 +12928,7 @@
         <v>45435.30835648148</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12958,7 +12990,7 @@
         <v>44467.37496527778</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13015,7 +13047,7 @@
         <v>45744.65173611111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13077,7 +13109,7 @@
         <v>45589.73996527777</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13134,7 +13166,7 @@
         <v>45434</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13191,7 +13223,7 @@
         <v>45736.44390046296</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13248,7 +13280,7 @@
         <v>44894.57006944445</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13305,7 +13337,7 @@
         <v>45125</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13362,7 +13394,7 @@
         <v>44425.65414351852</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13424,7 +13456,7 @@
         <v>44425.655625</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13486,7 +13518,7 @@
         <v>45219.59462962963</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13548,7 +13580,7 @@
         <v>45700.78726851852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13605,7 +13637,7 @@
         <v>44987.7978125</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13662,7 +13694,7 @@
         <v>44817.72568287037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13719,7 +13751,7 @@
         <v>45614.73983796296</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13776,7 +13808,7 @@
         <v>45673</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13833,7 +13865,7 @@
         <v>44258.26988425926</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13890,7 +13922,7 @@
         <v>45736.45362268519</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13947,7 +13979,7 @@
         <v>44327</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14009,7 +14041,7 @@
         <v>44623.45096064815</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14066,7 +14098,7 @@
         <v>45721</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14123,7 +14155,7 @@
         <v>45779.57381944444</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14185,7 +14217,7 @@
         <v>45779.48717592593</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14247,7 +14279,7 @@
         <v>45785</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14304,7 +14336,7 @@
         <v>45161</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14366,7 +14398,7 @@
         <v>45785.67974537037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14423,7 +14455,7 @@
         <v>45784.33908564815</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14485,7 +14517,7 @@
         <v>45321</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14547,7 +14579,7 @@
         <v>45791.6047800926</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14604,7 +14636,7 @@
         <v>45793.39087962963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14661,7 +14693,7 @@
         <v>45793.39612268518</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>

--- a/Översikt KARLSKOGA.xlsx
+++ b/Översikt KARLSKOGA.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 59524-2025</t>
+          <t>A 64125-2021</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45989</v>
+        <v>44510</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -587,22 +587,17 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G2" t="n">
-        <v>4.6</v>
+        <v>6.5</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -617,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -626,6 +621,109 @@
         <v>14</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Gäckporing
+Motaggsvamp
+Stubbtrådmossa
+Ullticka
+Bronshjon
+Flagellkvastmossa
+Gulnål
+Kornig nållav
+Nordisk klipptuss
+Rostfläck
+Smal svampklubba
+Trind spretmossa
+Vedticka
+Zontaggsvamp</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 64125-2021 artfynd.xlsx", "A 64125-2021")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 64125-2021 karta.png", "A 64125-2021")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 64125-2021 FSC-klagomål.docx", "A 64125-2021")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 64125-2021 FSC-klagomål mail.docx", "A 64125-2021")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 64125-2021 tillsynsbegäran.docx", "A 64125-2021")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 64125-2021 tillsynsbegäran mail.docx", "A 64125-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 59524-2025</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45989</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>8</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>14</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Havsörn
@@ -643,133 +741,35 @@
 Sparvuggla</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 59524-2025 artfynd.xlsx", "A 59524-2025")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 59524-2025 karta.png", "A 59524-2025")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 59524-2025 FSC-klagomål.docx", "A 59524-2025")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 59524-2025 FSC-klagomål mail.docx", "A 59524-2025")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 59524-2025 tillsynsbegäran.docx", "A 59524-2025")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 59524-2025 tillsynsbegäran mail.docx", "A 59524-2025")</f>
         <v/>
       </c>
-      <c r="Z2">
+      <c r="Z3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/fåglar/A 59524-2025 prioriterade fågelarter.docx", "A 59524-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 64125-2021</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>44510</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>4</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>14</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Gäckporing
-Motaggsvamp
-Stubbtrådmossa
-Ullticka
-Bronshjon
-Flagellkvastmossa
-Gulnål
-Kornig nållav
-Nordisk klipptuss
-Rostfläck
-Smal svampklubba
-Trind spretmossa
-Vedticka
-Zontaggsvamp</t>
-        </is>
-      </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 64125-2021 artfynd.xlsx", "A 64125-2021")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 64125-2021 karta.png", "A 64125-2021")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 64125-2021 FSC-klagomål.docx", "A 64125-2021")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 64125-2021 FSC-klagomål mail.docx", "A 64125-2021")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 64125-2021 tillsynsbegäran.docx", "A 64125-2021")</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 64125-2021 tillsynsbegäran mail.docx", "A 64125-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45958</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45989</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>45744.66456018519</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>44495</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>45840.87771990741</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>45849.38643518519</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>44354</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1432,14 +1432,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 24188-2024</t>
+          <t>A 28566-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45456.9100925926</v>
+        <v>45478.38914351852</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1451,16 +1451,11 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G11" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1491,672 +1486,676 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
+          <t>Ärtsångare</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 28566-2024 artfynd.xlsx", "A 28566-2024")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 28566-2024 karta.png", "A 28566-2024")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 28566-2024 FSC-klagomål.docx", "A 28566-2024")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 28566-2024 FSC-klagomål mail.docx", "A 28566-2024")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 28566-2024 tillsynsbegäran.docx", "A 28566-2024")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 28566-2024 tillsynsbegäran mail.docx", "A 28566-2024")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/fåglar/A 28566-2024 prioriterade fågelarter.docx", "A 28566-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 32081-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45835.45203703704</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Smal svampklubba</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 32081-2025 artfynd.xlsx", "A 32081-2025")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 32081-2025 karta.png", "A 32081-2025")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 32081-2025 FSC-klagomål.docx", "A 32081-2025")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 32081-2025 FSC-klagomål mail.docx", "A 32081-2025")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 32081-2025 tillsynsbegäran.docx", "A 32081-2025")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 32081-2025 tillsynsbegäran mail.docx", "A 32081-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 24188-2024</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45456.9100925926</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>9</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
           <t>Garnlav</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 24188-2024 artfynd.xlsx", "A 24188-2024")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 24188-2024 karta.png", "A 24188-2024")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 24188-2024 FSC-klagomål.docx", "A 24188-2024")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 24188-2024 FSC-klagomål mail.docx", "A 24188-2024")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 24188-2024 tillsynsbegäran.docx", "A 24188-2024")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 24188-2024 tillsynsbegäran mail.docx", "A 24188-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 34834-2025</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45849.38751157407</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 34834-2025 artfynd.xlsx", "A 34834-2025")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 34834-2025 karta.png", "A 34834-2025")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 34834-2025 FSC-klagomål.docx", "A 34834-2025")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 34834-2025 FSC-klagomål mail.docx", "A 34834-2025")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 34834-2025 tillsynsbegäran.docx", "A 34834-2025")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 34834-2025 tillsynsbegäran mail.docx", "A 34834-2025")</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/fåglar/A 34834-2025 prioriterade fågelarter.docx", "A 34834-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 52375-2025</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45953.94430555555</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Revlummer</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 52375-2025 artfynd.xlsx", "A 52375-2025")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 52375-2025 karta.png", "A 52375-2025")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 52375-2025 FSC-klagomål.docx", "A 52375-2025")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 52375-2025 FSC-klagomål mail.docx", "A 52375-2025")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 52375-2025 tillsynsbegäran.docx", "A 52375-2025")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 52375-2025 tillsynsbegäran mail.docx", "A 52375-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 59512-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45989.64748842592</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 59512-2025 artfynd.xlsx", "A 59512-2025")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 59512-2025 karta.png", "A 59512-2025")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 59512-2025 FSC-klagomål.docx", "A 59512-2025")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 59512-2025 FSC-klagomål mail.docx", "A 59512-2025")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 59512-2025 tillsynsbegäran.docx", "A 59512-2025")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 59512-2025 tillsynsbegäran mail.docx", "A 59512-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 59511-2025</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45989.64694444444</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 59511-2025 artfynd.xlsx", "A 59511-2025")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 59511-2025 karta.png", "A 59511-2025")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 59511-2025 FSC-klagomål.docx", "A 59511-2025")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 59511-2025 FSC-klagomål mail.docx", "A 59511-2025")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 59511-2025 tillsynsbegäran.docx", "A 59511-2025")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 59511-2025 tillsynsbegäran mail.docx", "A 59511-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>A 39025-2022</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>44817.3353125</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="C18" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G18" t="n">
         <v>3.2</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H18" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>1</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Talltita</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 39025-2022 artfynd.xlsx", "A 39025-2022")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 39025-2022 karta.png", "A 39025-2022")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 39025-2022 FSC-klagomål.docx", "A 39025-2022")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 39025-2022 FSC-klagomål mail.docx", "A 39025-2022")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 39025-2022 tillsynsbegäran.docx", "A 39025-2022")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 39025-2022 tillsynsbegäran mail.docx", "A 39025-2022")</f>
         <v/>
       </c>
-      <c r="Z12">
+      <c r="Z18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/fåglar/A 39025-2022 prioriterade fågelarter.docx", "A 39025-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 26651-2025</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45810</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Fläcknycklar</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 26651-2025 artfynd.xlsx", "A 26651-2025")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 26651-2025 karta.png", "A 26651-2025")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 26651-2025 FSC-klagomål.docx", "A 26651-2025")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 26651-2025 FSC-klagomål mail.docx", "A 26651-2025")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 26651-2025 tillsynsbegäran.docx", "A 26651-2025")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 26651-2025 tillsynsbegäran mail.docx", "A 26651-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 32081-2025</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45835.45203703704</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Smal svampklubba</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 32081-2025 artfynd.xlsx", "A 32081-2025")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 32081-2025 karta.png", "A 32081-2025")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 32081-2025 FSC-klagomål.docx", "A 32081-2025")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 32081-2025 FSC-klagomål mail.docx", "A 32081-2025")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 32081-2025 tillsynsbegäran.docx", "A 32081-2025")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 32081-2025 tillsynsbegäran mail.docx", "A 32081-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 34834-2025</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45849.38751157407</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Talltita</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 34834-2025 artfynd.xlsx", "A 34834-2025")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 34834-2025 karta.png", "A 34834-2025")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 34834-2025 FSC-klagomål.docx", "A 34834-2025")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 34834-2025 FSC-klagomål mail.docx", "A 34834-2025")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 34834-2025 tillsynsbegäran.docx", "A 34834-2025")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 34834-2025 tillsynsbegäran mail.docx", "A 34834-2025")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/fåglar/A 34834-2025 prioriterade fågelarter.docx", "A 34834-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 52375-2025</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45953.94430555555</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Revlummer</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 52375-2025 artfynd.xlsx", "A 52375-2025")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 52375-2025 karta.png", "A 52375-2025")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 52375-2025 FSC-klagomål.docx", "A 52375-2025")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 52375-2025 FSC-klagomål mail.docx", "A 52375-2025")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 52375-2025 tillsynsbegäran.docx", "A 52375-2025")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 52375-2025 tillsynsbegäran mail.docx", "A 52375-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 59512-2025</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45989.64748842592</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Motaggsvamp</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 59512-2025 artfynd.xlsx", "A 59512-2025")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 59512-2025 karta.png", "A 59512-2025")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 59512-2025 FSC-klagomål.docx", "A 59512-2025")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 59512-2025 FSC-klagomål mail.docx", "A 59512-2025")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 59512-2025 tillsynsbegäran.docx", "A 59512-2025")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 59512-2025 tillsynsbegäran mail.docx", "A 59512-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 59511-2025</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>45989.64694444444</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Motaggsvamp</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 59511-2025 artfynd.xlsx", "A 59511-2025")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 59511-2025 karta.png", "A 59511-2025")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 59511-2025 FSC-klagomål.docx", "A 59511-2025")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 59511-2025 FSC-klagomål mail.docx", "A 59511-2025")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 59511-2025 tillsynsbegäran.docx", "A 59511-2025")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 59511-2025 tillsynsbegäran mail.docx", "A 59511-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
@@ -2167,7 +2166,7 @@
         <v>46010.43457175926</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2261,7 +2260,7 @@
         <v>46010.44355324074</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2348,14 +2347,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 28566-2024</t>
+          <t>A 40528-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45478.38914351852</v>
+        <v>45555.60616898148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2368,7 +2367,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2377,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2392,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2402,49 +2401,45 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Ärtsångare</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 28566-2024 artfynd.xlsx", "A 28566-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 40528-2024 artfynd.xlsx", "A 40528-2024")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 28566-2024 karta.png", "A 28566-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 40528-2024 karta.png", "A 40528-2024")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 28566-2024 FSC-klagomål.docx", "A 28566-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 40528-2024 FSC-klagomål.docx", "A 40528-2024")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 28566-2024 FSC-klagomål mail.docx", "A 28566-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 40528-2024 FSC-klagomål mail.docx", "A 40528-2024")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 28566-2024 tillsynsbegäran.docx", "A 28566-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 40528-2024 tillsynsbegäran.docx", "A 40528-2024")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 28566-2024 tillsynsbegäran mail.docx", "A 28566-2024")</f>
-        <v/>
-      </c>
-      <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/fåglar/A 28566-2024 prioriterade fågelarter.docx", "A 28566-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 40528-2024 tillsynsbegäran mail.docx", "A 40528-2024")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 40528-2024</t>
+          <t>A 26651-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45555.60616898148</v>
+        <v>45810</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2456,8 +2451,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -2491,31 +2491,31 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 40528-2024 artfynd.xlsx", "A 40528-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 26651-2025 artfynd.xlsx", "A 26651-2025")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 40528-2024 karta.png", "A 40528-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 26651-2025 karta.png", "A 26651-2025")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 40528-2024 FSC-klagomål.docx", "A 40528-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 26651-2025 FSC-klagomål.docx", "A 26651-2025")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 40528-2024 FSC-klagomål mail.docx", "A 40528-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 26651-2025 FSC-klagomål mail.docx", "A 26651-2025")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 40528-2024 tillsynsbegäran.docx", "A 40528-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 26651-2025 tillsynsbegäran.docx", "A 26651-2025")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 40528-2024 tillsynsbegäran mail.docx", "A 40528-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 26651-2025 tillsynsbegäran mail.docx", "A 26651-2025")</f>
         <v/>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
         <v>44552.49849537037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>44510.50043981482</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>44381</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>44546</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2755,14 +2755,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 21035-2021</t>
+          <t>A 47669-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44319</v>
+        <v>44448.43530092593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2774,13 +2774,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2817,14 +2812,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 47669-2021</t>
+          <t>A 21035-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44448.43530092593</v>
+        <v>44319</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2836,8 +2831,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>44732.61756944445</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2931,14 +2931,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 7989-2021</t>
+          <t>A 10327-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44243</v>
+        <v>44257</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2950,13 +2950,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>0.7</v>
+        <v>6.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2993,14 +2988,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 10327-2021</t>
+          <t>A 7989-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44257</v>
+        <v>44243</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3012,8 +3007,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>6.5</v>
+        <v>0.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3057,7 +3057,7 @@
         <v>44341.71480324074</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>44460.7434375</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>44371.6544212963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>44438</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>44245</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3352,7 +3352,7 @@
         <v>44245</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3414,7 +3414,7 @@
         <v>44381</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>44512.60798611111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>44715.48209490741</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>44421.66028935185</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>44508</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3707,14 +3707,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 4537-2022</t>
+          <t>A 56435-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44590</v>
+        <v>44480</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3764,14 +3764,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 56435-2021</t>
+          <t>A 4537-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44480</v>
+        <v>44590</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3828,7 +3828,7 @@
         <v>44340</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44809.80543981482</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>44811</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44344.39799768518</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>44628</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>44809.81278935185</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>44706.67246527778</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44706.68547453704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>44439</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>44817</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4411,14 +4411,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 58390-2024</t>
+          <t>A 8803-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45633.6719212963</v>
+        <v>45712.66123842593</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4468,14 +4468,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 4587-2025</t>
+          <t>A 27735-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45687.51668981482</v>
+        <v>44354.4771412037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4487,8 +4487,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4525,14 +4530,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 35471-2024</t>
+          <t>A 46605-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45531.46973379629</v>
+        <v>44445.55292824074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4544,8 +4549,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4582,14 +4592,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 61813-2024</t>
+          <t>A 35445-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45649.59596064815</v>
+        <v>45531.43599537037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4601,13 +4611,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4644,14 +4649,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 9712-2024</t>
+          <t>A 39337-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45362</v>
+        <v>44817.72568287037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4663,13 +4668,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4706,14 +4706,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 4164-2022</t>
+          <t>A 27728-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44588</v>
+        <v>44354.47241898148</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4727,11 +4727,11 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4768,14 +4768,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 42804-2023</t>
+          <t>A 58091-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45182</v>
+        <v>44900</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4830,14 +4830,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 9510-2023</t>
+          <t>A 50863-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44981.64696759259</v>
+        <v>45602.63560185185</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4849,8 +4849,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>1.9</v>
+        <v>8.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4887,14 +4892,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 1309-2024</t>
+          <t>A 56887-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45303</v>
+        <v>44894.57006944445</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4907,7 +4912,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4944,14 +4949,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 35444-2024</t>
+          <t>A 38196-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45531.43599537037</v>
+        <v>45545.49483796296</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4964,7 +4969,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5001,14 +5006,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 23263-2022</t>
+          <t>A 20289-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44720.40815972222</v>
+        <v>45435.30835648148</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5020,8 +5025,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5058,14 +5068,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 21915-2025</t>
+          <t>A 9712-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45784</v>
+        <v>45362</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5077,8 +5087,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>12</v>
+        <v>0.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5115,14 +5130,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 47201-2023</t>
+          <t>A 15254-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45196</v>
+        <v>45744.64983796296</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5134,8 +5149,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5172,14 +5192,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 24099-2025</t>
+          <t>A 15256-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45796</v>
+        <v>45744.65391203704</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5191,8 +5211,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5229,14 +5254,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 61396-2023</t>
+          <t>A 4058-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45264.64989583333</v>
+        <v>44588</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5249,7 +5274,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5286,14 +5311,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 8259-2025</t>
+          <t>A 38190-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45708.50091435185</v>
+        <v>45545.49076388889</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5306,7 +5331,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5343,14 +5368,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 24116-2024</t>
+          <t>A 16256-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45456</v>
+        <v>45750.71596064815</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5362,8 +5387,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5400,14 +5430,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 35930-2023</t>
+          <t>A 43075-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45148</v>
+        <v>45182.83460648148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5419,13 +5449,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>5.2</v>
+        <v>3.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5462,14 +5487,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 26653-2025</t>
+          <t>A 23263-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45810</v>
+        <v>44720.40815972222</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5481,13 +5506,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5524,14 +5544,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 27498-2025</t>
+          <t>A 35444-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45813</v>
+        <v>45531.43599537037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5544,7 +5564,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5581,14 +5601,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 63863-2023</t>
+          <t>A 35471-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45278.50163194445</v>
+        <v>45531.46973379629</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5601,7 +5621,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5638,14 +5658,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 39673-2025</t>
+          <t>A 54680-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45890.64559027777</v>
+        <v>44473</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5657,13 +5677,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5700,14 +5715,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 17815-2025</t>
+          <t>A 30102-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45758.56148148148</v>
+        <v>45826.68414351852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5717,11 +5732,6 @@
       <c r="E77" t="inlineStr">
         <is>
           <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -5762,14 +5772,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 41267-2025</t>
+          <t>A 39936-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45898.61796296296</v>
+        <v>45553.56512731482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5782,7 +5792,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.9</v>
+        <v>6.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5819,14 +5829,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 64089-2021</t>
+          <t>A 47222-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44510</v>
+        <v>45586</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5838,8 +5848,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>1.9</v>
+        <v>5.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5876,14 +5891,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 59938-2023</t>
+          <t>A 58390-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45257.67357638889</v>
+        <v>45633.6719212963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5896,7 +5911,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5933,14 +5948,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 52828-2024</t>
+          <t>A 53647-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45610.59295138889</v>
+        <v>45230.6046875</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5953,7 +5968,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>8.300000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5990,14 +6005,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 23620-2024</t>
+          <t>A 34585-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45454</v>
+        <v>44382.47526620371</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6010,7 +6025,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6047,14 +6062,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 53647-2023</t>
+          <t>A 23620-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45230.6046875</v>
+        <v>45454</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6067,7 +6082,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6104,14 +6119,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 39936-2024</t>
+          <t>A 18768-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45553.56512731482</v>
+        <v>45764.29767361111</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6123,8 +6138,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>6.4</v>
+        <v>0.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6161,14 +6181,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 43772-2025</t>
+          <t>A 31397-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45912.50550925926</v>
+        <v>45833</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6181,7 +6201,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6218,14 +6238,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 30102-2025</t>
+          <t>A 9941-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45826.68414351852</v>
+        <v>45718.83177083333</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6238,7 +6258,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6275,14 +6295,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 15254-2025</t>
+          <t>A 42803-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45744.64983796296</v>
+        <v>45182</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6300,7 +6320,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6337,14 +6357,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 15256-2025</t>
+          <t>A 24255-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45744.65391203704</v>
+        <v>45457.39487268519</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6356,13 +6376,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6399,14 +6414,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 34585-2021</t>
+          <t>A 48167-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44382.47526620371</v>
+        <v>45589.73996527777</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6419,7 +6434,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.1</v>
+        <v>13.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6456,14 +6471,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 54680-2021</t>
+          <t>A 32287-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44473</v>
+        <v>45835.6914699074</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6475,8 +6490,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>2.9</v>
+        <v>10.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6513,14 +6533,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 44946-2025</t>
+          <t>A 39673-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45918.6046875</v>
+        <v>45890.64559027777</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6532,8 +6552,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6570,14 +6595,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 44949-2025</t>
+          <t>A 17815-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45918.60568287037</v>
+        <v>45758.56148148148</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6589,8 +6614,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6627,14 +6657,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 45664-2025</t>
+          <t>A 32870-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45923.34690972222</v>
+        <v>45839.58939814815</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6646,13 +6676,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6689,14 +6714,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 24115-2024</t>
+          <t>A 20086-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45456</v>
+        <v>45434</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6709,7 +6734,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6746,14 +6771,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 31397-2025</t>
+          <t>A 41267-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45833</v>
+        <v>45898.61796296296</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6766,7 +6791,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6803,14 +6828,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 45596-2025</t>
+          <t>A 9510-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45922.68408564815</v>
+        <v>44981.64696759259</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6822,13 +6847,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6865,14 +6885,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 32287-2025</t>
+          <t>A 59025-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45835.6914699074</v>
+        <v>45636.68592592593</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6890,7 +6910,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>10.9</v>
+        <v>0.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6927,14 +6947,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 53619-2024</t>
+          <t>A 43772-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45614.73967592593</v>
+        <v>45912.50550925926</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6947,7 +6967,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6984,14 +7004,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 18768-2025</t>
+          <t>A 53619-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45764.29767361111</v>
+        <v>45614.73967592593</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7003,13 +7023,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7046,14 +7061,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 4801-2024</t>
+          <t>A 37150-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45328.89141203704</v>
+        <v>45875.5734837963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7066,7 +7081,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7103,14 +7118,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 4802-2024</t>
+          <t>A 37332-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45328.8962962963</v>
+        <v>45876.65920138889</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7122,8 +7137,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>0.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7160,14 +7180,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 32870-2025</t>
+          <t>A 22624-2021</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45839.58939814815</v>
+        <v>44327</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7179,8 +7199,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7217,14 +7242,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 8990-2023</t>
+          <t>A 13501-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44979.55237268518</v>
+        <v>45736.45362268519</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7237,7 +7262,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7274,14 +7299,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 42802-2023</t>
+          <t>A 47094-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45182</v>
+        <v>45196</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7293,13 +7318,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7336,14 +7356,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 28471-2023</t>
+          <t>A 37737-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45103.41175925926</v>
+        <v>45880.63737268518</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7355,8 +7375,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7393,14 +7418,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 22867-2022</t>
+          <t>A 44946-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44715.49313657408</v>
+        <v>45918.6046875</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7413,7 +7438,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7450,14 +7475,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 64060-2023</t>
+          <t>A 44949-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45279.35636574074</v>
+        <v>45918.60568287037</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7470,7 +7495,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7507,14 +7532,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 48707-2024</t>
+          <t>A 10506-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45593.53480324074</v>
+        <v>45721</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7527,7 +7552,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7564,14 +7589,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 50957-2025</t>
+          <t>A 38071-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45946.78399305556</v>
+        <v>45882.4412037037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7584,7 +7609,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7621,14 +7646,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 50958-2025</t>
+          <t>A 20470-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45946.78709490741</v>
+        <v>45775.54530092593</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7640,8 +7665,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7678,14 +7708,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 55832-2023</t>
+          <t>A 45596-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45239.61148148148</v>
+        <v>45922.68408564815</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7697,8 +7727,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7735,14 +7770,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 58388-2024</t>
+          <t>A 31921-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45633.64746527778</v>
+        <v>44777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7755,7 +7790,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>5.8</v>
+        <v>2.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7792,14 +7827,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 52376-2025</t>
+          <t>A 42804-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45953.94524305555</v>
+        <v>45182</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7817,7 +7852,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7854,14 +7889,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 52377-2025</t>
+          <t>A 39030-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45953.94622685185</v>
+        <v>44817.34023148148</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7879,7 +7914,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7916,14 +7951,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 52379-2025</t>
+          <t>A 10816-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45953.94826388889</v>
+        <v>44990.43501157407</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7935,13 +7970,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7978,14 +8008,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 18978-2025</t>
+          <t>A 8244-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45764.54626157408</v>
+        <v>45708.4852662037</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7998,7 +8028,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8035,14 +8065,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 37150-2025</t>
+          <t>A 45664-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45875.5734837963</v>
+        <v>45923.34690972222</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8054,8 +8084,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>1.3</v>
+        <v>9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8092,14 +8127,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 10816-2023</t>
+          <t>A 28100-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44990.43501157407</v>
+        <v>45476.61674768518</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8112,7 +8147,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8149,14 +8184,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 31921-2022</t>
+          <t>A 51344-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44777</v>
+        <v>45219.59462962963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8168,8 +8203,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8206,14 +8246,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 43075-2023</t>
+          <t>A 18468-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45182.83460648148</v>
+        <v>45762.73166666667</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8263,14 +8303,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 37332-2025</t>
+          <t>A 4587-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45876.65920138889</v>
+        <v>45687.51668981482</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8282,13 +8322,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>8.300000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8325,14 +8360,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 37737-2025</t>
+          <t>A 41777-2021</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45880.63737268518</v>
+        <v>44425.65414351852</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8346,11 +8381,11 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8387,14 +8422,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 47196-2023</t>
+          <t>A 41779-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45196</v>
+        <v>44425.655625</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8406,8 +8441,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>5.9</v>
+        <v>1.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8444,14 +8484,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 13454-2022</t>
+          <t>A 20463-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44645</v>
+        <v>45775.53664351852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8463,8 +8503,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8501,14 +8546,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 15252-2025</t>
+          <t>A 28471-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45744</v>
+        <v>45103.41175925926</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8520,13 +8565,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8563,14 +8603,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 15253-2025</t>
+          <t>A 15255-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45744</v>
+        <v>45744.65173611111</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8588,7 +8628,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8625,14 +8665,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 55025-2025</t>
+          <t>A 16881-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45967.63591435185</v>
+        <v>45033</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8644,8 +8684,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8682,14 +8727,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 20470-2025</t>
+          <t>A 61396-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45775.54530092593</v>
+        <v>45264.64989583333</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8701,13 +8746,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8744,14 +8784,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 53618-2024</t>
+          <t>A 50958-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45614.73951388889</v>
+        <v>45946.78709490741</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8764,7 +8804,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>10.1</v>
+        <v>0.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8801,14 +8841,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 38071-2025</t>
+          <t>A 50957-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45882.4412037037</v>
+        <v>45946.78399305556</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8821,7 +8861,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8858,14 +8898,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 30961-2022</t>
+          <t>A 4164-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44768</v>
+        <v>44588</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8883,7 +8923,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8920,14 +8960,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 42803-2023</t>
+          <t>A 61271-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45182</v>
+        <v>44909</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8941,11 +8981,11 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.7</v>
+        <v>14.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8982,14 +9022,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 9941-2025</t>
+          <t>A 52377-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45718.83177083333</v>
+        <v>45953.94622685185</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9001,8 +9041,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9039,14 +9084,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 24255-2024</t>
+          <t>A 52379-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45457.39487268519</v>
+        <v>45953.94826388889</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9056,6 +9101,11 @@
       <c r="E134" t="inlineStr">
         <is>
           <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G134" t="n">
@@ -9096,14 +9146,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 57212-2025</t>
+          <t>A 57422-2021</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45979.60140046296</v>
+        <v>44483</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9116,7 +9166,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9153,14 +9203,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 8803-2025</t>
+          <t>A 52376-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45712.66123842593</v>
+        <v>45953.94524305555</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9172,8 +9222,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9210,14 +9265,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 15188-2025</t>
+          <t>A 35060-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45744.55122685185</v>
+        <v>45527</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9231,11 +9286,11 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>11.8</v>
+        <v>0.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9272,14 +9327,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 56313-2024</t>
+          <t>A 64060-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45624</v>
+        <v>45279.35636574074</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9291,13 +9346,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9334,14 +9384,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 10743-2023</t>
+          <t>A 55025-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44988.70174768518</v>
+        <v>45967.63591435185</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9351,11 +9401,6 @@
       <c r="E139" t="inlineStr">
         <is>
           <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G139" t="n">
@@ -9403,7 +9448,7 @@
         <v>45393</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9458,14 +9503,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 55191-2023</t>
+          <t>A 24116-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45237.58084490741</v>
+        <v>45456</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9478,7 +9523,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9515,14 +9560,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 58695-2025</t>
+          <t>A 55832-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45986.58576388889</v>
+        <v>45239.61148148148</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9535,7 +9580,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>7.2</v>
+        <v>0.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9572,14 +9617,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 15269-2025</t>
+          <t>A 10515-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45744.66511574074</v>
+        <v>44987.7978125</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9591,13 +9636,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9634,14 +9674,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 59025-2024</t>
+          <t>A 57212-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45636.68592592593</v>
+        <v>45979.60140046296</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9653,13 +9693,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9696,14 +9731,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 59522-2025</t>
+          <t>A 33011-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45989.6597800926</v>
+        <v>45125</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9715,13 +9750,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9758,14 +9788,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 917-2026</t>
+          <t>A 58695-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>46030.48421296296</v>
+        <v>45986.58576388889</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9778,7 +9808,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.7</v>
+        <v>7.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9815,14 +9845,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 1788-2026</t>
+          <t>A 48168-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>46034.87616898148</v>
+        <v>45589.74410879629</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9835,7 +9865,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9872,14 +9902,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 17243-2024</t>
+          <t>A 917-2026</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45414</v>
+        <v>46030.48421296296</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9892,7 +9922,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9929,14 +9959,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 60465-2025</t>
+          <t>A 59522-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45995.55730324074</v>
+        <v>45989.6597800926</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9948,8 +9978,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9986,14 +10021,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 60506-2025</t>
+          <t>A 13454-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45995.62744212963</v>
+        <v>44645</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10006,7 +10041,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10043,14 +10078,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 60508-2025</t>
+          <t>A 10743-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45995.63013888889</v>
+        <v>44988.70174768518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10062,8 +10097,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10100,14 +10140,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 60470-2025</t>
+          <t>A 50611-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45995.565625</v>
+        <v>45601.63069444444</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10120,7 +10160,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10157,14 +10197,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 60503-2025</t>
+          <t>A 42802-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45995.62199074074</v>
+        <v>45182</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10176,8 +10216,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10214,14 +10259,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 2911-2026</t>
+          <t>A 52829-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>46038.56614583333</v>
+        <v>45610.59344907408</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10234,7 +10279,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10271,14 +10316,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 35060-2024</t>
+          <t>A 1788-2026</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45527</v>
+        <v>46034.87616898148</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10290,13 +10335,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10333,14 +10373,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 52826-2024</t>
+          <t>A 56313-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45610.59243055555</v>
+        <v>45624</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10350,6 +10390,11 @@
       <c r="E156" t="inlineStr">
         <is>
           <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G156" t="n">
@@ -10390,14 +10435,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 52829-2024</t>
+          <t>A 38382-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45610.59344907408</v>
+        <v>44812</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10409,8 +10454,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G157" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10447,14 +10497,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 11974-2025</t>
+          <t>A 60470-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45728.58998842593</v>
+        <v>45995.565625</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10467,7 +10517,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10504,14 +10554,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 28474-2023</t>
+          <t>A 2911-2026</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45103.42020833334</v>
+        <v>46038.56614583333</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10524,7 +10574,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>5.1</v>
+        <v>1.1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10561,14 +10611,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 61788-2025</t>
+          <t>A 60503-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>46002.68515046296</v>
+        <v>45995.62199074074</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10580,13 +10630,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10623,14 +10668,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 61271-2022</t>
+          <t>A 28474-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44909</v>
+        <v>45103.42020833334</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10642,13 +10687,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>14.1</v>
+        <v>5.1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10685,14 +10725,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 48168-2024</t>
+          <t>A 60508-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45589.74410879629</v>
+        <v>45995.63013888889</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10705,7 +10745,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10742,14 +10782,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 58091-2022</t>
+          <t>A 60506-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44900</v>
+        <v>45995.62744212963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10761,13 +10801,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G163" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10804,14 +10839,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 18468-2025</t>
+          <t>A 60465-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45762.73166666667</v>
+        <v>45995.55730324074</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10824,7 +10859,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10861,14 +10896,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 18955-2025</t>
+          <t>A 24115-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45764.51512731481</v>
+        <v>45456</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10881,7 +10916,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10918,14 +10953,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 50614-2024</t>
+          <t>A 6835-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45601.63342592592</v>
+        <v>45700.78726851852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10938,7 +10973,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10975,14 +11010,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 55182-2024</t>
+          <t>A 10404-2022</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45618</v>
+        <v>44623.45096064815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10995,7 +11030,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>11.4</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11032,14 +11067,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 16476-2025</t>
+          <t>A 61788-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45751.57092592592</v>
+        <v>46002.68515046296</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11051,8 +11086,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G168" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11089,14 +11129,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 6255-2026</t>
+          <t>A 3227-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>46055.47542824074</v>
+        <v>45679</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11109,7 +11149,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11146,14 +11186,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 64066-2025</t>
+          <t>A 18955-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>46013</v>
+        <v>45764.51512731481</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11166,7 +11206,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.9</v>
+        <v>8.1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11203,14 +11243,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 4058-2022</t>
+          <t>A 22867-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44588</v>
+        <v>44715.49313657408</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11223,7 +11263,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11260,14 +11300,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 6605-2026</t>
+          <t>A 18978-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>46056.47820601852</v>
+        <v>45764.54626157408</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11280,7 +11320,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11317,14 +11357,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 63628-2025</t>
+          <t>A 4801-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>46014.36813657408</v>
+        <v>45328.89141203704</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11337,7 +11377,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11374,14 +11414,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 63188-2025</t>
+          <t>A 4802-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>46010.44494212963</v>
+        <v>45328.8962962963</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11393,13 +11433,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11436,14 +11471,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 46605-2021</t>
+          <t>A 30961-2022</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44445.55292824074</v>
+        <v>44768</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11457,11 +11492,11 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11498,14 +11533,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 7232-2026</t>
+          <t>A 55191-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>46058.57258101852</v>
+        <v>45237.58084490741</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11518,7 +11553,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11555,14 +11590,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 3227-2025</t>
+          <t>A 64066-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45679</v>
+        <v>46013</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11575,7 +11610,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11612,14 +11647,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 28100-2024</t>
+          <t>A 6255-2026</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45476.61674768518</v>
+        <v>46055.47542824074</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11632,7 +11667,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11669,14 +11704,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 16256-2025</t>
+          <t>A 63188-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45750.71596064815</v>
+        <v>46010.44494212963</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11690,11 +11725,11 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11731,14 +11766,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 50863-2024</t>
+          <t>A 6605-2026</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45602.63560185185</v>
+        <v>46056.47820601852</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11750,13 +11785,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>8.1</v>
+        <v>2.4</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11793,14 +11823,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 27728-2021</t>
+          <t>A 63628-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44354.47241898148</v>
+        <v>46014.36813657408</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11812,13 +11842,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G181" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11855,14 +11880,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 1106-2024</t>
+          <t>A 7232-2026</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45302</v>
+        <v>46058.57258101852</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11875,7 +11900,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11912,14 +11937,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 39030-2022</t>
+          <t>A 13496-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44817.34023148148</v>
+        <v>45736.44390046296</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11931,13 +11956,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11974,14 +11994,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 38382-2022</t>
+          <t>A 11974-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44812</v>
+        <v>45728.58998842593</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11993,13 +12013,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G184" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12036,14 +12051,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 16881-2023</t>
+          <t>A 63863-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45033</v>
+        <v>45278.50163194445</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12055,13 +12070,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12098,14 +12108,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 20139-2025</t>
+          <t>A 1309-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45772</v>
+        <v>45303</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12117,13 +12127,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G186" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12160,14 +12165,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 20140-2025</t>
+          <t>A 15252-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45772</v>
+        <v>45744</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12185,7 +12190,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12222,14 +12227,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 57422-2021</t>
+          <t>A 15253-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44483</v>
+        <v>45744</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12241,8 +12246,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G188" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12279,14 +12289,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 8244-2025</t>
+          <t>A 15188-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45708.4852662037</v>
+        <v>45744.55122685185</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12298,8 +12308,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>1.1</v>
+        <v>11.8</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12336,14 +12351,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 38190-2024</t>
+          <t>A 52826-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45545.49076388889</v>
+        <v>45610.59243055555</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12356,7 +12371,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12393,14 +12408,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 27735-2021</t>
+          <t>A 21682-2021</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44354.4771412037</v>
+        <v>44322.41228009259</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12412,13 +12427,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G191" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12455,14 +12465,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 20463-2025</t>
+          <t>A 1106-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45775.53664351852</v>
+        <v>45302</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12474,13 +12484,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G192" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12517,14 +12522,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 47222-2024</t>
+          <t>A 48707-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45586</v>
+        <v>45593.53480324074</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12536,13 +12541,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G193" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12579,14 +12579,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 35470-2024</t>
+          <t>A 10492-2021</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45531.46973379629</v>
+        <v>44258.26988425926</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12599,7 +12599,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12636,14 +12636,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 21682-2021</t>
+          <t>A 16476-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44322.41228009259</v>
+        <v>45751.57092592592</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12656,7 +12656,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12693,14 +12693,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 35445-2024</t>
+          <t>A 35470-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45531.43599537037</v>
+        <v>45531.46973379629</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12750,14 +12750,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 47094-2023</t>
+          <t>A 8990-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45196</v>
+        <v>44979.55237268518</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12807,14 +12807,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 38196-2024</t>
+          <t>A 50614-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45545.49483796296</v>
+        <v>45601.63342592592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12864,14 +12864,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 50611-2024</t>
+          <t>A 64089-2021</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45601.63069444444</v>
+        <v>44510</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12921,14 +12921,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 20289-2024</t>
+          <t>A 55182-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45435.30835648148</v>
+        <v>45618</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12940,13 +12940,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>0.7</v>
+        <v>11.4</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12990,7 +12985,7 @@
         <v>44467.37496527778</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13040,14 +13035,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 15255-2025</t>
+          <t>A 8259-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45744.65173611111</v>
+        <v>45708.50091435185</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13059,13 +13054,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13102,14 +13092,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 48167-2024</t>
+          <t>A 53620-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45589.73996527777</v>
+        <v>45614.73983796296</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13122,7 +13112,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>13.7</v>
+        <v>0.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13159,14 +13149,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 20086-2024</t>
+          <t>A 20139-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45434</v>
+        <v>45772</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13178,8 +13168,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>1.5</v>
+        <v>4.7</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13216,14 +13211,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 13496-2025</t>
+          <t>A 20140-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45736.44390046296</v>
+        <v>45772</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13235,8 +13230,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G205" t="n">
-        <v>8.800000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13273,14 +13273,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 56887-2022</t>
+          <t>A 35930-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44894.57006944445</v>
+        <v>45148</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13292,8 +13292,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G206" t="n">
-        <v>1.8</v>
+        <v>5.2</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13330,14 +13335,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 33011-2023</t>
+          <t>A 47196-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45125</v>
+        <v>45196</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13350,7 +13355,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.8</v>
+        <v>5.9</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13387,14 +13392,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 41777-2021</t>
+          <t>A 53618-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44425.65414351852</v>
+        <v>45614.73951388889</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13406,13 +13411,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>1.4</v>
+        <v>10.1</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13449,14 +13449,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 41779-2021</t>
+          <t>A 2224-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44425.655625</v>
+        <v>45673</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13468,13 +13468,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G209" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13511,14 +13506,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 51344-2023</t>
+          <t>A 58388-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45219.59462962963</v>
+        <v>45633.64746527778</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13530,13 +13525,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G210" t="n">
-        <v>4.5</v>
+        <v>5.8</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13573,14 +13563,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 6835-2025</t>
+          <t>A 47201-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45700.78726851852</v>
+        <v>45196</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13593,7 +13583,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13630,14 +13620,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 10515-2023</t>
+          <t>A 52828-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44987.7978125</v>
+        <v>45610.59295138889</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13650,7 +13640,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13687,14 +13677,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 39337-2022</t>
+          <t>A 15269-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44817.72568287037</v>
+        <v>45744.66511574074</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13706,8 +13696,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G213" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13744,14 +13739,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 53620-2024</t>
+          <t>A 17243-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45614.73983796296</v>
+        <v>45414</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13764,7 +13759,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13801,14 +13796,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 2224-2025</t>
+          <t>A 59938-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45673</v>
+        <v>45257.67357638889</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13821,7 +13816,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13858,14 +13853,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 10492-2021</t>
+          <t>A 61813-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44258.26988425926</v>
+        <v>45649.59596064815</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13877,8 +13872,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G216" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13915,14 +13915,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 13501-2025</t>
+          <t>A 21247-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45736.45362268519</v>
+        <v>45779.57381944444</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13934,8 +13934,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G217" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13972,14 +13977,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 22624-2021</t>
+          <t>A 21210-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44327</v>
+        <v>45779.48717592593</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13993,11 +13998,11 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G218" t="n">
-        <v>4.5</v>
+        <v>1.1</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14034,14 +14039,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 10404-2022</t>
+          <t>A 21845-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44623.45096064815</v>
+        <v>45784.33908564815</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14053,8 +14058,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G219" t="n">
-        <v>1</v>
+        <v>13.3</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14091,14 +14101,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 10506-2025</t>
+          <t>A 22234-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45721</v>
+        <v>45785</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14111,7 +14121,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14148,14 +14158,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 21247-2025</t>
+          <t>A 22244-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45779.57381944444</v>
+        <v>45785.67974537037</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14167,13 +14177,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G221" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14210,14 +14215,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 21210-2025</t>
+          <t>A 38742-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45779.48717592593</v>
+        <v>45161</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14231,11 +14236,11 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14272,14 +14277,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 22234-2025</t>
+          <t>A 3735-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45785</v>
+        <v>45321</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14291,8 +14296,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G223" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14329,14 +14339,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 38742-2023</t>
+          <t>A 23308-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45161</v>
+        <v>45791.6047800926</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14348,13 +14358,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G224" t="n">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14391,14 +14396,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 22244-2025</t>
+          <t>A 23716-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45785.67974537037</v>
+        <v>45793.39087962963</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14411,7 +14416,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.9</v>
+        <v>6</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14448,14 +14453,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 21845-2025</t>
+          <t>A 23717-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45784.33908564815</v>
+        <v>45793.39612268518</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14467,13 +14472,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G226" t="n">
-        <v>13.3</v>
+        <v>2.1</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14510,14 +14510,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 3735-2024</t>
+          <t>A 21915-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45321</v>
+        <v>45784</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14529,13 +14529,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G227" t="n">
-        <v>1.6</v>
+        <v>12</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14572,14 +14567,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 23308-2025</t>
+          <t>A 24099-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45791.6047800926</v>
+        <v>45796</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14592,7 +14587,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14629,14 +14624,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 23716-2025</t>
+          <t>A 26653-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45793.39087962963</v>
+        <v>45810</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14648,8 +14643,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G229" t="n">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14686,14 +14686,14 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 23717-2025</t>
+          <t>A 27498-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45793.39612268518</v>
+        <v>45813</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>

--- a/Översikt KARLSKOGA.xlsx
+++ b/Översikt KARLSKOGA.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 64125-2021</t>
+          <t>A 59524-2025</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>44510</v>
+        <v>45989</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -587,17 +587,22 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G2" t="n">
-        <v>6.5</v>
+        <v>4.6</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -612,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -621,6 +626,108 @@
         <v>14</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Garnlav
+Havsörn
+Järpe
+Kolflarnlav
+Orange taggsvamp
+Talltita
+Tretåig hackspett
+Vedflamlav
+Korallblylav
+Mörk husmossa
+Stor revmossa
+Vedticka
+Västlig hakmossa
+Sparvuggla</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 59524-2025 artfynd.xlsx", "A 59524-2025")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 59524-2025 karta.png", "A 59524-2025")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 59524-2025 FSC-klagomål.docx", "A 59524-2025")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 59524-2025 FSC-klagomål mail.docx", "A 59524-2025")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 59524-2025 tillsynsbegäran.docx", "A 59524-2025")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 59524-2025 tillsynsbegäran mail.docx", "A 59524-2025")</f>
+        <v/>
+      </c>
+      <c r="Z2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/fåglar/A 59524-2025 prioriterade fågelarter.docx", "A 59524-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 64125-2021</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>44510</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>14</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Gäckporing
 Motaggsvamp
@@ -638,138 +745,31 @@
 Zontaggsvamp</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 64125-2021 artfynd.xlsx", "A 64125-2021")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 64125-2021 karta.png", "A 64125-2021")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 64125-2021 FSC-klagomål.docx", "A 64125-2021")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 64125-2021 FSC-klagomål mail.docx", "A 64125-2021")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 64125-2021 tillsynsbegäran.docx", "A 64125-2021")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 64125-2021 tillsynsbegäran mail.docx", "A 64125-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 59524-2025</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>45989</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>8</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>8</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>14</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Garnlav
-Havsörn
-Järpe
-Kolflarnlav
-Orange taggsvamp
-Talltita
-Tretåig hackspett
-Vedflamlav
-Korallblylav
-Mörk husmossa
-Stor revmossa
-Vedticka
-Västlig hakmossa
-Sparvuggla</t>
-        </is>
-      </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 59524-2025 artfynd.xlsx", "A 59524-2025")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 59524-2025 karta.png", "A 59524-2025")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 59524-2025 FSC-klagomål.docx", "A 59524-2025")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 59524-2025 FSC-klagomål mail.docx", "A 59524-2025")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 59524-2025 tillsynsbegäran.docx", "A 59524-2025")</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 59524-2025 tillsynsbegäran mail.docx", "A 59524-2025")</f>
-        <v/>
-      </c>
-      <c r="Z3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/fåglar/A 59524-2025 prioriterade fågelarter.docx", "A 59524-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45958</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45989</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>45744.66456018519</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>44495</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>45840.87771990741</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>45849.38643518519</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>44354</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1432,14 +1432,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 28566-2024</t>
+          <t>A 24188-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45478.38914351852</v>
+        <v>45456.9100925926</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1451,11 +1451,16 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1486,49 +1491,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Ärtsångare</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 28566-2024 artfynd.xlsx", "A 28566-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 24188-2024 artfynd.xlsx", "A 24188-2024")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 28566-2024 karta.png", "A 28566-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 24188-2024 karta.png", "A 24188-2024")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 28566-2024 FSC-klagomål.docx", "A 28566-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 24188-2024 FSC-klagomål.docx", "A 24188-2024")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 28566-2024 FSC-klagomål mail.docx", "A 28566-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 24188-2024 FSC-klagomål mail.docx", "A 24188-2024")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 28566-2024 tillsynsbegäran.docx", "A 28566-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 24188-2024 tillsynsbegäran.docx", "A 24188-2024")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 28566-2024 tillsynsbegäran mail.docx", "A 28566-2024")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/fåglar/A 28566-2024 prioriterade fågelarter.docx", "A 28566-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 24188-2024 tillsynsbegäran mail.docx", "A 24188-2024")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 32081-2025</t>
+          <t>A 39025-2022</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45835.45203703704</v>
+        <v>44817.3353125</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1542,21 +1543,21 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
@@ -1570,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1580,582 +1581,582 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 39025-2022 artfynd.xlsx", "A 39025-2022")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 39025-2022 karta.png", "A 39025-2022")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 39025-2022 FSC-klagomål.docx", "A 39025-2022")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 39025-2022 FSC-klagomål mail.docx", "A 39025-2022")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 39025-2022 tillsynsbegäran.docx", "A 39025-2022")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 39025-2022 tillsynsbegäran mail.docx", "A 39025-2022")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/fåglar/A 39025-2022 prioriterade fågelarter.docx", "A 39025-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 26651-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45810</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Fläcknycklar</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 26651-2025 artfynd.xlsx", "A 26651-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 26651-2025 karta.png", "A 26651-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 26651-2025 FSC-klagomål.docx", "A 26651-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 26651-2025 FSC-klagomål mail.docx", "A 26651-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 26651-2025 tillsynsbegäran.docx", "A 26651-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 26651-2025 tillsynsbegäran mail.docx", "A 26651-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 32081-2025</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45835.45203703704</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
           <t>Smal svampklubba</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 32081-2025 artfynd.xlsx", "A 32081-2025")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 32081-2025 karta.png", "A 32081-2025")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 32081-2025 FSC-klagomål.docx", "A 32081-2025")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 32081-2025 FSC-klagomål mail.docx", "A 32081-2025")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 32081-2025 tillsynsbegäran.docx", "A 32081-2025")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 32081-2025 tillsynsbegäran mail.docx", "A 32081-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 24188-2024</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45456.9100925926</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 34834-2025</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45849.38751157407</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G13" t="n">
-        <v>9</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="G15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H15" t="n">
         <v>1</v>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>1</v>
       </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>1</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Garnlav</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 24188-2024 artfynd.xlsx", "A 24188-2024")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 24188-2024 karta.png", "A 24188-2024")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 24188-2024 FSC-klagomål.docx", "A 24188-2024")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 24188-2024 FSC-klagomål mail.docx", "A 24188-2024")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 24188-2024 tillsynsbegäran.docx", "A 24188-2024")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 24188-2024 tillsynsbegäran mail.docx", "A 24188-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 34834-2025</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45849.38751157407</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Talltita</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 34834-2025 artfynd.xlsx", "A 34834-2025")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 34834-2025 karta.png", "A 34834-2025")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 34834-2025 FSC-klagomål.docx", "A 34834-2025")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 34834-2025 FSC-klagomål mail.docx", "A 34834-2025")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 34834-2025 tillsynsbegäran.docx", "A 34834-2025")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 34834-2025 tillsynsbegäran mail.docx", "A 34834-2025")</f>
         <v/>
       </c>
-      <c r="Z14">
+      <c r="Z15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/fåglar/A 34834-2025 prioriterade fågelarter.docx", "A 34834-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 52375-2025</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>45953.94430555555</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="C16" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="G16" t="n">
         <v>1.1</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>1</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Revlummer</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 52375-2025 artfynd.xlsx", "A 52375-2025")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 52375-2025 karta.png", "A 52375-2025")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 52375-2025 FSC-klagomål.docx", "A 52375-2025")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 52375-2025 FSC-klagomål mail.docx", "A 52375-2025")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 52375-2025 tillsynsbegäran.docx", "A 52375-2025")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 52375-2025 tillsynsbegäran mail.docx", "A 52375-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 59512-2025</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>45989.64748842592</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="C17" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G16" t="n">
+      <c r="G17" t="n">
         <v>1</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>1</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Motaggsvamp</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 59512-2025 artfynd.xlsx", "A 59512-2025")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 59512-2025 karta.png", "A 59512-2025")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 59512-2025 FSC-klagomål.docx", "A 59512-2025")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 59512-2025 FSC-klagomål mail.docx", "A 59512-2025")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 59512-2025 tillsynsbegäran.docx", "A 59512-2025")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 59512-2025 tillsynsbegäran mail.docx", "A 59512-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>A 59511-2025</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>45989.64694444444</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="C18" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="G18" t="n">
         <v>1.1</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>1</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Motaggsvamp</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 59511-2025 artfynd.xlsx", "A 59511-2025")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 59511-2025 karta.png", "A 59511-2025")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 59511-2025 FSC-klagomål.docx", "A 59511-2025")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 59511-2025 FSC-klagomål mail.docx", "A 59511-2025")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 59511-2025 tillsynsbegäran.docx", "A 59511-2025")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 59511-2025 tillsynsbegäran mail.docx", "A 59511-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 39025-2022</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>44817.3353125</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Talltita</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 39025-2022 artfynd.xlsx", "A 39025-2022")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 39025-2022 karta.png", "A 39025-2022")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 39025-2022 FSC-klagomål.docx", "A 39025-2022")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 39025-2022 FSC-klagomål mail.docx", "A 39025-2022")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 39025-2022 tillsynsbegäran.docx", "A 39025-2022")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 39025-2022 tillsynsbegäran mail.docx", "A 39025-2022")</f>
-        <v/>
-      </c>
-      <c r="Z18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/fåglar/A 39025-2022 prioriterade fågelarter.docx", "A 39025-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
@@ -2166,7 +2167,7 @@
         <v>46010.43457175926</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2260,7 +2261,7 @@
         <v>46010.44355324074</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2347,14 +2348,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 40528-2024</t>
+          <t>A 28566-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45555.60616898148</v>
+        <v>45478.38914351852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2367,7 +2368,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2376,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2391,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2401,124 +2402,123 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
+          <t>Ärtsångare</t>
+        </is>
+      </c>
+      <c r="S21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 28566-2024 artfynd.xlsx", "A 28566-2024")</f>
+        <v/>
+      </c>
+      <c r="T21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 28566-2024 karta.png", "A 28566-2024")</f>
+        <v/>
+      </c>
+      <c r="V21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 28566-2024 FSC-klagomål.docx", "A 28566-2024")</f>
+        <v/>
+      </c>
+      <c r="W21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 28566-2024 FSC-klagomål mail.docx", "A 28566-2024")</f>
+        <v/>
+      </c>
+      <c r="X21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 28566-2024 tillsynsbegäran.docx", "A 28566-2024")</f>
+        <v/>
+      </c>
+      <c r="Y21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 28566-2024 tillsynsbegäran mail.docx", "A 28566-2024")</f>
+        <v/>
+      </c>
+      <c r="Z21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/fåglar/A 28566-2024 prioriterade fågelarter.docx", "A 28566-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A 40528-2024</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>45555.60616898148</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
           <t>Mattlummer</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 40528-2024 artfynd.xlsx", "A 40528-2024")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 40528-2024 karta.png", "A 40528-2024")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 40528-2024 FSC-klagomål.docx", "A 40528-2024")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 40528-2024 FSC-klagomål mail.docx", "A 40528-2024")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 40528-2024 tillsynsbegäran.docx", "A 40528-2024")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 40528-2024 tillsynsbegäran mail.docx", "A 40528-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>A 26651-2025</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>45810</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1</v>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>Fläcknycklar</t>
-        </is>
-      </c>
-      <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 26651-2025 artfynd.xlsx", "A 26651-2025")</f>
-        <v/>
-      </c>
-      <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 26651-2025 karta.png", "A 26651-2025")</f>
-        <v/>
-      </c>
-      <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 26651-2025 FSC-klagomål.docx", "A 26651-2025")</f>
-        <v/>
-      </c>
-      <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 26651-2025 FSC-klagomål mail.docx", "A 26651-2025")</f>
-        <v/>
-      </c>
-      <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 26651-2025 tillsynsbegäran.docx", "A 26651-2025")</f>
-        <v/>
-      </c>
-      <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 26651-2025 tillsynsbegäran mail.docx", "A 26651-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>44552.49849537037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>44510.50043981482</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>44381</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>44546</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>44448.43530092593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>44319</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>44732.61756944445</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2931,14 +2931,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 10327-2021</t>
+          <t>A 7989-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44257</v>
+        <v>44243</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2950,8 +2950,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>6.5</v>
+        <v>0.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2988,14 +2993,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 7989-2021</t>
+          <t>A 10327-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44243</v>
+        <v>44257</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3007,13 +3012,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>0.7</v>
+        <v>6.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3057,7 +3057,7 @@
         <v>44341.71480324074</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>44460.7434375</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>44371.6544212963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>44438</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>44245</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3352,7 +3352,7 @@
         <v>44245</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3414,7 +3414,7 @@
         <v>44381</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3464,14 +3464,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 64869-2021</t>
+          <t>A 22861-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44512.60798611111</v>
+        <v>44715.48209490741</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3483,13 +3483,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3526,14 +3521,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 22861-2022</t>
+          <t>A 64869-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44715.48209490741</v>
+        <v>44512.60798611111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3545,8 +3540,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>44421.66028935185</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>44508</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>44480</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>44590</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>44340</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44809.80543981482</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>44811</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44344.39799768518</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>44628</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>44809.81278935185</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>44706.67246527778</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44706.68547453704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>44439</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>44817</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4411,14 +4411,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 8803-2025</t>
+          <t>A 17815-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45712.66123842593</v>
+        <v>45758.56148148148</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4430,8 +4430,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4468,14 +4473,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 27735-2021</t>
+          <t>A 58390-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44354.4771412037</v>
+        <v>45633.6719212963</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4487,13 +4492,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4530,14 +4530,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 46605-2021</t>
+          <t>A 4587-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44445.55292824074</v>
+        <v>45687.51668981482</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4549,13 +4549,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4592,14 +4587,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 35445-2024</t>
+          <t>A 9941-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45531.43599537037</v>
+        <v>45718.83177083333</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4612,7 +4607,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4649,14 +4644,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 39337-2022</t>
+          <t>A 24255-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44817.72568287037</v>
+        <v>45457.39487268519</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4669,7 +4664,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4706,14 +4701,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 27728-2021</t>
+          <t>A 4164-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44354.47241898148</v>
+        <v>44588</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4727,11 +4722,11 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4768,14 +4763,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 58091-2022</t>
+          <t>A 35471-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44900</v>
+        <v>45531.46973379629</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4787,13 +4782,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4830,14 +4820,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 50863-2024</t>
+          <t>A 61813-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45602.63560185185</v>
+        <v>45649.59596064815</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4855,7 +4845,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>8.1</v>
+        <v>1.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4892,14 +4882,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 56887-2022</t>
+          <t>A 9712-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44894.57006944445</v>
+        <v>45362</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4911,8 +4901,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4949,14 +4944,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 38196-2024</t>
+          <t>A 6835-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45545.49483796296</v>
+        <v>45700.78726851852</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4969,7 +4964,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5006,14 +5001,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 20289-2024</t>
+          <t>A 10515-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45435.30835648148</v>
+        <v>44987.7978125</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5025,13 +5020,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5068,14 +5058,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 9712-2024</t>
+          <t>A 39337-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45362</v>
+        <v>44817.72568287037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5087,13 +5077,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5130,14 +5115,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 15254-2025</t>
+          <t>A 41267-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45744.64983796296</v>
+        <v>45898.61796296296</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5149,13 +5134,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5192,14 +5172,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 15256-2025</t>
+          <t>A 42804-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45744.65391203704</v>
+        <v>45182</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5217,7 +5197,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>5.5</v>
+        <v>0.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5254,14 +5234,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 4058-2022</t>
+          <t>A 9510-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44588</v>
+        <v>44981.64696759259</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5274,7 +5254,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5311,14 +5291,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 38190-2024</t>
+          <t>A 53620-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45545.49076388889</v>
+        <v>45614.73983796296</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5331,7 +5311,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5368,14 +5348,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 16256-2025</t>
+          <t>A 2224-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45750.71596064815</v>
+        <v>45673</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5387,13 +5367,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5430,14 +5405,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 43075-2023</t>
+          <t>A 39673-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45182.83460648148</v>
+        <v>45890.64559027777</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5449,8 +5424,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5487,14 +5467,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 23263-2022</t>
+          <t>A 10492-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44720.40815972222</v>
+        <v>44258.26988425926</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5507,7 +5487,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5544,14 +5524,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 35444-2024</t>
+          <t>A 1309-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45531.43599537037</v>
+        <v>45303</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5564,7 +5544,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5601,14 +5581,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 35471-2024</t>
+          <t>A 13501-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45531.46973379629</v>
+        <v>45736.45362268519</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5621,7 +5601,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5658,14 +5638,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 54680-2021</t>
+          <t>A 22624-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44473</v>
+        <v>44327</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5677,8 +5657,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5715,14 +5700,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 30102-2025</t>
+          <t>A 10404-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45826.68414351852</v>
+        <v>44623.45096064815</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5772,14 +5757,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 39936-2024</t>
+          <t>A 10506-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45553.56512731482</v>
+        <v>45721</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5792,7 +5777,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>6.4</v>
+        <v>3.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5829,14 +5814,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 47222-2024</t>
+          <t>A 21247-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45586</v>
+        <v>45779.57381944444</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5850,11 +5835,11 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>5.3</v>
+        <v>2.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5891,14 +5876,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 58390-2024</t>
+          <t>A 21210-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45633.6719212963</v>
+        <v>45779.48717592593</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5910,8 +5895,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5948,14 +5938,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 53647-2023</t>
+          <t>A 22234-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45230.6046875</v>
+        <v>45785</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5968,7 +5958,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6005,14 +5995,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 34585-2021</t>
+          <t>A 38742-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44382.47526620371</v>
+        <v>45161</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6024,8 +6014,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6062,14 +6057,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 23620-2024</t>
+          <t>A 22244-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45454</v>
+        <v>45785.67974537037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6082,7 +6077,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6119,14 +6114,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 18768-2025</t>
+          <t>A 21845-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45764.29767361111</v>
+        <v>45784.33908564815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6144,7 +6139,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.7</v>
+        <v>13.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6181,14 +6176,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 31397-2025</t>
+          <t>A 35444-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45833</v>
+        <v>45531.43599537037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6201,7 +6196,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6238,14 +6233,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 9941-2025</t>
+          <t>A 23263-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45718.83177083333</v>
+        <v>44720.40815972222</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6258,7 +6253,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6295,14 +6290,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 42803-2023</t>
+          <t>A 3735-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45182</v>
+        <v>45321</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6316,11 +6311,11 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6357,14 +6352,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 24255-2024</t>
+          <t>A 23308-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45457.39487268519</v>
+        <v>45791.6047800926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6377,7 +6372,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6414,14 +6409,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 48167-2024</t>
+          <t>A 43772-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45589.73996527777</v>
+        <v>45912.50550925926</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6434,7 +6429,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>13.7</v>
+        <v>3.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6471,14 +6466,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 32287-2025</t>
+          <t>A 47201-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45835.6914699074</v>
+        <v>45196</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6490,13 +6485,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>10.9</v>
+        <v>2.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6533,14 +6523,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 39673-2025</t>
+          <t>A 23716-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45890.64559027777</v>
+        <v>45793.39087962963</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6552,13 +6542,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6595,14 +6580,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 17815-2025</t>
+          <t>A 61396-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45758.56148148148</v>
+        <v>45264.64989583333</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6614,13 +6599,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6657,14 +6637,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 32870-2025</t>
+          <t>A 23717-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45839.58939814815</v>
+        <v>45793.39612268518</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6677,7 +6657,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6714,14 +6694,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 20086-2024</t>
+          <t>A 8259-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45434</v>
+        <v>45708.50091435185</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6734,7 +6714,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6771,14 +6751,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 41267-2025</t>
+          <t>A 24116-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45898.61796296296</v>
+        <v>45456</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6791,7 +6771,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6828,14 +6808,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 9510-2023</t>
+          <t>A 44946-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44981.64696759259</v>
+        <v>45918.6046875</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6848,7 +6828,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6885,14 +6865,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 59025-2024</t>
+          <t>A 35930-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45636.68592592593</v>
+        <v>45148</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6906,11 +6886,11 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.7</v>
+        <v>5.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6947,14 +6927,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 43772-2025</t>
+          <t>A 21915-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45912.50550925926</v>
+        <v>45784</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6967,7 +6947,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7004,14 +6984,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 53619-2024</t>
+          <t>A 44949-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45614.73967592593</v>
+        <v>45918.60568287037</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7061,14 +7041,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 37150-2025</t>
+          <t>A 24099-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45875.5734837963</v>
+        <v>45796</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7081,7 +7061,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7118,14 +7098,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 37332-2025</t>
+          <t>A 63863-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45876.65920138889</v>
+        <v>45278.50163194445</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7137,13 +7117,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>8.300000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7180,14 +7155,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 22624-2021</t>
+          <t>A 45664-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44327</v>
+        <v>45923.34690972222</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7201,11 +7176,11 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7242,14 +7217,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 13501-2025</t>
+          <t>A 45596-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45736.45362268519</v>
+        <v>45922.68408564815</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7261,8 +7236,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7299,14 +7279,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 47094-2023</t>
+          <t>A 26653-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45196</v>
+        <v>45810</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7318,8 +7298,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7356,14 +7341,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 37737-2025</t>
+          <t>A 27498-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45880.63737268518</v>
+        <v>45813</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7375,13 +7360,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7418,14 +7398,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 44946-2025</t>
+          <t>A 64089-2021</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45918.6046875</v>
+        <v>44510</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7438,7 +7418,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7475,14 +7455,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 44949-2025</t>
+          <t>A 59938-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45918.60568287037</v>
+        <v>45257.67357638889</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7495,7 +7475,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7532,14 +7512,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 10506-2025</t>
+          <t>A 52828-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45721</v>
+        <v>45610.59295138889</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7552,7 +7532,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7589,14 +7569,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 38071-2025</t>
+          <t>A 15254-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45882.4412037037</v>
+        <v>45744.64983796296</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7606,6 +7586,11 @@
       <c r="E109" t="inlineStr">
         <is>
           <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -7646,14 +7631,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 20470-2025</t>
+          <t>A 15256-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45775.54530092593</v>
+        <v>45744.65391203704</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7671,7 +7656,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7708,14 +7693,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 45596-2025</t>
+          <t>A 23620-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45922.68408564815</v>
+        <v>45454</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7727,13 +7712,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7770,14 +7750,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 31921-2022</t>
+          <t>A 53647-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44777</v>
+        <v>45230.6046875</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7790,7 +7770,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7827,14 +7807,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 42804-2023</t>
+          <t>A 39936-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45182</v>
+        <v>45553.56512731482</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7846,13 +7826,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>0.6</v>
+        <v>6.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7889,14 +7864,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 39030-2022</t>
+          <t>A 30102-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44817.34023148148</v>
+        <v>45826.68414351852</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7906,11 +7881,6 @@
       <c r="E114" t="inlineStr">
         <is>
           <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -7951,14 +7921,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 10816-2023</t>
+          <t>A 34585-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44990.43501157407</v>
+        <v>44382.47526620371</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7971,7 +7941,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8008,14 +7978,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 8244-2025</t>
+          <t>A 54680-2021</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45708.4852662037</v>
+        <v>44473</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8028,7 +7998,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8065,14 +8035,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 45664-2025</t>
+          <t>A 24115-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45923.34690972222</v>
+        <v>45456</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8084,13 +8054,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8127,14 +8092,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 28100-2024</t>
+          <t>A 31397-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45476.61674768518</v>
+        <v>45833</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8147,7 +8112,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8184,14 +8149,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 51344-2023</t>
+          <t>A 32287-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45219.59462962963</v>
+        <v>45835.6914699074</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8205,11 +8170,11 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4.5</v>
+        <v>10.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8246,14 +8211,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 18468-2025</t>
+          <t>A 32870-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45762.73166666667</v>
+        <v>45839.58939814815</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8266,7 +8231,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8303,14 +8268,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 4587-2025</t>
+          <t>A 53619-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45687.51668981482</v>
+        <v>45614.73967592593</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8323,7 +8288,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8360,14 +8325,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 41777-2021</t>
+          <t>A 18768-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44425.65414351852</v>
+        <v>45764.29767361111</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8385,7 +8350,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8422,14 +8387,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 41779-2021</t>
+          <t>A 4801-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44425.655625</v>
+        <v>45328.89141203704</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8441,13 +8406,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8484,14 +8444,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 20463-2025</t>
+          <t>A 4802-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45775.53664351852</v>
+        <v>45328.8962962963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8501,11 +8461,6 @@
       <c r="E124" t="inlineStr">
         <is>
           <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -8546,14 +8501,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 28471-2023</t>
+          <t>A 8990-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45103.41175925926</v>
+        <v>44979.55237268518</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8566,7 +8521,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8603,14 +8558,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 15255-2025</t>
+          <t>A 42802-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45744.65173611111</v>
+        <v>45182</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8628,7 +8583,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8665,14 +8620,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 16881-2023</t>
+          <t>A 28471-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45033</v>
+        <v>45103.41175925926</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8684,13 +8639,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8727,14 +8677,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 61396-2023</t>
+          <t>A 22867-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45264.64989583333</v>
+        <v>44715.49313657408</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8747,7 +8697,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8784,14 +8734,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 50958-2025</t>
+          <t>A 64060-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45946.78709490741</v>
+        <v>45279.35636574074</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8804,7 +8754,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8841,14 +8791,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 50957-2025</t>
+          <t>A 48707-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45946.78399305556</v>
+        <v>45593.53480324074</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8861,7 +8811,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8898,14 +8848,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 4164-2022</t>
+          <t>A 55832-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44588</v>
+        <v>45239.61148148148</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8917,13 +8867,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8960,14 +8905,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 61271-2022</t>
+          <t>A 58388-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44909</v>
+        <v>45633.64746527778</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8979,13 +8924,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>14.1</v>
+        <v>5.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9022,14 +8962,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 52377-2025</t>
+          <t>A 37150-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45953.94622685185</v>
+        <v>45875.5734837963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9041,13 +8981,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9084,14 +9019,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 52379-2025</t>
+          <t>A 50957-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45953.94826388889</v>
+        <v>45946.78399305556</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9103,13 +9038,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9146,14 +9076,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 57422-2021</t>
+          <t>A 50958-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44483</v>
+        <v>45946.78709490741</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9166,7 +9096,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9203,14 +9133,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 52376-2025</t>
+          <t>A 37332-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45953.94524305555</v>
+        <v>45876.65920138889</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9224,11 +9154,11 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9265,14 +9195,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 35060-2024</t>
+          <t>A 18978-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45527</v>
+        <v>45764.54626157408</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9284,13 +9214,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9327,14 +9252,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 64060-2023</t>
+          <t>A 37737-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45279.35636574074</v>
+        <v>45880.63737268518</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9346,8 +9271,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9384,14 +9314,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 55025-2025</t>
+          <t>A 10816-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45967.63591435185</v>
+        <v>44990.43501157407</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9404,7 +9334,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9441,14 +9371,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 14215-2024</t>
+          <t>A 20470-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45393</v>
+        <v>45775.54530092593</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9462,11 +9392,11 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9503,14 +9433,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 24116-2024</t>
+          <t>A 38071-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45456</v>
+        <v>45882.4412037037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9523,7 +9453,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9560,14 +9490,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 55832-2023</t>
+          <t>A 31921-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45239.61148148148</v>
+        <v>44777</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9580,7 +9510,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9617,14 +9547,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 10515-2023</t>
+          <t>A 43075-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44987.7978125</v>
+        <v>45182.83460648148</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9637,7 +9567,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9674,14 +9604,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 57212-2025</t>
+          <t>A 47196-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45979.60140046296</v>
+        <v>45196</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9694,7 +9624,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.7</v>
+        <v>5.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9731,14 +9661,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 33011-2023</t>
+          <t>A 13454-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45125</v>
+        <v>44645</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9751,7 +9681,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9788,14 +9718,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 58695-2025</t>
+          <t>A 15252-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45986.58576388889</v>
+        <v>45744</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9807,8 +9737,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>7.2</v>
+        <v>2.8</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9845,14 +9780,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 48168-2024</t>
+          <t>A 15253-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45589.74410879629</v>
+        <v>45744</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9864,8 +9799,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9902,14 +9842,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 917-2026</t>
+          <t>A 52376-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>46030.48421296296</v>
+        <v>45953.94524305555</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9921,8 +9861,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9959,14 +9904,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 59522-2025</t>
+          <t>A 52377-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45989.6597800926</v>
+        <v>45953.94622685185</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10021,14 +9966,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 13454-2022</t>
+          <t>A 52379-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44645</v>
+        <v>45953.94826388889</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10040,8 +9985,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10078,14 +10028,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 10743-2023</t>
+          <t>A 53618-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44988.70174768518</v>
+        <v>45614.73951388889</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10097,13 +10047,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>2.4</v>
+        <v>10.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10140,14 +10085,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 50611-2024</t>
+          <t>A 30961-2022</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45601.63069444444</v>
+        <v>44768</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10159,8 +10104,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10197,14 +10147,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 42802-2023</t>
+          <t>A 42803-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
         <v>45182</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10222,7 +10172,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10259,14 +10209,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 52829-2024</t>
+          <t>A 8803-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45610.59344907408</v>
+        <v>45712.66123842593</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10279,7 +10229,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10316,14 +10266,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 1788-2026</t>
+          <t>A 55025-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>46034.87616898148</v>
+        <v>45967.63591435185</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10336,7 +10286,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10373,14 +10323,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 56313-2024</t>
+          <t>A 15188-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45624</v>
+        <v>45744.55122685185</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10394,11 +10344,11 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.2</v>
+        <v>11.8</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10435,14 +10385,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 38382-2022</t>
+          <t>A 57212-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44812</v>
+        <v>45979.60140046296</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10454,13 +10404,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>2.2</v>
+        <v>3.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10497,14 +10442,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 60470-2025</t>
+          <t>A 56313-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45995.565625</v>
+        <v>45624</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10516,8 +10461,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10554,14 +10504,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 2911-2026</t>
+          <t>A 10743-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>46038.56614583333</v>
+        <v>44988.70174768518</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10573,8 +10523,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G159" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10611,14 +10566,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 60503-2025</t>
+          <t>A 14215-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45995.62199074074</v>
+        <v>45393</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10630,8 +10585,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10668,14 +10628,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 28474-2023</t>
+          <t>A 55191-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45103.42020833334</v>
+        <v>45237.58084490741</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10688,7 +10648,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>5.1</v>
+        <v>1.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10725,14 +10685,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 60508-2025</t>
+          <t>A 15269-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45995.63013888889</v>
+        <v>45744.66511574074</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10744,8 +10704,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G162" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10782,14 +10747,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 60506-2025</t>
+          <t>A 59025-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45995.62744212963</v>
+        <v>45636.68592592593</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10801,8 +10766,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G163" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10839,14 +10809,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 60465-2025</t>
+          <t>A 58695-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45995.55730324074</v>
+        <v>45986.58576388889</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10859,7 +10829,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.8</v>
+        <v>7.2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10896,14 +10866,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 24115-2024</t>
+          <t>A 17243-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45456</v>
+        <v>45414</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10916,7 +10886,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10953,14 +10923,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 6835-2025</t>
+          <t>A 59522-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45700.78726851852</v>
+        <v>45989.6597800926</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10972,8 +10942,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G166" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11010,14 +10985,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 10404-2022</t>
+          <t>A 917-2026</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44623.45096064815</v>
+        <v>46030.48421296296</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11030,7 +11005,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11067,14 +11042,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 61788-2025</t>
+          <t>A 1788-2026</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>46002.68515046296</v>
+        <v>46034.87616898148</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11086,13 +11061,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11129,14 +11099,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 3227-2025</t>
+          <t>A 60465-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45679</v>
+        <v>45995.55730324074</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11149,7 +11119,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11186,14 +11156,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 18955-2025</t>
+          <t>A 35060-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45764.51512731481</v>
+        <v>45527</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11205,8 +11175,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>8.1</v>
+        <v>0.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11243,14 +11218,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 22867-2022</t>
+          <t>A 60506-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44715.49313657408</v>
+        <v>45995.62744212963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11300,14 +11275,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 18978-2025</t>
+          <t>A 60508-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45764.54626157408</v>
+        <v>45995.63013888889</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11320,7 +11295,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11357,14 +11332,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 4801-2024</t>
+          <t>A 60470-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45328.89141203704</v>
+        <v>45995.565625</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11377,7 +11352,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11414,14 +11389,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 4802-2024</t>
+          <t>A 60503-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45328.8962962963</v>
+        <v>45995.62199074074</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11434,7 +11409,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11471,14 +11446,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 30961-2022</t>
+          <t>A 2911-2026</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44768</v>
+        <v>46038.56614583333</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11490,13 +11465,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G175" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11533,14 +11503,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 55191-2023</t>
+          <t>A 52826-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45237.58084490741</v>
+        <v>45610.59243055555</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11553,7 +11523,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11590,14 +11560,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 64066-2025</t>
+          <t>A 52829-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>46013</v>
+        <v>45610.59344907408</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11610,7 +11580,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11647,14 +11617,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 6255-2026</t>
+          <t>A 11974-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>46055.47542824074</v>
+        <v>45728.58998842593</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11667,7 +11637,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11704,14 +11674,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 63188-2025</t>
+          <t>A 28474-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>46010.44494212963</v>
+        <v>45103.42020833334</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11723,13 +11693,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G179" t="n">
-        <v>1.1</v>
+        <v>5.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11766,14 +11731,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 6605-2026</t>
+          <t>A 61271-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>46056.47820601852</v>
+        <v>44909</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11785,8 +11750,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>2.4</v>
+        <v>14.1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11823,14 +11793,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 63628-2025</t>
+          <t>A 48168-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>46014.36813657408</v>
+        <v>45589.74410879629</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11843,7 +11813,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11880,14 +11850,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 7232-2026</t>
+          <t>A 58091-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>46058.57258101852</v>
+        <v>44900</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11899,8 +11869,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G182" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11937,14 +11912,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 13496-2025</t>
+          <t>A 18468-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45736.44390046296</v>
+        <v>45762.73166666667</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11957,7 +11932,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>8.800000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11994,14 +11969,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 11974-2025</t>
+          <t>A 61788-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45728.58998842593</v>
+        <v>46002.68515046296</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12013,8 +11988,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G184" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12051,14 +12031,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 63863-2023</t>
+          <t>A 18955-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45278.50163194445</v>
+        <v>45764.51512731481</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12071,7 +12051,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.1</v>
+        <v>8.1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12108,14 +12088,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 1309-2024</t>
+          <t>A 50614-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45303</v>
+        <v>45601.63342592592</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12128,7 +12108,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12165,14 +12145,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 15252-2025</t>
+          <t>A 55182-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45744</v>
+        <v>45618</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12184,13 +12164,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>2.8</v>
+        <v>11.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12227,14 +12202,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 15253-2025</t>
+          <t>A 16476-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45744</v>
+        <v>45751.57092592592</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12246,13 +12221,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G188" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12289,14 +12259,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 15188-2025</t>
+          <t>A 4058-2022</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45744.55122685185</v>
+        <v>44588</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12308,13 +12278,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>11.8</v>
+        <v>1.7</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12351,14 +12316,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 52826-2024</t>
+          <t>A 46605-2021</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45610.59243055555</v>
+        <v>44445.55292824074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12370,8 +12335,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12408,14 +12378,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 21682-2021</t>
+          <t>A 6255-2026</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44322.41228009259</v>
+        <v>46055.47542824074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12428,7 +12398,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12465,14 +12435,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 1106-2024</t>
+          <t>A 64066-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45302</v>
+        <v>46013</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12522,14 +12492,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 48707-2024</t>
+          <t>A 3227-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45593.53480324074</v>
+        <v>45679</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12542,7 +12512,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12579,14 +12549,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 10492-2021</t>
+          <t>A 6605-2026</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44258.26988425926</v>
+        <v>46056.47820601852</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12599,7 +12569,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12636,14 +12606,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 16476-2025</t>
+          <t>A 28100-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45751.57092592592</v>
+        <v>45476.61674768518</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12656,7 +12626,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12693,14 +12663,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 35470-2024</t>
+          <t>A 16256-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45531.46973379629</v>
+        <v>45750.71596064815</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12712,8 +12682,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G196" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12750,14 +12725,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 8990-2023</t>
+          <t>A 63628-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44979.55237268518</v>
+        <v>46014.36813657408</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12770,7 +12745,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12807,14 +12782,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 50614-2024</t>
+          <t>A 50863-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45601.63342592592</v>
+        <v>45602.63560185185</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12826,8 +12801,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G198" t="n">
-        <v>0.7</v>
+        <v>8.1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12864,14 +12844,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 64089-2021</t>
+          <t>A 27728-2021</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44510</v>
+        <v>44354.47241898148</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12883,8 +12863,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12921,14 +12906,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 55182-2024</t>
+          <t>A 1106-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45618</v>
+        <v>45302</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12941,7 +12926,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>11.4</v>
+        <v>1.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12978,14 +12963,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 52797-2021</t>
+          <t>A 63188-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44467.37496527778</v>
+        <v>46010.44494212963</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12997,8 +12982,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G201" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13035,14 +13025,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 8259-2025</t>
+          <t>A 39030-2022</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45708.50091435185</v>
+        <v>44817.34023148148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13054,8 +13044,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13092,14 +13087,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 53620-2024</t>
+          <t>A 7232-2026</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45614.73983796296</v>
+        <v>46058.57258101852</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13112,7 +13107,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13149,14 +13144,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 20139-2025</t>
+          <t>A 38382-2022</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45772</v>
+        <v>44812</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13170,11 +13165,11 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G204" t="n">
-        <v>4.7</v>
+        <v>2.2</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13211,14 +13206,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 20140-2025</t>
+          <t>A 16881-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45772</v>
+        <v>45033</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13232,11 +13227,11 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G205" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13273,14 +13268,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 35930-2023</t>
+          <t>A 20139-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45148</v>
+        <v>45772</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13298,7 +13293,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13335,14 +13330,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 47196-2023</t>
+          <t>A 20140-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45196</v>
+        <v>45772</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13354,8 +13349,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G207" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13392,14 +13392,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 53618-2024</t>
+          <t>A 57422-2021</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45614.73951388889</v>
+        <v>44483</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>10.1</v>
+        <v>1.2</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13449,14 +13449,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 2224-2025</t>
+          <t>A 8244-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45673</v>
+        <v>45708.4852662037</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13506,14 +13506,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 58388-2024</t>
+          <t>A 38190-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45633.64746527778</v>
+        <v>45545.49076388889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>5.8</v>
+        <v>2.1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13563,14 +13563,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 47201-2023</t>
+          <t>A 27735-2021</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45196</v>
+        <v>44354.4771412037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13582,8 +13582,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G211" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13620,14 +13625,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 52828-2024</t>
+          <t>A 20463-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45610.59295138889</v>
+        <v>45775.53664351852</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13639,8 +13644,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G212" t="n">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13677,14 +13687,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 15269-2025</t>
+          <t>A 47222-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45744.66511574074</v>
+        <v>45586</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13702,7 +13712,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>3.1</v>
+        <v>5.3</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13739,14 +13749,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 17243-2024</t>
+          <t>A 35470-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45414</v>
+        <v>45531.46973379629</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13759,7 +13769,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13796,14 +13806,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 59938-2023</t>
+          <t>A 21682-2021</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45257.67357638889</v>
+        <v>44322.41228009259</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13816,7 +13826,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13853,14 +13863,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 61813-2024</t>
+          <t>A 35445-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45649.59596064815</v>
+        <v>45531.43599537037</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13872,13 +13882,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G216" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13915,14 +13920,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 21247-2025</t>
+          <t>A 47094-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45779.57381944444</v>
+        <v>45196</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13934,13 +13939,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G217" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13977,14 +13977,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 21210-2025</t>
+          <t>A 38196-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45779.48717592593</v>
+        <v>45545.49483796296</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13996,13 +13996,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G218" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14039,14 +14034,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 21845-2025</t>
+          <t>A 50611-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45784.33908564815</v>
+        <v>45601.63069444444</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14058,13 +14053,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G219" t="n">
-        <v>13.3</v>
+        <v>1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14101,14 +14091,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 22234-2025</t>
+          <t>A 20289-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45785</v>
+        <v>45435.30835648148</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14120,8 +14110,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G220" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14158,14 +14153,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 22244-2025</t>
+          <t>A 52797-2021</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45785.67974537037</v>
+        <v>44467.37496527778</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14178,7 +14173,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14215,14 +14210,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 38742-2023</t>
+          <t>A 15255-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45161</v>
+        <v>45744.65173611111</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14236,11 +14231,11 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G222" t="n">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14277,14 +14272,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 3735-2024</t>
+          <t>A 48167-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45321</v>
+        <v>45589.73996527777</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14296,13 +14291,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G223" t="n">
-        <v>1.6</v>
+        <v>13.7</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14339,14 +14329,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 23308-2025</t>
+          <t>A 20086-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45791.6047800926</v>
+        <v>45434</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14396,14 +14386,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 23716-2025</t>
+          <t>A 13496-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45793.39087962963</v>
+        <v>45736.44390046296</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14416,7 +14406,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14453,14 +14443,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 23717-2025</t>
+          <t>A 56887-2022</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45793.39612268518</v>
+        <v>44894.57006944445</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14473,7 +14463,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14510,14 +14500,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 21915-2025</t>
+          <t>A 33011-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45784</v>
+        <v>45125</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14530,7 +14520,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>12</v>
+        <v>0.8</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14567,14 +14557,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 24099-2025</t>
+          <t>A 41777-2021</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45796</v>
+        <v>44425.65414351852</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14584,6 +14574,11 @@
       <c r="E228" t="inlineStr">
         <is>
           <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G228" t="n">
@@ -14624,14 +14619,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 26653-2025</t>
+          <t>A 41779-2021</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45810</v>
+        <v>44425.655625</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14649,7 +14644,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14686,14 +14681,14 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 27498-2025</t>
+          <t>A 51344-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45813</v>
+        <v>45219.59462962963</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14705,8 +14700,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G230" t="n">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>

--- a/Översikt KARLSKOGA.xlsx
+++ b/Översikt KARLSKOGA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z230"/>
+  <dimension ref="A1:Z231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 59524-2025</t>
+          <t>A 64125-2021</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45989</v>
+        <v>44510</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -587,22 +587,17 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G2" t="n">
-        <v>4.6</v>
+        <v>6.5</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -617,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -626,6 +621,109 @@
         <v>14</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Gäckporing
+Motaggsvamp
+Stubbtrådmossa
+Ullticka
+Bronshjon
+Flagellkvastmossa
+Gulnål
+Kornig nållav
+Nordisk klipptuss
+Rostfläck
+Smal svampklubba
+Trind spretmossa
+Vedticka
+Zontaggsvamp</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 64125-2021 artfynd.xlsx", "A 64125-2021")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 64125-2021 karta.png", "A 64125-2021")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 64125-2021 FSC-klagomål.docx", "A 64125-2021")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 64125-2021 FSC-klagomål mail.docx", "A 64125-2021")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 64125-2021 tillsynsbegäran.docx", "A 64125-2021")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 64125-2021 tillsynsbegäran mail.docx", "A 64125-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 59524-2025</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45989</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>8</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>14</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Havsörn
@@ -643,133 +741,35 @@
 Sparvuggla</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 59524-2025 artfynd.xlsx", "A 59524-2025")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 59524-2025 karta.png", "A 59524-2025")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 59524-2025 FSC-klagomål.docx", "A 59524-2025")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 59524-2025 FSC-klagomål mail.docx", "A 59524-2025")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 59524-2025 tillsynsbegäran.docx", "A 59524-2025")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 59524-2025 tillsynsbegäran mail.docx", "A 59524-2025")</f>
         <v/>
       </c>
-      <c r="Z2">
+      <c r="Z3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/fåglar/A 59524-2025 prioriterade fågelarter.docx", "A 59524-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 64125-2021</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>44510</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>4</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>14</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Gäckporing
-Motaggsvamp
-Stubbtrådmossa
-Ullticka
-Bronshjon
-Flagellkvastmossa
-Gulnål
-Kornig nållav
-Nordisk klipptuss
-Rostfläck
-Smal svampklubba
-Trind spretmossa
-Vedticka
-Zontaggsvamp</t>
-        </is>
-      </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 64125-2021 artfynd.xlsx", "A 64125-2021")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 64125-2021 karta.png", "A 64125-2021")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 64125-2021 FSC-klagomål.docx", "A 64125-2021")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 64125-2021 FSC-klagomål mail.docx", "A 64125-2021")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 64125-2021 tillsynsbegäran.docx", "A 64125-2021")</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 64125-2021 tillsynsbegäran mail.docx", "A 64125-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45958</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45989</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>45744.66456018519</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>44495</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>45840.87771990741</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>45849.38643518519</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>44354</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1432,14 +1432,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 24188-2024</t>
+          <t>A 28566-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45456.9100925926</v>
+        <v>45478.38914351852</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1451,16 +1451,11 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G11" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1491,218 +1486,218 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
+          <t>Ärtsångare</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 28566-2024 artfynd.xlsx", "A 28566-2024")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 28566-2024 karta.png", "A 28566-2024")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 28566-2024 FSC-klagomål.docx", "A 28566-2024")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 28566-2024 FSC-klagomål mail.docx", "A 28566-2024")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 28566-2024 tillsynsbegäran.docx", "A 28566-2024")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 28566-2024 tillsynsbegäran mail.docx", "A 28566-2024")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/fåglar/A 28566-2024 prioriterade fågelarter.docx", "A 28566-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 26651-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45810</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Fläcknycklar</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 26651-2025 artfynd.xlsx", "A 26651-2025")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 26651-2025 karta.png", "A 26651-2025")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 26651-2025 FSC-klagomål.docx", "A 26651-2025")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 26651-2025 FSC-klagomål mail.docx", "A 26651-2025")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 26651-2025 tillsynsbegäran.docx", "A 26651-2025")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 26651-2025 tillsynsbegäran mail.docx", "A 26651-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 24188-2024</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45456.9100925926</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>9</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
           <t>Garnlav</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 24188-2024 artfynd.xlsx", "A 24188-2024")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 24188-2024 karta.png", "A 24188-2024")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 24188-2024 FSC-klagomål.docx", "A 24188-2024")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 24188-2024 FSC-klagomål mail.docx", "A 24188-2024")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 24188-2024 tillsynsbegäran.docx", "A 24188-2024")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 24188-2024 tillsynsbegäran mail.docx", "A 24188-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 39025-2022</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>44817.3353125</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Talltita</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 39025-2022 artfynd.xlsx", "A 39025-2022")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 39025-2022 karta.png", "A 39025-2022")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 39025-2022 FSC-klagomål.docx", "A 39025-2022")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 39025-2022 FSC-klagomål mail.docx", "A 39025-2022")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 39025-2022 tillsynsbegäran.docx", "A 39025-2022")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 39025-2022 tillsynsbegäran mail.docx", "A 39025-2022")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/fåglar/A 39025-2022 prioriterade fågelarter.docx", "A 39025-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 26651-2025</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45810</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Fläcknycklar</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 26651-2025 artfynd.xlsx", "A 26651-2025")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 26651-2025 karta.png", "A 26651-2025")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 26651-2025 FSC-klagomål.docx", "A 26651-2025")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 26651-2025 FSC-klagomål mail.docx", "A 26651-2025")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 26651-2025 tillsynsbegäran.docx", "A 26651-2025")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 26651-2025 tillsynsbegäran mail.docx", "A 26651-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
@@ -1713,7 +1708,7 @@
         <v>45835.45203703704</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1803,7 +1798,7 @@
         <v>45849.38751157407</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1890,14 +1885,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 52375-2025</t>
+          <t>A 39025-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45953.94430555555</v>
+        <v>44817.3353125</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1915,7 +1910,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1924,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1939,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1949,576 +1944,581 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 39025-2022 artfynd.xlsx", "A 39025-2022")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 39025-2022 karta.png", "A 39025-2022")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 39025-2022 FSC-klagomål.docx", "A 39025-2022")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 39025-2022 FSC-klagomål mail.docx", "A 39025-2022")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 39025-2022 tillsynsbegäran.docx", "A 39025-2022")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 39025-2022 tillsynsbegäran mail.docx", "A 39025-2022")</f>
+        <v/>
+      </c>
+      <c r="Z16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/fåglar/A 39025-2022 prioriterade fågelarter.docx", "A 39025-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 40528-2024</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45555.60616898148</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Mattlummer</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 40528-2024 artfynd.xlsx", "A 40528-2024")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 40528-2024 karta.png", "A 40528-2024")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 40528-2024 FSC-klagomål.docx", "A 40528-2024")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 40528-2024 FSC-klagomål mail.docx", "A 40528-2024")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 40528-2024 tillsynsbegäran.docx", "A 40528-2024")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 40528-2024 tillsynsbegäran mail.docx", "A 40528-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 52375-2025</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>45953.94430555555</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
           <t>Revlummer</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 52375-2025 artfynd.xlsx", "A 52375-2025")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 52375-2025 karta.png", "A 52375-2025")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 52375-2025 FSC-klagomål.docx", "A 52375-2025")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 52375-2025 FSC-klagomål mail.docx", "A 52375-2025")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 52375-2025 tillsynsbegäran.docx", "A 52375-2025")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 52375-2025 tillsynsbegäran mail.docx", "A 52375-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>A 59512-2025</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B19" s="1" t="n">
         <v>45989.64748842592</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="C19" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="G19" t="n">
         <v>1</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>1</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>1</v>
       </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>1</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Motaggsvamp</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 59512-2025 artfynd.xlsx", "A 59512-2025")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 59512-2025 karta.png", "A 59512-2025")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 59512-2025 FSC-klagomål.docx", "A 59512-2025")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 59512-2025 FSC-klagomål mail.docx", "A 59512-2025")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 59512-2025 tillsynsbegäran.docx", "A 59512-2025")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 59512-2025 tillsynsbegäran mail.docx", "A 59512-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>A 59511-2025</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B20" s="1" t="n">
         <v>45989.64694444444</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
+      <c r="C20" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G18" t="n">
+      <c r="G20" t="n">
         <v>1.1</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>1</v>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>1</v>
       </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>1</v>
       </c>
-      <c r="R18" s="2" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Motaggsvamp</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 59511-2025 artfynd.xlsx", "A 59511-2025")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 59511-2025 karta.png", "A 59511-2025")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 59511-2025 FSC-klagomål.docx", "A 59511-2025")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 59511-2025 FSC-klagomål mail.docx", "A 59511-2025")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 59511-2025 tillsynsbegäran.docx", "A 59511-2025")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 59511-2025 tillsynsbegäran mail.docx", "A 59511-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>A 63185-2025</t>
         </is>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B21" s="1" t="n">
         <v>46010.43457175926</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
+      <c r="C21" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="G21" t="n">
         <v>8.4</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H21" t="n">
         <v>1</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>1</v>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>1</v>
       </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
         <v>1</v>
       </c>
-      <c r="R19" s="2" t="inlineStr">
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Talltita</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 63185-2025 artfynd.xlsx", "A 63185-2025")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 63185-2025 karta.png", "A 63185-2025")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 63185-2025 FSC-klagomål.docx", "A 63185-2025")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 63185-2025 FSC-klagomål mail.docx", "A 63185-2025")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 63185-2025 tillsynsbegäran.docx", "A 63185-2025")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 63185-2025 tillsynsbegäran mail.docx", "A 63185-2025")</f>
         <v/>
       </c>
-      <c r="Z19">
+      <c r="Z21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/fåglar/A 63185-2025 prioriterade fågelarter.docx", "A 63185-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
         <is>
           <t>A 63187-2025</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B22" s="1" t="n">
         <v>46010.44355324074</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
+      <c r="C22" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G20" t="n">
+      <c r="G22" t="n">
         <v>1.3</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H22" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>1</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
         <v>1</v>
       </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>1</v>
       </c>
-      <c r="R20" s="2" t="inlineStr">
+      <c r="R22" s="2" t="inlineStr">
         <is>
           <t>Talltita</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 63187-2025 artfynd.xlsx", "A 63187-2025")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 63187-2025 karta.png", "A 63187-2025")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 63187-2025 FSC-klagomål.docx", "A 63187-2025")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 63187-2025 FSC-klagomål mail.docx", "A 63187-2025")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 63187-2025 tillsynsbegäran.docx", "A 63187-2025")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 63187-2025 tillsynsbegäran mail.docx", "A 63187-2025")</f>
         <v/>
       </c>
-      <c r="Z20">
+      <c r="Z22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/fåglar/A 63187-2025 prioriterade fågelarter.docx", "A 63187-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 28566-2024</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>45478.38914351852</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Ärtsångare</t>
-        </is>
-      </c>
-      <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 28566-2024 artfynd.xlsx", "A 28566-2024")</f>
-        <v/>
-      </c>
-      <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 28566-2024 karta.png", "A 28566-2024")</f>
-        <v/>
-      </c>
-      <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 28566-2024 FSC-klagomål.docx", "A 28566-2024")</f>
-        <v/>
-      </c>
-      <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 28566-2024 FSC-klagomål mail.docx", "A 28566-2024")</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 28566-2024 tillsynsbegäran.docx", "A 28566-2024")</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 28566-2024 tillsynsbegäran mail.docx", "A 28566-2024")</f>
-        <v/>
-      </c>
-      <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/fåglar/A 28566-2024 prioriterade fågelarter.docx", "A 28566-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>A 40528-2024</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>45555.60616898148</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1</v>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>Mattlummer</t>
-        </is>
-      </c>
-      <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 40528-2024 artfynd.xlsx", "A 40528-2024")</f>
-        <v/>
-      </c>
-      <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 40528-2024 karta.png", "A 40528-2024")</f>
-        <v/>
-      </c>
-      <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 40528-2024 FSC-klagomål.docx", "A 40528-2024")</f>
-        <v/>
-      </c>
-      <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 40528-2024 FSC-klagomål mail.docx", "A 40528-2024")</f>
-        <v/>
-      </c>
-      <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 40528-2024 tillsynsbegäran.docx", "A 40528-2024")</f>
-        <v/>
-      </c>
-      <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 40528-2024 tillsynsbegäran mail.docx", "A 40528-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>44552.49849537037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>44510.50043981482</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>44381</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>44546</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>44448.43530092593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>44319</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>44732.61756944445</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2931,14 +2931,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 7989-2021</t>
+          <t>A 10327-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44243</v>
+        <v>44257</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2950,13 +2950,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>0.7</v>
+        <v>6.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2993,14 +2988,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 10327-2021</t>
+          <t>A 7989-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44257</v>
+        <v>44243</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3012,8 +3007,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>6.5</v>
+        <v>0.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3050,14 +3050,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 25116-2021</t>
+          <t>A 63671-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44341.71480324074</v>
+        <v>44508</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3071,11 +3071,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3112,14 +3112,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 50991-2021</t>
+          <t>A 56435-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44460.7434375</v>
+        <v>44480</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3169,14 +3169,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 32408-2021</t>
+          <t>A 25116-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44371.6544212963</v>
+        <v>44341.71480324074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3231,14 +3231,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 44723-2021</t>
+          <t>A 11081-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44438</v>
+        <v>44628</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3250,8 +3250,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3288,14 +3293,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 8573-2021</t>
+          <t>A 50991-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44245</v>
+        <v>44460.7434375</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3308,7 +3313,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3345,14 +3350,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 8590-2021</t>
+          <t>A 24637-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44245</v>
+        <v>44340</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3366,11 +3371,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.3</v>
+        <v>2.6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3407,14 +3412,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 34460-2021</t>
+          <t>A 37582-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44381</v>
+        <v>44809.80543981482</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3427,7 +3432,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3471,7 +3476,7 @@
         <v>44715.48209490741</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3528,7 +3533,7 @@
         <v>44512.60798611111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3583,14 +3588,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 41026-2021</t>
+          <t>A 32408-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44421.66028935185</v>
+        <v>44371.6544212963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3608,7 +3613,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3645,14 +3650,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 63671-2021</t>
+          <t>A 38012-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44508</v>
+        <v>44811</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3664,13 +3669,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3707,14 +3707,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 56435-2021</t>
+          <t>A 41026-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44480</v>
+        <v>44421.66028935185</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3726,8 +3726,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3764,14 +3769,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 4537-2022</t>
+          <t>A 44723-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44590</v>
+        <v>44438</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3784,7 +3789,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3821,14 +3826,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 24637-2021</t>
+          <t>A 25898-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44340</v>
+        <v>44344.39799768518</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3846,7 +3851,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3883,14 +3888,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 37582-2022</t>
+          <t>A 37584-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44809.80543981482</v>
+        <v>44809.81278935185</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3903,7 +3908,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.8</v>
+        <v>4.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3940,14 +3945,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 38012-2022</t>
+          <t>A 8573-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44811</v>
+        <v>44245</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3960,7 +3965,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3997,14 +4002,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 25898-2021</t>
+          <t>A 8590-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44344.39799768518</v>
+        <v>44245</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4018,11 +4023,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4059,14 +4064,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 11081-2022</t>
+          <t>A 34460-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44628</v>
+        <v>44381</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4078,13 +4083,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4121,14 +4121,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 37584-2022</t>
+          <t>A 21612-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44809.81278935185</v>
+        <v>44706.67246527778</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4.9</v>
+        <v>0.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4178,14 +4178,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 21612-2022</t>
+          <t>A 21622-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44706.67246527778</v>
+        <v>44706.68547453704</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4235,14 +4235,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 21622-2022</t>
+          <t>A 50863-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44706.68547453704</v>
+        <v>45602.63560185185</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4254,8 +4254,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>0.8</v>
+        <v>8.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4292,14 +4297,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 45117-2021</t>
+          <t>A 56887-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44439</v>
+        <v>44894.57006944445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4312,7 +4317,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4349,14 +4354,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 39027-2022</t>
+          <t>A 45117-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44817</v>
+        <v>44439</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4368,13 +4373,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4411,14 +4411,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 17815-2025</t>
+          <t>A 16881-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45758.56148148148</v>
+        <v>45033</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4432,11 +4432,11 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4473,14 +4473,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 58390-2024</t>
+          <t>A 38196-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45633.6719212963</v>
+        <v>45545.49483796296</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4530,14 +4530,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 4587-2025</t>
+          <t>A 39027-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45687.51668981482</v>
+        <v>44817</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4549,8 +4549,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4587,14 +4592,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 9941-2025</t>
+          <t>A 61396-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45718.83177083333</v>
+        <v>45264.64989583333</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4607,7 +4612,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4644,14 +4649,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 24255-2024</t>
+          <t>A 8803-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45457.39487268519</v>
+        <v>45712.66123842593</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4664,7 +4669,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4701,14 +4706,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 4164-2022</t>
+          <t>A 20289-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44588</v>
+        <v>45435.30835648148</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4722,11 +4727,11 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4763,14 +4768,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 35471-2024</t>
+          <t>A 4164-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45531.46973379629</v>
+        <v>44588</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4782,8 +4787,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4820,14 +4830,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 61813-2024</t>
+          <t>A 61271-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45649.59596064815</v>
+        <v>44909</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4841,11 +4851,11 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.8</v>
+        <v>14.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4882,14 +4892,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 9712-2024</t>
+          <t>A 27735-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45362</v>
+        <v>44354.4771412037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4903,11 +4913,11 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4944,14 +4954,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 6835-2025</t>
+          <t>A 46605-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45700.78726851852</v>
+        <v>44445.55292824074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4963,8 +4973,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5001,14 +5016,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 10515-2023</t>
+          <t>A 35445-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44987.7978125</v>
+        <v>45531.43599537037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5021,7 +5036,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5058,14 +5073,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 39337-2022</t>
+          <t>A 38190-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44817.72568287037</v>
+        <v>45545.49076388889</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5078,7 +5093,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5115,14 +5130,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 41267-2025</t>
+          <t>A 39337-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45898.61796296296</v>
+        <v>44817.72568287037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5135,7 +5150,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5172,14 +5187,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 42804-2023</t>
+          <t>A 57422-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45182</v>
+        <v>44483</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5191,13 +5206,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5234,14 +5244,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 9510-2023</t>
+          <t>A 9712-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44981.64696759259</v>
+        <v>45362</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5253,8 +5263,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5291,14 +5306,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 53620-2024</t>
+          <t>A 35060-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45614.73983796296</v>
+        <v>45527</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5310,8 +5325,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5348,14 +5368,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 2224-2025</t>
+          <t>A 4537-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45673</v>
+        <v>44590</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5368,7 +5388,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5405,14 +5425,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 39673-2025</t>
+          <t>A 4058-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45890.64559027777</v>
+        <v>44588</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5424,13 +5444,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5467,14 +5482,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 10492-2021</t>
+          <t>A 15254-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44258.26988425926</v>
+        <v>45744.64983796296</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5486,8 +5501,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5524,14 +5544,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 1309-2024</t>
+          <t>A 15256-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45303</v>
+        <v>45744.65391203704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5543,8 +5563,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5581,14 +5606,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 13501-2025</t>
+          <t>A 64060-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45736.45362268519</v>
+        <v>45279.35636574074</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5601,7 +5626,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5638,14 +5663,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 22624-2021</t>
+          <t>A 14215-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44327</v>
+        <v>45393</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5659,11 +5684,11 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5700,14 +5725,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 10404-2022</t>
+          <t>A 16256-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44623.45096064815</v>
+        <v>45750.71596064815</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5719,8 +5744,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5757,14 +5787,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 10506-2025</t>
+          <t>A 43075-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45721</v>
+        <v>45182.83460648148</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5814,14 +5844,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 21247-2025</t>
+          <t>A 23263-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45779.57381944444</v>
+        <v>44720.40815972222</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5833,13 +5863,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5876,14 +5901,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 21210-2025</t>
+          <t>A 58091-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45779.48717592593</v>
+        <v>44900</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5901,7 +5926,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5938,14 +5963,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 22234-2025</t>
+          <t>A 27728-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45785</v>
+        <v>44354.47241898148</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5957,8 +5982,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5995,14 +6025,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 38742-2023</t>
+          <t>A 35444-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45161</v>
+        <v>45531.43599537037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6014,13 +6044,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6057,14 +6082,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 22244-2025</t>
+          <t>A 35471-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45785.67974537037</v>
+        <v>45531.46973379629</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6077,7 +6102,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6114,14 +6139,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 21845-2025</t>
+          <t>A 24116-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45784.33908564815</v>
+        <v>45456</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6133,13 +6158,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>13.3</v>
+        <v>1.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6176,14 +6196,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 35444-2024</t>
+          <t>A 55832-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45531.43599537037</v>
+        <v>45239.61148148148</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6233,14 +6253,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 23263-2022</t>
+          <t>A 47222-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44720.40815972222</v>
+        <v>45586</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6252,8 +6272,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>2.2</v>
+        <v>5.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6290,14 +6315,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 3735-2024</t>
+          <t>A 26653-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45321</v>
+        <v>45810</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6311,11 +6336,11 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6352,14 +6377,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 23308-2025</t>
+          <t>A 58390-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45791.6047800926</v>
+        <v>45633.6719212963</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6372,7 +6397,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6409,14 +6434,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 43772-2025</t>
+          <t>A 10515-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45912.50550925926</v>
+        <v>44987.7978125</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6429,7 +6454,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.6</v>
+        <v>1.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6466,14 +6491,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 47201-2023</t>
+          <t>A 1106-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45196</v>
+        <v>45302</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6486,7 +6511,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6523,14 +6548,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 23716-2025</t>
+          <t>A 27498-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45793.39087962963</v>
+        <v>45813</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6543,7 +6568,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>6</v>
+        <v>1.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6580,14 +6605,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 61396-2023</t>
+          <t>A 18768-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45264.64989583333</v>
+        <v>45764.29767361111</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6599,8 +6624,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6637,14 +6667,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 23717-2025</t>
+          <t>A 42803-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45793.39612268518</v>
+        <v>45182</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6656,8 +6686,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6694,14 +6729,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 8259-2025</t>
+          <t>A 48707-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45708.50091435185</v>
+        <v>45593.53480324074</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6714,7 +6749,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.7</v>
+        <v>6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6751,14 +6786,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 24116-2024</t>
+          <t>A 48167-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45456</v>
+        <v>45589.73996527777</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6771,7 +6806,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.8</v>
+        <v>13.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6808,14 +6843,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 44946-2025</t>
+          <t>A 33011-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45918.6046875</v>
+        <v>45125</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6828,7 +6863,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6865,14 +6900,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 35930-2023</t>
+          <t>A 48168-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45148</v>
+        <v>45589.74410879629</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6884,13 +6919,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6927,14 +6957,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 21915-2025</t>
+          <t>A 54680-2021</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45784</v>
+        <v>44473</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6947,7 +6977,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>12</v>
+        <v>2.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6984,14 +7014,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 44949-2025</t>
+          <t>A 30102-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45918.60568287037</v>
+        <v>45826.68414351852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7004,7 +7034,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7041,14 +7071,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 24099-2025</t>
+          <t>A 39936-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45796</v>
+        <v>45553.56512731482</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7061,7 +7091,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.4</v>
+        <v>6.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7098,14 +7128,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 63863-2023</t>
+          <t>A 53647-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45278.50163194445</v>
+        <v>45230.6046875</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7118,7 +7148,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7155,14 +7185,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 45664-2025</t>
+          <t>A 34585-2021</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45923.34690972222</v>
+        <v>44382.47526620371</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7174,13 +7204,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>9</v>
+        <v>1.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7217,14 +7242,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 45596-2025</t>
+          <t>A 23620-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45922.68408564815</v>
+        <v>45454</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7236,13 +7261,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7279,14 +7299,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 26653-2025</t>
+          <t>A 20086-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45810</v>
+        <v>45434</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7298,13 +7318,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7341,14 +7356,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 27498-2025</t>
+          <t>A 10492-2021</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45813</v>
+        <v>44258.26988425926</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7361,7 +7376,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7398,14 +7413,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 64089-2021</t>
+          <t>A 9510-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44510</v>
+        <v>44981.64696759259</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7455,14 +7470,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 59938-2023</t>
+          <t>A 13454-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45257.67357638889</v>
+        <v>44645</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7475,7 +7490,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7512,14 +7527,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 52828-2024</t>
+          <t>A 16476-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45610.59295138889</v>
+        <v>45751.57092592592</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7532,7 +7547,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>8.300000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7569,14 +7584,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 15254-2025</t>
+          <t>A 10743-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45744.64983796296</v>
+        <v>44988.70174768518</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7590,11 +7605,11 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7631,14 +7646,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 15256-2025</t>
+          <t>A 50611-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45744.65391203704</v>
+        <v>45601.63069444444</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7650,13 +7665,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7693,14 +7703,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 23620-2024</t>
+          <t>A 42802-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45454</v>
+        <v>45182</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7712,8 +7722,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7750,14 +7765,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 53647-2023</t>
+          <t>A 31397-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45230.6046875</v>
+        <v>45833</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7770,7 +7785,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7807,14 +7822,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 39936-2024</t>
+          <t>A 52829-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45553.56512731482</v>
+        <v>45610.59344907408</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7827,7 +7842,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>6.4</v>
+        <v>2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7864,14 +7879,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 30102-2025</t>
+          <t>A 32287-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45826.68414351852</v>
+        <v>45835.6914699074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7883,8 +7898,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>10.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7921,14 +7941,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 34585-2021</t>
+          <t>A 56313-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44382.47526620371</v>
+        <v>45624</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7940,8 +7960,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7978,14 +8003,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 54680-2021</t>
+          <t>A 38382-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44473</v>
+        <v>44812</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7997,8 +8022,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8035,14 +8065,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 24115-2024</t>
+          <t>A 35470-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45456</v>
+        <v>45531.46973379629</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8055,7 +8085,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8092,14 +8122,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 31397-2025</t>
+          <t>A 28474-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45833</v>
+        <v>45103.42020833334</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8112,7 +8142,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.5</v>
+        <v>5.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8149,14 +8179,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 32287-2025</t>
+          <t>A 32870-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45835.6914699074</v>
+        <v>45839.58939814815</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8168,13 +8198,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>10.9</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8211,14 +8236,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 32870-2025</t>
+          <t>A 24115-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45839.58939814815</v>
+        <v>45456</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8231,7 +8256,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8268,14 +8293,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 53619-2024</t>
+          <t>A 8990-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45614.73967592593</v>
+        <v>44979.55237268518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8288,7 +8313,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8325,14 +8350,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 18768-2025</t>
+          <t>A 6835-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45764.29767361111</v>
+        <v>45700.78726851852</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8344,13 +8369,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8387,14 +8407,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 4801-2024</t>
+          <t>A 59025-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45328.89141203704</v>
+        <v>45636.68592592593</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8406,8 +8426,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8444,14 +8469,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 4802-2024</t>
+          <t>A 10404-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45328.8962962963</v>
+        <v>44623.45096064815</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8464,7 +8489,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8501,14 +8526,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 8990-2023</t>
+          <t>A 3227-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44979.55237268518</v>
+        <v>45679</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8521,7 +8546,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8558,14 +8583,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 42802-2023</t>
+          <t>A 53619-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45182</v>
+        <v>45614.73967592593</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8577,13 +8602,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8620,14 +8640,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 28471-2023</t>
+          <t>A 22624-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45103.41175925926</v>
+        <v>44327</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8639,8 +8659,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8677,14 +8702,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 22867-2022</t>
+          <t>A 13501-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44715.49313657408</v>
+        <v>45736.45362268519</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8697,7 +8722,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8734,14 +8759,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 64060-2023</t>
+          <t>A 47094-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45279.35636574074</v>
+        <v>45196</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8791,14 +8816,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 48707-2024</t>
+          <t>A 18955-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45593.53480324074</v>
+        <v>45764.51512731481</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8811,7 +8836,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8848,14 +8873,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 55832-2023</t>
+          <t>A 10506-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45239.61148148148</v>
+        <v>45721</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8868,7 +8893,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8905,14 +8930,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 58388-2024</t>
+          <t>A 50614-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45633.64746527778</v>
+        <v>45601.63342592592</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8925,7 +8950,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>5.8</v>
+        <v>0.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8962,14 +8987,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 37150-2025</t>
+          <t>A 31921-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45875.5734837963</v>
+        <v>44777</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8982,7 +9007,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9019,14 +9044,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 50957-2025</t>
+          <t>A 42804-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45946.78399305556</v>
+        <v>45182</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9038,8 +9063,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9076,14 +9106,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 50958-2025</t>
+          <t>A 39030-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45946.78709490741</v>
+        <v>44817.34023148148</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9095,8 +9125,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9133,14 +9168,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 37332-2025</t>
+          <t>A 10816-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45876.65920138889</v>
+        <v>44990.43501157407</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9152,13 +9187,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>8.300000000000001</v>
+        <v>2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9195,14 +9225,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 18978-2025</t>
+          <t>A 8244-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45764.54626157408</v>
+        <v>45708.4852662037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9215,7 +9245,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9252,14 +9282,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 37737-2025</t>
+          <t>A 28100-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45880.63737268518</v>
+        <v>45476.61674768518</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9271,13 +9301,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9314,14 +9339,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 10816-2023</t>
+          <t>A 22867-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44990.43501157407</v>
+        <v>44715.49313657408</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9334,7 +9359,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9371,14 +9396,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 20470-2025</t>
+          <t>A 51344-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45775.54530092593</v>
+        <v>45219.59462962963</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9392,11 +9417,11 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9433,14 +9458,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 38071-2025</t>
+          <t>A 37150-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45882.4412037037</v>
+        <v>45875.5734837963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9453,7 +9478,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9490,14 +9515,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 31921-2022</t>
+          <t>A 37332-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44777</v>
+        <v>45876.65920138889</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9509,8 +9534,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>2.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9547,14 +9577,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 43075-2023</t>
+          <t>A 64089-2021</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45182.83460648148</v>
+        <v>44510</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9567,7 +9597,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9604,14 +9634,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 47196-2023</t>
+          <t>A 55182-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45196</v>
+        <v>45618</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9624,7 +9654,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>5.9</v>
+        <v>11.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9661,14 +9691,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 13454-2022</t>
+          <t>A 18978-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44645</v>
+        <v>45764.54626157408</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9681,7 +9711,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9718,14 +9748,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 15252-2025</t>
+          <t>A 37737-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45744</v>
+        <v>45880.63737268518</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9739,11 +9769,11 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9780,14 +9810,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 15253-2025</t>
+          <t>A 18468-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45744</v>
+        <v>45762.73166666667</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9799,13 +9829,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9842,14 +9867,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 52376-2025</t>
+          <t>A 4801-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45953.94524305555</v>
+        <v>45328.89141203704</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9861,13 +9886,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9904,14 +9924,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 52377-2025</t>
+          <t>A 4802-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45953.94622685185</v>
+        <v>45328.8962962963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9923,13 +9943,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G149" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9966,14 +9981,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 52379-2025</t>
+          <t>A 30961-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45953.94826388889</v>
+        <v>44768</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9987,11 +10002,11 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10028,14 +10043,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 53618-2024</t>
+          <t>A 55191-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45614.73951388889</v>
+        <v>45237.58084490741</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10048,7 +10063,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>10.1</v>
+        <v>1.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10085,14 +10100,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 30961-2022</t>
+          <t>A 38071-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44768</v>
+        <v>45882.4412037037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10104,13 +10119,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G152" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10147,14 +10157,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 42803-2023</t>
+          <t>A 20470-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45182</v>
+        <v>45775.54530092593</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10172,7 +10182,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10209,14 +10219,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 8803-2025</t>
+          <t>A 4587-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45712.66123842593</v>
+        <v>45687.51668981482</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10229,7 +10239,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10266,14 +10276,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 55025-2025</t>
+          <t>A 41777-2021</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45967.63591435185</v>
+        <v>44425.65414351852</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10285,8 +10295,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10323,14 +10338,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 15188-2025</t>
+          <t>A 41779-2021</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45744.55122685185</v>
+        <v>44425.655625</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10344,11 +10359,11 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>11.8</v>
+        <v>1.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10385,14 +10400,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 57212-2025</t>
+          <t>A 52797-2021</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45979.60140046296</v>
+        <v>44467.37496527778</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10405,7 +10420,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10442,14 +10457,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 56313-2024</t>
+          <t>A 13496-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45624</v>
+        <v>45736.44390046296</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10461,13 +10476,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G158" t="n">
-        <v>2.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10504,14 +10514,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 10743-2023</t>
+          <t>A 11974-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44988.70174768518</v>
+        <v>45728.58998842593</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10523,13 +10533,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G159" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10566,14 +10571,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 14215-2024</t>
+          <t>A 63863-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45393</v>
+        <v>45278.50163194445</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10585,13 +10590,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10628,14 +10628,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 55191-2023</t>
+          <t>A 1309-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45237.58084490741</v>
+        <v>45303</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10648,7 +10648,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10685,14 +10685,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 15269-2025</t>
+          <t>A 15252-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45744.66511574074</v>
+        <v>45744</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10747,14 +10747,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 59025-2024</t>
+          <t>A 15253-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45636.68592592593</v>
+        <v>45744</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10768,11 +10768,11 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10809,14 +10809,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 58695-2025</t>
+          <t>A 20463-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45986.58576388889</v>
+        <v>45775.53664351852</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10828,8 +10828,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G164" t="n">
-        <v>7.2</v>
+        <v>0.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10866,14 +10871,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 17243-2024</t>
+          <t>A 15188-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45414</v>
+        <v>45744.55122685185</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10885,8 +10890,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>3.2</v>
+        <v>11.8</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10923,14 +10933,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 59522-2025</t>
+          <t>A 28471-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45989.6597800926</v>
+        <v>45103.41175925926</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10942,13 +10952,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10985,14 +10990,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 917-2026</t>
+          <t>A 15255-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>46030.48421296296</v>
+        <v>45744.65173611111</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11004,8 +11009,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G167" t="n">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11042,14 +11052,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 1788-2026</t>
+          <t>A 52826-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>46034.87616898148</v>
+        <v>45610.59243055555</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11062,7 +11072,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11099,14 +11109,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 60465-2025</t>
+          <t>A 21682-2021</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45995.55730324074</v>
+        <v>44322.41228009259</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11119,7 +11129,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11156,14 +11166,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 35060-2024</t>
+          <t>A 9941-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45527</v>
+        <v>45718.83177083333</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11175,13 +11185,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G170" t="n">
-        <v>0.6</v>
+        <v>5.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11218,14 +11223,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 60506-2025</t>
+          <t>A 24255-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45995.62744212963</v>
+        <v>45457.39487268519</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11238,7 +11243,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11275,14 +11280,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 60508-2025</t>
+          <t>A 8259-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45995.63013888889</v>
+        <v>45708.50091435185</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11295,7 +11300,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11332,14 +11337,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 60470-2025</t>
+          <t>A 39673-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45995.565625</v>
+        <v>45890.64559027777</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11349,6 +11354,11 @@
       <c r="E173" t="inlineStr">
         <is>
           <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G173" t="n">
@@ -11389,14 +11399,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 60503-2025</t>
+          <t>A 53620-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45995.62199074074</v>
+        <v>45614.73983796296</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11409,7 +11419,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11446,14 +11456,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 2911-2026</t>
+          <t>A 17815-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>46038.56614583333</v>
+        <v>45758.56148148148</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11465,8 +11475,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G175" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11503,14 +11518,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 52826-2024</t>
+          <t>A 20139-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45610.59243055555</v>
+        <v>45772</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11522,8 +11537,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>2.2</v>
+        <v>4.7</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11560,14 +11580,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 52829-2024</t>
+          <t>A 20140-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45610.59344907408</v>
+        <v>45772</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11579,8 +11599,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11617,14 +11642,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 11974-2025</t>
+          <t>A 35930-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45728.58998842593</v>
+        <v>45148</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11636,8 +11661,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G178" t="n">
-        <v>1.4</v>
+        <v>5.2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11674,14 +11704,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 28474-2023</t>
+          <t>A 47196-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45103.42020833334</v>
+        <v>45196</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11694,7 +11724,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11731,14 +11761,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 61271-2022</t>
+          <t>A 41267-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44909</v>
+        <v>45898.61796296296</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11750,13 +11780,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>14.1</v>
+        <v>0.9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11793,14 +11818,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 48168-2024</t>
+          <t>A 53618-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45589.74410879629</v>
+        <v>45614.73951388889</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11813,7 +11838,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>5.5</v>
+        <v>10.1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11850,14 +11875,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 58091-2022</t>
+          <t>A 2224-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44900</v>
+        <v>45673</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11869,13 +11894,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G182" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11912,14 +11932,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 18468-2025</t>
+          <t>A 58388-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45762.73166666667</v>
+        <v>45633.64746527778</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11932,7 +11952,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>3.1</v>
+        <v>5.8</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11969,14 +11989,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 61788-2025</t>
+          <t>A 47201-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>46002.68515046296</v>
+        <v>45196</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11988,13 +12008,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G184" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12031,14 +12046,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 18955-2025</t>
+          <t>A 43772-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45764.51512731481</v>
+        <v>45912.50550925926</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12051,7 +12066,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>8.1</v>
+        <v>3.6</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12088,14 +12103,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 50614-2024</t>
+          <t>A 52828-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45601.63342592592</v>
+        <v>45610.59295138889</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12108,7 +12123,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12145,14 +12160,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 55182-2024</t>
+          <t>A 15269-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45618</v>
+        <v>45744.66511574074</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12164,8 +12179,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>11.4</v>
+        <v>3.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12202,14 +12222,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 16476-2025</t>
+          <t>A 44946-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45751.57092592592</v>
+        <v>45918.6046875</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12222,7 +12242,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12259,14 +12279,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 4058-2022</t>
+          <t>A 44949-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44588</v>
+        <v>45918.60568287037</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12279,7 +12299,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12316,14 +12336,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 46605-2021</t>
+          <t>A 17243-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44445.55292824074</v>
+        <v>45414</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12335,13 +12355,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12378,14 +12393,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 6255-2026</t>
+          <t>A 59938-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>46055.47542824074</v>
+        <v>45257.67357638889</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12398,7 +12413,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12435,14 +12450,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 64066-2025</t>
+          <t>A 61813-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>46013</v>
+        <v>45649.59596064815</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12454,8 +12469,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G192" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12492,14 +12512,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 3227-2025</t>
+          <t>A 45596-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45679</v>
+        <v>45922.68408564815</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12511,8 +12531,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12549,14 +12574,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 6605-2026</t>
+          <t>A 45664-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>46056.47820601852</v>
+        <v>45923.34690972222</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12568,8 +12593,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G194" t="n">
-        <v>2.4</v>
+        <v>9</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12606,14 +12636,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 28100-2024</t>
+          <t>A 21247-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45476.61674768518</v>
+        <v>45779.57381944444</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12625,8 +12655,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G195" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12663,14 +12698,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 16256-2025</t>
+          <t>A 21210-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45750.71596064815</v>
+        <v>45779.48717592593</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12684,11 +12719,11 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G196" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12725,14 +12760,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 63628-2025</t>
+          <t>A 21845-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>46014.36813657408</v>
+        <v>45784.33908564815</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12744,8 +12779,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G197" t="n">
-        <v>3.8</v>
+        <v>13.3</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12782,14 +12822,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 50863-2024</t>
+          <t>A 22234-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45602.63560185185</v>
+        <v>45785</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12801,13 +12841,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G198" t="n">
-        <v>8.1</v>
+        <v>0.9</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12844,14 +12879,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 27728-2021</t>
+          <t>A 22244-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44354.47241898148</v>
+        <v>45785.67974537037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12863,13 +12898,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12906,14 +12936,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 1106-2024</t>
+          <t>A 38742-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45302</v>
+        <v>45161</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12925,8 +12955,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G200" t="n">
-        <v>1.9</v>
+        <v>4.2</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12963,14 +12998,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 63188-2025</t>
+          <t>A 3735-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>46010.44494212963</v>
+        <v>45321</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12984,11 +13019,11 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13025,14 +13060,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 39030-2022</t>
+          <t>A 23308-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44817.34023148148</v>
+        <v>45791.6047800926</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13044,13 +13079,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13087,14 +13117,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 7232-2026</t>
+          <t>A 50958-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>46058.57258101852</v>
+        <v>45946.78709490741</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13107,7 +13137,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13144,14 +13174,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 38382-2022</t>
+          <t>A 50957-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44812</v>
+        <v>45946.78399305556</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13163,13 +13193,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G204" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13206,14 +13231,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 16881-2023</t>
+          <t>A 52377-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45033</v>
+        <v>45953.94622685185</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13227,11 +13252,11 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13268,14 +13293,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 20139-2025</t>
+          <t>A 23716-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45772</v>
+        <v>45793.39087962963</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13287,13 +13312,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G206" t="n">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13330,14 +13350,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 20140-2025</t>
+          <t>A 23717-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45772</v>
+        <v>45793.39612268518</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13349,13 +13369,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13392,14 +13407,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 57422-2021</t>
+          <t>A 52379-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44483</v>
+        <v>45953.94826388889</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13411,8 +13426,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13449,14 +13469,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 8244-2025</t>
+          <t>A 52376-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45708.4852662037</v>
+        <v>45953.94524305555</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13468,8 +13488,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G209" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13506,14 +13531,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 38190-2024</t>
+          <t>A 21915-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45545.49076388889</v>
+        <v>45784</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13526,7 +13551,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.1</v>
+        <v>12</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13563,14 +13588,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 27735-2021</t>
+          <t>A 24099-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44354.4771412037</v>
+        <v>45796</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13582,13 +13607,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G211" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13625,14 +13645,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 20463-2025</t>
+          <t>A 55025-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45775.53664351852</v>
+        <v>45967.63591435185</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13644,13 +13664,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G212" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13687,14 +13702,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 47222-2024</t>
+          <t>A 57212-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45586</v>
+        <v>45979.60140046296</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13706,13 +13721,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G213" t="n">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13749,14 +13759,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 35470-2024</t>
+          <t>A 58695-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45531.46973379629</v>
+        <v>45986.58576388889</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13769,7 +13779,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.5</v>
+        <v>7.2</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13806,14 +13816,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 21682-2021</t>
+          <t>A 917-2026</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44322.41228009259</v>
+        <v>46030.48421296296</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13826,7 +13836,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13863,14 +13873,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 35445-2024</t>
+          <t>A 59522-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45531.43599537037</v>
+        <v>45989.6597800926</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13882,8 +13892,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G216" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13920,14 +13935,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 47094-2023</t>
+          <t>A 1788-2026</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45196</v>
+        <v>46034.87616898148</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13940,7 +13955,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13977,14 +13992,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 38196-2024</t>
+          <t>A 60470-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45545.49483796296</v>
+        <v>45995.565625</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13997,7 +14012,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14034,14 +14049,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 50611-2024</t>
+          <t>A 2911-2026</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45601.63069444444</v>
+        <v>46038.56614583333</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14054,7 +14069,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14091,14 +14106,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 20289-2024</t>
+          <t>A 60503-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45435.30835648148</v>
+        <v>45995.62199074074</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14110,13 +14125,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G220" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14153,14 +14163,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 52797-2021</t>
+          <t>A 60508-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44467.37496527778</v>
+        <v>45995.63013888889</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14173,7 +14183,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14210,14 +14220,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 15255-2025</t>
+          <t>A 60506-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45744.65173611111</v>
+        <v>45995.62744212963</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14229,13 +14239,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G222" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14272,14 +14277,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 48167-2024</t>
+          <t>A 60465-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45589.73996527777</v>
+        <v>45995.55730324074</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14292,7 +14297,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>13.7</v>
+        <v>1.8</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14329,14 +14334,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 20086-2024</t>
+          <t>A 61788-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45434</v>
+        <v>46002.68515046296</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14348,8 +14353,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G224" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14386,14 +14396,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 13496-2025</t>
+          <t>A 64066-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45736.44390046296</v>
+        <v>46013</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14406,7 +14416,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>8.800000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14443,14 +14453,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 56887-2022</t>
+          <t>A 6255-2026</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44894.57006944445</v>
+        <v>46055.47542824074</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14463,7 +14473,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14500,14 +14510,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 33011-2023</t>
+          <t>A 63188-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45125</v>
+        <v>46010.44494212963</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14519,8 +14529,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G227" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14557,14 +14572,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 41777-2021</t>
+          <t>A 6605-2026</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44425.65414351852</v>
+        <v>46056.47820601852</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14576,13 +14591,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G228" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14619,14 +14629,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 41779-2021</t>
+          <t>A 63628-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44425.655625</v>
+        <v>46014.36813657408</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14638,13 +14648,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G229" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14678,17 +14683,17 @@
       </c>
       <c r="R229" s="2" t="inlineStr"/>
     </row>
-    <row r="230">
+    <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 51344-2023</t>
+          <t>A 7232-2026</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45219.59462962963</v>
+        <v>46058.57258101852</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14700,13 +14705,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G230" t="n">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14739,6 +14739,63 @@
         <v>0</v>
       </c>
       <c r="R230" s="2" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>A 3239-2026</t>
+        </is>
+      </c>
+      <c r="B231" s="1" t="n">
+        <v>46041</v>
+      </c>
+      <c r="C231" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="G231" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="n">
+        <v>0</v>
+      </c>
+      <c r="L231" t="n">
+        <v>0</v>
+      </c>
+      <c r="M231" t="n">
+        <v>0</v>
+      </c>
+      <c r="N231" t="n">
+        <v>0</v>
+      </c>
+      <c r="O231" t="n">
+        <v>0</v>
+      </c>
+      <c r="P231" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q231" t="n">
+        <v>0</v>
+      </c>
+      <c r="R231" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KARLSKOGA.xlsx
+++ b/Översikt KARLSKOGA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z231"/>
+  <dimension ref="A1:Z230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 64125-2021</t>
+          <t>A 59524-2025</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>44510</v>
+        <v>45989</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -587,17 +587,22 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G2" t="n">
-        <v>6.5</v>
+        <v>4.6</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -612,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -621,6 +626,108 @@
         <v>14</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Garnlav
+Havsörn
+Järpe
+Kolflarnlav
+Orange taggsvamp
+Talltita
+Tretåig hackspett
+Vedflamlav
+Korallblylav
+Mörk husmossa
+Stor revmossa
+Vedticka
+Västlig hakmossa
+Sparvuggla</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 59524-2025 artfynd.xlsx", "A 59524-2025")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 59524-2025 karta.png", "A 59524-2025")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 59524-2025 FSC-klagomål.docx", "A 59524-2025")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 59524-2025 FSC-klagomål mail.docx", "A 59524-2025")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 59524-2025 tillsynsbegäran.docx", "A 59524-2025")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 59524-2025 tillsynsbegäran mail.docx", "A 59524-2025")</f>
+        <v/>
+      </c>
+      <c r="Z2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/fåglar/A 59524-2025 prioriterade fågelarter.docx", "A 59524-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 64125-2021</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>44510</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>14</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Gäckporing
 Motaggsvamp
@@ -638,138 +745,31 @@
 Zontaggsvamp</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 64125-2021 artfynd.xlsx", "A 64125-2021")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 64125-2021 karta.png", "A 64125-2021")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 64125-2021 FSC-klagomål.docx", "A 64125-2021")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 64125-2021 FSC-klagomål mail.docx", "A 64125-2021")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 64125-2021 tillsynsbegäran.docx", "A 64125-2021")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 64125-2021 tillsynsbegäran mail.docx", "A 64125-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 59524-2025</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>45989</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>8</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>8</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>14</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Garnlav
-Havsörn
-Järpe
-Kolflarnlav
-Orange taggsvamp
-Talltita
-Tretåig hackspett
-Vedflamlav
-Korallblylav
-Mörk husmossa
-Stor revmossa
-Vedticka
-Västlig hakmossa
-Sparvuggla</t>
-        </is>
-      </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 59524-2025 artfynd.xlsx", "A 59524-2025")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 59524-2025 karta.png", "A 59524-2025")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 59524-2025 FSC-klagomål.docx", "A 59524-2025")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 59524-2025 FSC-klagomål mail.docx", "A 59524-2025")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 59524-2025 tillsynsbegäran.docx", "A 59524-2025")</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 59524-2025 tillsynsbegäran mail.docx", "A 59524-2025")</f>
-        <v/>
-      </c>
-      <c r="Z3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/fåglar/A 59524-2025 prioriterade fågelarter.docx", "A 59524-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45958</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45989</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>45744.66456018519</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>44495</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>45840.87771990741</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>45849.38643518519</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>44354</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1432,14 +1432,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 28566-2024</t>
+          <t>A 24188-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45478.38914351852</v>
+        <v>45456.9100925926</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1451,11 +1451,16 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1486,851 +1491,855 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 24188-2024 artfynd.xlsx", "A 24188-2024")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 24188-2024 karta.png", "A 24188-2024")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 24188-2024 FSC-klagomål.docx", "A 24188-2024")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 24188-2024 FSC-klagomål mail.docx", "A 24188-2024")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 24188-2024 tillsynsbegäran.docx", "A 24188-2024")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 24188-2024 tillsynsbegäran mail.docx", "A 24188-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 39025-2022</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>44817.3353125</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 39025-2022 artfynd.xlsx", "A 39025-2022")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 39025-2022 karta.png", "A 39025-2022")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 39025-2022 FSC-klagomål.docx", "A 39025-2022")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 39025-2022 FSC-klagomål mail.docx", "A 39025-2022")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 39025-2022 tillsynsbegäran.docx", "A 39025-2022")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 39025-2022 tillsynsbegäran mail.docx", "A 39025-2022")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/fåglar/A 39025-2022 prioriterade fågelarter.docx", "A 39025-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 26651-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45810</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Fläcknycklar</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 26651-2025 artfynd.xlsx", "A 26651-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 26651-2025 karta.png", "A 26651-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 26651-2025 FSC-klagomål.docx", "A 26651-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 26651-2025 FSC-klagomål mail.docx", "A 26651-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 26651-2025 tillsynsbegäran.docx", "A 26651-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 26651-2025 tillsynsbegäran mail.docx", "A 26651-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 63187-2025</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>46010.44355324074</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 63187-2025 artfynd.xlsx", "A 63187-2025")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 63187-2025 karta.png", "A 63187-2025")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 63187-2025 FSC-klagomål.docx", "A 63187-2025")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 63187-2025 FSC-klagomål mail.docx", "A 63187-2025")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 63187-2025 tillsynsbegäran.docx", "A 63187-2025")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 63187-2025 tillsynsbegäran mail.docx", "A 63187-2025")</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/fåglar/A 63187-2025 prioriterade fågelarter.docx", "A 63187-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 32081-2025</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45835.45203703704</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Smal svampklubba</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 32081-2025 artfynd.xlsx", "A 32081-2025")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 32081-2025 karta.png", "A 32081-2025")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 32081-2025 FSC-klagomål.docx", "A 32081-2025")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 32081-2025 FSC-klagomål mail.docx", "A 32081-2025")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 32081-2025 tillsynsbegäran.docx", "A 32081-2025")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 32081-2025 tillsynsbegäran mail.docx", "A 32081-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 34834-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45849.38751157407</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 34834-2025 artfynd.xlsx", "A 34834-2025")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 34834-2025 karta.png", "A 34834-2025")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 34834-2025 FSC-klagomål.docx", "A 34834-2025")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 34834-2025 FSC-klagomål mail.docx", "A 34834-2025")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 34834-2025 tillsynsbegäran.docx", "A 34834-2025")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 34834-2025 tillsynsbegäran mail.docx", "A 34834-2025")</f>
+        <v/>
+      </c>
+      <c r="Z16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/fåglar/A 34834-2025 prioriterade fågelarter.docx", "A 34834-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 52375-2025</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45953.94430555555</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Revlummer</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 52375-2025 artfynd.xlsx", "A 52375-2025")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 52375-2025 karta.png", "A 52375-2025")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 52375-2025 FSC-klagomål.docx", "A 52375-2025")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 52375-2025 FSC-klagomål mail.docx", "A 52375-2025")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 52375-2025 tillsynsbegäran.docx", "A 52375-2025")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 52375-2025 tillsynsbegäran mail.docx", "A 52375-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 59512-2025</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>45989.64748842592</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 59512-2025 artfynd.xlsx", "A 59512-2025")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 59512-2025 karta.png", "A 59512-2025")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 59512-2025 FSC-klagomål.docx", "A 59512-2025")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 59512-2025 FSC-klagomål mail.docx", "A 59512-2025")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 59512-2025 tillsynsbegäran.docx", "A 59512-2025")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 59512-2025 tillsynsbegäran mail.docx", "A 59512-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 59511-2025</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>45989.64694444444</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 59511-2025 artfynd.xlsx", "A 59511-2025")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 59511-2025 karta.png", "A 59511-2025")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 59511-2025 FSC-klagomål.docx", "A 59511-2025")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 59511-2025 FSC-klagomål mail.docx", "A 59511-2025")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 59511-2025 tillsynsbegäran.docx", "A 59511-2025")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 59511-2025 tillsynsbegäran mail.docx", "A 59511-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 28566-2024</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>45478.38914351852</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
           <t>Ärtsångare</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 28566-2024 artfynd.xlsx", "A 28566-2024")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 28566-2024 karta.png", "A 28566-2024")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 28566-2024 FSC-klagomål.docx", "A 28566-2024")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 28566-2024 FSC-klagomål mail.docx", "A 28566-2024")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 28566-2024 tillsynsbegäran.docx", "A 28566-2024")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 28566-2024 tillsynsbegäran mail.docx", "A 28566-2024")</f>
         <v/>
       </c>
-      <c r="Z11">
+      <c r="Z20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1883/fåglar/A 28566-2024 prioriterade fågelarter.docx", "A 28566-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 26651-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45810</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Fläcknycklar</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 26651-2025 artfynd.xlsx", "A 26651-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 26651-2025 karta.png", "A 26651-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 26651-2025 FSC-klagomål.docx", "A 26651-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 26651-2025 FSC-klagomål mail.docx", "A 26651-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 26651-2025 tillsynsbegäran.docx", "A 26651-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 26651-2025 tillsynsbegäran mail.docx", "A 26651-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 24188-2024</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45456.9100925926</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>9</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Garnlav</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 24188-2024 artfynd.xlsx", "A 24188-2024")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 24188-2024 karta.png", "A 24188-2024")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 24188-2024 FSC-klagomål.docx", "A 24188-2024")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 24188-2024 FSC-klagomål mail.docx", "A 24188-2024")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 24188-2024 tillsynsbegäran.docx", "A 24188-2024")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 24188-2024 tillsynsbegäran mail.docx", "A 24188-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 32081-2025</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45835.45203703704</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Smal svampklubba</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 32081-2025 artfynd.xlsx", "A 32081-2025")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 32081-2025 karta.png", "A 32081-2025")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 32081-2025 FSC-klagomål.docx", "A 32081-2025")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 32081-2025 FSC-klagomål mail.docx", "A 32081-2025")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 32081-2025 tillsynsbegäran.docx", "A 32081-2025")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 32081-2025 tillsynsbegäran mail.docx", "A 32081-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 34834-2025</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45849.38751157407</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Talltita</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 34834-2025 artfynd.xlsx", "A 34834-2025")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 34834-2025 karta.png", "A 34834-2025")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 34834-2025 FSC-klagomål.docx", "A 34834-2025")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 34834-2025 FSC-klagomål mail.docx", "A 34834-2025")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 34834-2025 tillsynsbegäran.docx", "A 34834-2025")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 34834-2025 tillsynsbegäran mail.docx", "A 34834-2025")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/fåglar/A 34834-2025 prioriterade fågelarter.docx", "A 34834-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 39025-2022</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>44817.3353125</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Talltita</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 39025-2022 artfynd.xlsx", "A 39025-2022")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 39025-2022 karta.png", "A 39025-2022")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 39025-2022 FSC-klagomål.docx", "A 39025-2022")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 39025-2022 FSC-klagomål mail.docx", "A 39025-2022")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 39025-2022 tillsynsbegäran.docx", "A 39025-2022")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 39025-2022 tillsynsbegäran mail.docx", "A 39025-2022")</f>
-        <v/>
-      </c>
-      <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/fåglar/A 39025-2022 prioriterade fågelarter.docx", "A 39025-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 40528-2024</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45555.60616898148</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Mattlummer</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 40528-2024 artfynd.xlsx", "A 40528-2024")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 40528-2024 karta.png", "A 40528-2024")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 40528-2024 FSC-klagomål.docx", "A 40528-2024")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 40528-2024 FSC-klagomål mail.docx", "A 40528-2024")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 40528-2024 tillsynsbegäran.docx", "A 40528-2024")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 40528-2024 tillsynsbegäran mail.docx", "A 40528-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 52375-2025</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>45953.94430555555</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Revlummer</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 52375-2025 artfynd.xlsx", "A 52375-2025")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 52375-2025 karta.png", "A 52375-2025")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 52375-2025 FSC-klagomål.docx", "A 52375-2025")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 52375-2025 FSC-klagomål mail.docx", "A 52375-2025")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 52375-2025 tillsynsbegäran.docx", "A 52375-2025")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 52375-2025 tillsynsbegäran mail.docx", "A 52375-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 59512-2025</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>45989.64748842592</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Motaggsvamp</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 59512-2025 artfynd.xlsx", "A 59512-2025")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 59512-2025 karta.png", "A 59512-2025")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 59512-2025 FSC-klagomål.docx", "A 59512-2025")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 59512-2025 FSC-klagomål mail.docx", "A 59512-2025")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 59512-2025 tillsynsbegäran.docx", "A 59512-2025")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 59512-2025 tillsynsbegäran mail.docx", "A 59512-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 59511-2025</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>45989.64694444444</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Motaggsvamp</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 59511-2025 artfynd.xlsx", "A 59511-2025")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 59511-2025 karta.png", "A 59511-2025")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 59511-2025 FSC-klagomål.docx", "A 59511-2025")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 59511-2025 FSC-klagomål mail.docx", "A 59511-2025")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 59511-2025 tillsynsbegäran.docx", "A 59511-2025")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 59511-2025 tillsynsbegäran mail.docx", "A 59511-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
@@ -2341,7 +2350,7 @@
         <v>46010.43457175926</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2428,14 +2437,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 63187-2025</t>
+          <t>A 40528-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>46010.44355324074</v>
+        <v>45555.60616898148</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2447,13 +2456,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -2462,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2477,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2487,35 +2491,31 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 63187-2025 artfynd.xlsx", "A 63187-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/artfynd/A 40528-2024 artfynd.xlsx", "A 40528-2024")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 63187-2025 karta.png", "A 63187-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/kartor/A 40528-2024 karta.png", "A 40528-2024")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 63187-2025 FSC-klagomål.docx", "A 63187-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomål/A 40528-2024 FSC-klagomål.docx", "A 40528-2024")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 63187-2025 FSC-klagomål mail.docx", "A 63187-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/klagomålsmail/A 40528-2024 FSC-klagomål mail.docx", "A 40528-2024")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 63187-2025 tillsynsbegäran.docx", "A 63187-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsyn/A 40528-2024 tillsynsbegäran.docx", "A 40528-2024")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 63187-2025 tillsynsbegäran mail.docx", "A 63187-2025")</f>
-        <v/>
-      </c>
-      <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1883/fåglar/A 63187-2025 prioriterade fågelarter.docx", "A 63187-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1883/tillsynsmail/A 40528-2024 tillsynsbegäran mail.docx", "A 40528-2024")</f>
         <v/>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
         <v>44552.49849537037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>44510.50043981482</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>44381</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>44546</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>44448.43530092593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>44319</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>44732.61756944445</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>44257</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>44243</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3050,14 +3050,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 63671-2021</t>
+          <t>A 25116-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44508</v>
+        <v>44341.71480324074</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3071,11 +3071,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3112,14 +3112,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 56435-2021</t>
+          <t>A 50991-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44480</v>
+        <v>44460.7434375</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3169,14 +3169,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 25116-2021</t>
+          <t>A 32408-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44341.71480324074</v>
+        <v>44371.6544212963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3231,14 +3231,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 11081-2022</t>
+          <t>A 44723-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44628</v>
+        <v>44438</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3250,13 +3250,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3293,14 +3288,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 50991-2021</t>
+          <t>A 8573-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44460.7434375</v>
+        <v>44245</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3313,7 +3308,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3350,14 +3345,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 24637-2021</t>
+          <t>A 8590-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44340</v>
+        <v>44245</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3371,11 +3366,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.6</v>
+        <v>0.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3412,14 +3407,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 37582-2022</t>
+          <t>A 34460-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44809.80543981482</v>
+        <v>44381</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3432,7 +3427,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3476,7 +3471,7 @@
         <v>44715.48209490741</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3533,7 +3528,7 @@
         <v>44512.60798611111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3588,14 +3583,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 32408-2021</t>
+          <t>A 41026-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44371.6544212963</v>
+        <v>44421.66028935185</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3613,7 +3608,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3650,14 +3645,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 38012-2022</t>
+          <t>A 4537-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44811</v>
+        <v>44590</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3670,7 +3665,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3707,14 +3702,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 41026-2021</t>
+          <t>A 63671-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44421.66028935185</v>
+        <v>44508</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3728,11 +3723,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3769,14 +3764,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 44723-2021</t>
+          <t>A 56435-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44438</v>
+        <v>44480</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3789,7 +3784,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3826,14 +3821,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 25898-2021</t>
+          <t>A 24637-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44344.39799768518</v>
+        <v>44340</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3851,7 +3846,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3888,14 +3883,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 37584-2022</t>
+          <t>A 37582-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44809.81278935185</v>
+        <v>44809.80543981482</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3908,7 +3903,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4.9</v>
+        <v>0.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3945,14 +3940,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 8573-2021</t>
+          <t>A 38012-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44245</v>
+        <v>44811</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3965,7 +3960,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4002,14 +3997,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 8590-2021</t>
+          <t>A 25898-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44245</v>
+        <v>44344.39799768518</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4023,11 +4018,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4064,14 +4059,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 34460-2021</t>
+          <t>A 11081-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44381</v>
+        <v>44628</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4083,8 +4078,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4121,14 +4121,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 21612-2022</t>
+          <t>A 37584-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44706.67246527778</v>
+        <v>44809.81278935185</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.7</v>
+        <v>4.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4178,14 +4178,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 21622-2022</t>
+          <t>A 21612-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44706.68547453704</v>
+        <v>44706.67246527778</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4235,14 +4235,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 50863-2024</t>
+          <t>A 21622-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45602.63560185185</v>
+        <v>44706.68547453704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4254,13 +4254,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>8.1</v>
+        <v>0.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4297,14 +4292,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 56887-2022</t>
+          <t>A 45117-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44894.57006944445</v>
+        <v>44439</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4317,7 +4312,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4354,14 +4349,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 45117-2021</t>
+          <t>A 39027-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44439</v>
+        <v>44817</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4373,8 +4368,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4411,14 +4411,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 16881-2023</t>
+          <t>A 35471-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45033</v>
+        <v>45531.46973379629</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4430,13 +4430,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4473,14 +4468,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 38196-2024</t>
+          <t>A 61813-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45545.49483796296</v>
+        <v>45649.59596064815</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4492,8 +4487,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4530,14 +4530,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 39027-2022</t>
+          <t>A 4164-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44817</v>
+        <v>44588</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4551,11 +4551,11 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4592,14 +4592,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 61396-2023</t>
+          <t>A 58390-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45264.64989583333</v>
+        <v>45633.6719212963</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4649,14 +4649,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 8803-2025</t>
+          <t>A 4587-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45712.66123842593</v>
+        <v>45687.51668981482</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4706,14 +4706,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 20289-2024</t>
+          <t>A 9712-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45435.30835648148</v>
+        <v>45362</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4727,11 +4727,11 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4768,14 +4768,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 4164-2022</t>
+          <t>A 42804-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44588</v>
+        <v>45182</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4789,11 +4789,11 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4830,14 +4830,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 61271-2022</t>
+          <t>A 1309-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44909</v>
+        <v>45303</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4849,13 +4849,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>14.1</v>
+        <v>4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4892,14 +4887,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 27735-2021</t>
+          <t>A 9510-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44354.4771412037</v>
+        <v>44981.64696759259</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4911,13 +4906,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4954,14 +4944,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 46605-2021</t>
+          <t>A 35444-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44445.55292824074</v>
+        <v>45531.43599537037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4973,13 +4963,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>3.6</v>
+        <v>0.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5016,14 +5001,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 35445-2024</t>
+          <t>A 23263-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45531.43599537037</v>
+        <v>44720.40815972222</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5036,7 +5021,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5073,14 +5058,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 38190-2024</t>
+          <t>A 21915-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45545.49076388889</v>
+        <v>45784</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5093,7 +5078,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.1</v>
+        <v>12</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5130,14 +5115,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 39337-2022</t>
+          <t>A 24099-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44817.72568287037</v>
+        <v>45796</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5150,7 +5135,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5187,14 +5172,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 57422-2021</t>
+          <t>A 47201-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44483</v>
+        <v>45196</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5207,7 +5192,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5244,14 +5229,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 9712-2024</t>
+          <t>A 61396-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45362</v>
+        <v>45264.64989583333</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5263,13 +5248,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5306,14 +5286,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 35060-2024</t>
+          <t>A 8259-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45527</v>
+        <v>45708.50091435185</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5325,13 +5305,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5368,14 +5343,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 4537-2022</t>
+          <t>A 24116-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44590</v>
+        <v>45456</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5388,7 +5363,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5425,14 +5400,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 4058-2022</t>
+          <t>A 3239-2026</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44588</v>
+        <v>46041</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5445,7 +5420,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5482,14 +5457,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 15254-2025</t>
+          <t>A 26653-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45744.64983796296</v>
+        <v>45810</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5507,7 +5482,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5544,14 +5519,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 15256-2025</t>
+          <t>A 63188-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45744.65391203704</v>
+        <v>46010.44494212963</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5569,7 +5544,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>5.5</v>
+        <v>1.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5606,14 +5581,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 64060-2023</t>
+          <t>A 27498-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45279.35636574074</v>
+        <v>45813</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5626,7 +5601,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5663,14 +5638,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 14215-2024</t>
+          <t>A 35930-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45393</v>
+        <v>45148</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5684,11 +5659,11 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5725,14 +5700,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 16256-2025</t>
+          <t>A 63863-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45750.71596064815</v>
+        <v>45278.50163194445</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5744,13 +5719,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5787,14 +5757,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 43075-2023</t>
+          <t>A 39673-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45182.83460648148</v>
+        <v>45890.64559027777</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5806,8 +5776,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5844,14 +5819,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 23263-2022</t>
+          <t>A 23620-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44720.40815972222</v>
+        <v>45454</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5901,14 +5876,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 58091-2022</t>
+          <t>A 53647-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44900</v>
+        <v>45230.6046875</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5920,13 +5895,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5963,14 +5933,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 27728-2021</t>
+          <t>A 39936-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44354.47241898148</v>
+        <v>45553.56512731482</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5982,13 +5952,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>1.7</v>
+        <v>6.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6025,14 +5990,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 35444-2024</t>
+          <t>A 30102-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45531.43599537037</v>
+        <v>45826.68414351852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6045,7 +6010,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6082,14 +6047,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 35471-2024</t>
+          <t>A 34585-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45531.46973379629</v>
+        <v>44382.47526620371</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6102,7 +6067,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6139,14 +6104,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 24116-2024</t>
+          <t>A 54680-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45456</v>
+        <v>44473</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6159,7 +6124,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6196,14 +6161,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 55832-2023</t>
+          <t>A 17815-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45239.61148148148</v>
+        <v>45758.56148148148</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6215,8 +6180,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6253,14 +6223,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 47222-2024</t>
+          <t>A 64089-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45586</v>
+        <v>44510</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6272,13 +6242,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>5.3</v>
+        <v>1.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6315,14 +6280,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 26653-2025</t>
+          <t>A 31397-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45810</v>
+        <v>45833</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6334,13 +6299,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6377,14 +6337,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 58390-2024</t>
+          <t>A 32287-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45633.6719212963</v>
+        <v>45835.6914699074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6396,8 +6356,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>3</v>
+        <v>10.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6434,14 +6399,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 10515-2023</t>
+          <t>A 59938-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44987.7978125</v>
+        <v>45257.67357638889</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6454,7 +6419,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6491,14 +6456,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 1106-2024</t>
+          <t>A 52828-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45302</v>
+        <v>45610.59295138889</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6511,7 +6476,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6548,14 +6513,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 27498-2025</t>
+          <t>A 32870-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45813</v>
+        <v>45839.58939814815</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6568,7 +6533,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6605,14 +6570,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 18768-2025</t>
+          <t>A 41267-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45764.29767361111</v>
+        <v>45898.61796296296</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6624,13 +6589,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6667,14 +6627,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 42803-2023</t>
+          <t>A 15254-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45182</v>
+        <v>45744.64983796296</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6692,7 +6652,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6729,14 +6689,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 48707-2024</t>
+          <t>A 15256-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45593.53480324074</v>
+        <v>45744.65391203704</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6748,8 +6708,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6786,14 +6751,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 48167-2024</t>
+          <t>A 24115-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45589.73996527777</v>
+        <v>45456</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6806,7 +6771,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>13.7</v>
+        <v>8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6843,14 +6808,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 33011-2023</t>
+          <t>A 53619-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45125</v>
+        <v>45614.73967592593</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6900,14 +6865,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 48168-2024</t>
+          <t>A 18768-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45589.74410879629</v>
+        <v>45764.29767361111</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6919,8 +6884,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>5.5</v>
+        <v>0.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6957,14 +6927,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 54680-2021</t>
+          <t>A 4801-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44473</v>
+        <v>45328.89141203704</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6977,7 +6947,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7014,14 +6984,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 30102-2025</t>
+          <t>A 4802-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45826.68414351852</v>
+        <v>45328.8962962963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7034,7 +7004,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7071,14 +7041,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 39936-2024</t>
+          <t>A 8990-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45553.56512731482</v>
+        <v>44979.55237268518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7091,7 +7061,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>6.4</v>
+        <v>2.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7128,14 +7098,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 53647-2023</t>
+          <t>A 37150-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45230.6046875</v>
+        <v>45875.5734837963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7148,7 +7118,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7185,14 +7155,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 34585-2021</t>
+          <t>A 42802-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44382.47526620371</v>
+        <v>45182</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7204,8 +7174,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7242,14 +7217,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 23620-2024</t>
+          <t>A 37332-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45454</v>
+        <v>45876.65920138889</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7261,8 +7236,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>2.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7299,14 +7279,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 20086-2024</t>
+          <t>A 37737-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45434</v>
+        <v>45880.63737268518</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7318,8 +7298,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7356,14 +7341,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 10492-2021</t>
+          <t>A 28471-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44258.26988425926</v>
+        <v>45103.41175925926</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7376,7 +7361,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7413,14 +7398,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 9510-2023</t>
+          <t>A 20470-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44981.64696759259</v>
+        <v>45775.54530092593</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7432,8 +7417,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7470,14 +7460,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 13454-2022</t>
+          <t>A 22867-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44645</v>
+        <v>44715.49313657408</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7490,7 +7480,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7527,14 +7517,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 16476-2025</t>
+          <t>A 38071-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45751.57092592592</v>
+        <v>45882.4412037037</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7547,7 +7537,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7584,14 +7574,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 10743-2023</t>
+          <t>A 64060-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44988.70174768518</v>
+        <v>45279.35636574074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7603,13 +7593,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7646,14 +7631,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 50611-2024</t>
+          <t>A 48707-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45601.63069444444</v>
+        <v>45593.53480324074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7666,7 +7651,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7703,14 +7688,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 42802-2023</t>
+          <t>A 43772-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45182</v>
+        <v>45912.50550925926</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7722,13 +7707,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7765,14 +7745,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 31397-2025</t>
+          <t>A 55832-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45833</v>
+        <v>45239.61148148148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7785,7 +7765,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7822,14 +7802,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 52829-2024</t>
+          <t>A 44946-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45610.59344907408</v>
+        <v>45918.6046875</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7842,7 +7822,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7879,14 +7859,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 32287-2025</t>
+          <t>A 58388-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45835.6914699074</v>
+        <v>45633.64746527778</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7898,13 +7878,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>10.9</v>
+        <v>5.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7941,14 +7916,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 56313-2024</t>
+          <t>A 9941-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45624</v>
+        <v>45718.83177083333</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7960,13 +7935,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8003,14 +7973,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 38382-2022</t>
+          <t>A 44949-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44812</v>
+        <v>45918.60568287037</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8022,13 +7992,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8065,14 +8030,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 35470-2024</t>
+          <t>A 24255-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45531.46973379629</v>
+        <v>45457.39487268519</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8085,7 +8050,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8122,14 +8087,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 28474-2023</t>
+          <t>A 45664-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45103.42020833334</v>
+        <v>45923.34690972222</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8141,8 +8106,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>5.1</v>
+        <v>9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8179,14 +8149,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 32870-2025</t>
+          <t>A 45596-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45839.58939814815</v>
+        <v>45922.68408564815</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8198,8 +8168,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8236,14 +8211,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 24115-2024</t>
+          <t>A 18978-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45456</v>
+        <v>45764.54626157408</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8256,7 +8231,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>8</v>
+        <v>0.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8293,14 +8268,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 8990-2023</t>
+          <t>A 10816-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44979.55237268518</v>
+        <v>44990.43501157407</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8313,7 +8288,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8350,14 +8325,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 6835-2025</t>
+          <t>A 31921-2022</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45700.78726851852</v>
+        <v>44777</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8370,7 +8345,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8407,14 +8382,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 59025-2024</t>
+          <t>A 43075-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45636.68592592593</v>
+        <v>45182.83460648148</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8426,13 +8401,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8469,14 +8439,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 10404-2022</t>
+          <t>A 47196-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44623.45096064815</v>
+        <v>45196</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8489,7 +8459,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>5.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8526,14 +8496,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 3227-2025</t>
+          <t>A 13454-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45679</v>
+        <v>44645</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8546,7 +8516,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8583,14 +8553,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 53619-2024</t>
+          <t>A 15252-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45614.73967592593</v>
+        <v>45744</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8602,8 +8572,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8640,14 +8615,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 22624-2021</t>
+          <t>A 15253-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44327</v>
+        <v>45744</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8661,11 +8636,11 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8702,14 +8677,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 13501-2025</t>
+          <t>A 53618-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45736.45362268519</v>
+        <v>45614.73951388889</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8722,7 +8697,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3.2</v>
+        <v>10.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8759,14 +8734,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 47094-2023</t>
+          <t>A 30961-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45196</v>
+        <v>44768</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8778,8 +8753,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8816,14 +8796,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 18955-2025</t>
+          <t>A 42803-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45764.51512731481</v>
+        <v>45182</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8835,8 +8815,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>8.1</v>
+        <v>0.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8873,14 +8858,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 10506-2025</t>
+          <t>A 8803-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45721</v>
+        <v>45712.66123842593</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8893,7 +8878,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8930,14 +8915,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 50614-2024</t>
+          <t>A 15188-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45601.63342592592</v>
+        <v>45744.55122685185</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8949,8 +8934,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>0.7</v>
+        <v>11.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8987,14 +8977,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 31921-2022</t>
+          <t>A 50957-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44777</v>
+        <v>45946.78399305556</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9007,7 +8997,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9044,14 +9034,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 42804-2023</t>
+          <t>A 50958-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45182</v>
+        <v>45946.78709490741</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9063,13 +9053,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9106,14 +9091,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 39030-2022</t>
+          <t>A 56313-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44817.34023148148</v>
+        <v>45624</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9127,11 +9112,11 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9168,14 +9153,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 10816-2023</t>
+          <t>A 10743-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44990.43501157407</v>
+        <v>44988.70174768518</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9187,8 +9172,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9225,14 +9215,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 8244-2025</t>
+          <t>A 14215-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45708.4852662037</v>
+        <v>45393</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9244,8 +9234,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9282,14 +9277,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 28100-2024</t>
+          <t>A 55191-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45476.61674768518</v>
+        <v>45237.58084490741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9302,7 +9297,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9339,14 +9334,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 22867-2022</t>
+          <t>A 15269-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44715.49313657408</v>
+        <v>45744.66511574074</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9358,8 +9353,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9396,14 +9396,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 51344-2023</t>
+          <t>A 59025-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45219.59462962963</v>
+        <v>45636.68592592593</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9417,11 +9417,11 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9458,14 +9458,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 37150-2025</t>
+          <t>A 52376-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45875.5734837963</v>
+        <v>45953.94524305555</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9475,6 +9475,11 @@
       <c r="E141" t="inlineStr">
         <is>
           <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G141" t="n">
@@ -9515,14 +9520,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 37332-2025</t>
+          <t>A 52377-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45876.65920138889</v>
+        <v>45953.94622685185</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9536,11 +9541,11 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>8.300000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9577,14 +9582,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 64089-2021</t>
+          <t>A 52379-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44510</v>
+        <v>45953.94826388889</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9596,8 +9601,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9634,14 +9644,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 55182-2024</t>
+          <t>A 17243-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45618</v>
+        <v>45414</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9654,7 +9664,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>11.4</v>
+        <v>3.2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9691,14 +9701,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 18978-2025</t>
+          <t>A 55025-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45764.54626157408</v>
+        <v>45967.63591435185</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9711,7 +9721,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9748,14 +9758,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 37737-2025</t>
+          <t>A 35060-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45880.63737268518</v>
+        <v>45527</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9773,7 +9783,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9810,14 +9820,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 18468-2025</t>
+          <t>A 52826-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45762.73166666667</v>
+        <v>45610.59243055555</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9830,7 +9840,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9867,14 +9877,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 4801-2024</t>
+          <t>A 52829-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45328.89141203704</v>
+        <v>45610.59344907408</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9887,7 +9897,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9924,14 +9934,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 4802-2024</t>
+          <t>A 57212-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45328.8962962963</v>
+        <v>45979.60140046296</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9944,7 +9954,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9981,14 +9991,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 30961-2022</t>
+          <t>A 11974-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44768</v>
+        <v>45728.58998842593</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10000,13 +10010,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10043,14 +10048,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 55191-2023</t>
+          <t>A 28474-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45237.58084490741</v>
+        <v>45103.42020833334</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10063,7 +10068,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.9</v>
+        <v>5.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10100,14 +10105,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 38071-2025</t>
+          <t>A 61271-2022</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45882.4412037037</v>
+        <v>44909</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10119,8 +10124,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>1.2</v>
+        <v>14.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10157,14 +10167,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 20470-2025</t>
+          <t>A 48168-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45775.54530092593</v>
+        <v>45589.74410879629</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10176,13 +10186,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G153" t="n">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10219,14 +10224,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 4587-2025</t>
+          <t>A 58091-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45687.51668981482</v>
+        <v>44900</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10238,8 +10243,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10276,14 +10286,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 41777-2021</t>
+          <t>A 18468-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44425.65414351852</v>
+        <v>45762.73166666667</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10295,13 +10305,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10338,14 +10343,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 41779-2021</t>
+          <t>A 18955-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44425.655625</v>
+        <v>45764.51512731481</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10357,13 +10362,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>1.7</v>
+        <v>8.1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10400,14 +10400,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 52797-2021</t>
+          <t>A 58695-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44467.37496527778</v>
+        <v>45986.58576388889</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.4</v>
+        <v>7.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10457,14 +10457,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 13496-2025</t>
+          <t>A 50614-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45736.44390046296</v>
+        <v>45601.63342592592</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>8.800000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10514,14 +10514,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 11974-2025</t>
+          <t>A 55182-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45728.58998842593</v>
+        <v>45618</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10534,7 +10534,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.4</v>
+        <v>11.4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10571,14 +10571,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 63863-2023</t>
+          <t>A 16476-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45278.50163194445</v>
+        <v>45751.57092592592</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10591,7 +10591,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10628,14 +10628,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 1309-2024</t>
+          <t>A 59522-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45303</v>
+        <v>45989.6597800926</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10647,8 +10647,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10685,14 +10690,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 15252-2025</t>
+          <t>A 917-2026</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45744</v>
+        <v>46030.48421296296</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10704,13 +10709,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G162" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10747,14 +10747,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 15253-2025</t>
+          <t>A 4058-2022</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45744</v>
+        <v>44588</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10766,13 +10766,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G163" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10809,14 +10804,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 20463-2025</t>
+          <t>A 1788-2026</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45775.53664351852</v>
+        <v>46034.87616898148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10828,13 +10823,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10871,14 +10861,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 15188-2025</t>
+          <t>A 46605-2021</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45744.55122685185</v>
+        <v>44445.55292824074</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10892,11 +10882,11 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>11.8</v>
+        <v>3.6</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10933,14 +10923,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 28471-2023</t>
+          <t>A 60465-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45103.41175925926</v>
+        <v>45995.55730324074</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10953,7 +10943,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10990,14 +10980,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 15255-2025</t>
+          <t>A 3227-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45744.65173611111</v>
+        <v>45679</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11009,13 +10999,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G167" t="n">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11052,14 +11037,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 52826-2024</t>
+          <t>A 60506-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45610.59243055555</v>
+        <v>45995.62744212963</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11072,7 +11057,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11109,14 +11094,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 21682-2021</t>
+          <t>A 60508-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44322.41228009259</v>
+        <v>45995.63013888889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11129,7 +11114,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11166,14 +11151,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 9941-2025</t>
+          <t>A 60470-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45718.83177083333</v>
+        <v>45995.565625</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11186,7 +11171,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11223,14 +11208,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 24255-2024</t>
+          <t>A 60503-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45457.39487268519</v>
+        <v>45995.62199074074</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11243,7 +11228,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11280,14 +11265,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 8259-2025</t>
+          <t>A 28100-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45708.50091435185</v>
+        <v>45476.61674768518</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11300,7 +11285,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11337,14 +11322,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 39673-2025</t>
+          <t>A 16256-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45890.64559027777</v>
+        <v>45750.71596064815</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11362,7 +11347,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11399,14 +11384,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 53620-2024</t>
+          <t>A 2911-2026</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45614.73983796296</v>
+        <v>46038.56614583333</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11419,7 +11404,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11456,14 +11441,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 17815-2025</t>
+          <t>A 50863-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45758.56148148148</v>
+        <v>45602.63560185185</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11477,11 +11462,11 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>8.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11518,14 +11503,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 20139-2025</t>
+          <t>A 27728-2021</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45772</v>
+        <v>44354.47241898148</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11543,7 +11528,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>4.7</v>
+        <v>1.7</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11580,14 +11565,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 20140-2025</t>
+          <t>A 1106-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45772</v>
+        <v>45302</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11599,13 +11584,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G177" t="n">
-        <v>3.6</v>
+        <v>1.9</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11642,14 +11622,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 35930-2023</t>
+          <t>A 39030-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45148</v>
+        <v>44817.34023148148</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11667,7 +11647,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>5.2</v>
+        <v>1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11704,14 +11684,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 47196-2023</t>
+          <t>A 38382-2022</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45196</v>
+        <v>44812</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11723,8 +11703,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G179" t="n">
-        <v>5.9</v>
+        <v>2.2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11761,14 +11746,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 41267-2025</t>
+          <t>A 16881-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45898.61796296296</v>
+        <v>45033</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11780,8 +11765,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11818,14 +11808,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 53618-2024</t>
+          <t>A 61788-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45614.73951388889</v>
+        <v>46002.68515046296</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11837,8 +11827,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G181" t="n">
-        <v>10.1</v>
+        <v>0.9</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11875,14 +11870,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 2224-2025</t>
+          <t>A 20139-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45673</v>
+        <v>45772</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11894,8 +11889,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G182" t="n">
-        <v>1.5</v>
+        <v>4.7</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11932,14 +11932,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 58388-2024</t>
+          <t>A 20140-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45633.64746527778</v>
+        <v>45772</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11951,8 +11951,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>5.8</v>
+        <v>3.6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11989,14 +11994,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 47201-2023</t>
+          <t>A 57422-2021</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45196</v>
+        <v>44483</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12009,7 +12014,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12046,14 +12051,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 43772-2025</t>
+          <t>A 8244-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45912.50550925926</v>
+        <v>45708.4852662037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12066,7 +12071,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12103,14 +12108,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 52828-2024</t>
+          <t>A 6255-2026</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45610.59295138889</v>
+        <v>46055.47542824074</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12123,7 +12128,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>8.300000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12160,14 +12165,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 15269-2025</t>
+          <t>A 64066-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45744.66511574074</v>
+        <v>46013</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12179,13 +12184,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12222,14 +12222,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 44946-2025</t>
+          <t>A 38190-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45918.6046875</v>
+        <v>45545.49076388889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12279,14 +12279,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 44949-2025</t>
+          <t>A 27735-2021</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45918.60568287037</v>
+        <v>44354.4771412037</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12298,8 +12298,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12336,14 +12341,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 17243-2024</t>
+          <t>A 6605-2026</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45414</v>
+        <v>46056.47820601852</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12356,7 +12361,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12393,14 +12398,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 59938-2023</t>
+          <t>A 63628-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45257.67357638889</v>
+        <v>46014.36813657408</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12413,7 +12418,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12450,14 +12455,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 61813-2024</t>
+          <t>A 20463-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45649.59596064815</v>
+        <v>45775.53664351852</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12471,11 +12476,11 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12512,14 +12517,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 45596-2025</t>
+          <t>A 47222-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45922.68408564815</v>
+        <v>45586</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12533,11 +12538,11 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.9</v>
+        <v>5.3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12574,14 +12579,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 45664-2025</t>
+          <t>A 35470-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45923.34690972222</v>
+        <v>45531.46973379629</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12593,13 +12598,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G194" t="n">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12636,14 +12636,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 21247-2025</t>
+          <t>A 21682-2021</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45779.57381944444</v>
+        <v>44322.41228009259</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12655,13 +12655,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12698,14 +12693,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 21210-2025</t>
+          <t>A 35445-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45779.48717592593</v>
+        <v>45531.43599537037</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12717,13 +12712,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G196" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12760,14 +12750,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 21845-2025</t>
+          <t>A 47094-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45784.33908564815</v>
+        <v>45196</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12779,13 +12769,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>13.3</v>
+        <v>1.9</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12822,14 +12807,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 22234-2025</t>
+          <t>A 38196-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45785</v>
+        <v>45545.49483796296</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12842,7 +12827,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12879,14 +12864,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 22244-2025</t>
+          <t>A 50611-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45785.67974537037</v>
+        <v>45601.63069444444</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12899,7 +12884,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12936,14 +12921,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 38742-2023</t>
+          <t>A 20289-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45161</v>
+        <v>45435.30835648148</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12957,11 +12942,11 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G200" t="n">
-        <v>4.2</v>
+        <v>0.7</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12998,14 +12983,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 3735-2024</t>
+          <t>A 52797-2021</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45321</v>
+        <v>44467.37496527778</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13017,13 +13002,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G201" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13060,14 +13040,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 23308-2025</t>
+          <t>A 15255-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45791.6047800926</v>
+        <v>45744.65173611111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13079,8 +13059,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13117,14 +13102,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 50958-2025</t>
+          <t>A 48167-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45946.78709490741</v>
+        <v>45589.73996527777</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13137,7 +13122,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.4</v>
+        <v>13.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13174,14 +13159,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 50957-2025</t>
+          <t>A 20086-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45946.78399305556</v>
+        <v>45434</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13194,7 +13179,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13231,14 +13216,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 52377-2025</t>
+          <t>A 13496-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45953.94622685185</v>
+        <v>45736.44390046296</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13250,13 +13235,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G205" t="n">
-        <v>2.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13293,14 +13273,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 23716-2025</t>
+          <t>A 56887-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45793.39087962963</v>
+        <v>44894.57006944445</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13313,7 +13293,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13350,14 +13330,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 23717-2025</t>
+          <t>A 33011-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45793.39612268518</v>
+        <v>45125</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13370,7 +13350,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13407,14 +13387,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 52379-2025</t>
+          <t>A 41777-2021</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45953.94826388889</v>
+        <v>44425.65414351852</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13432,7 +13412,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13469,14 +13449,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 52376-2025</t>
+          <t>A 41779-2021</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45953.94524305555</v>
+        <v>44425.655625</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13494,7 +13474,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13531,14 +13511,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 21915-2025</t>
+          <t>A 51344-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45784</v>
+        <v>45219.59462962963</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13550,8 +13530,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G210" t="n">
-        <v>12</v>
+        <v>4.5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13588,14 +13573,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 24099-2025</t>
+          <t>A 6835-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45796</v>
+        <v>45700.78726851852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13608,7 +13593,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13645,14 +13630,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 55025-2025</t>
+          <t>A 10515-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45967.63591435185</v>
+        <v>44987.7978125</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13665,7 +13650,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13702,14 +13687,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 57212-2025</t>
+          <t>A 39337-2022</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45979.60140046296</v>
+        <v>44817.72568287037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13722,7 +13707,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13759,14 +13744,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 58695-2025</t>
+          <t>A 53620-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45986.58576388889</v>
+        <v>45614.73983796296</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13779,7 +13764,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>7.2</v>
+        <v>0.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13816,14 +13801,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 917-2026</t>
+          <t>A 2224-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>46030.48421296296</v>
+        <v>45673</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13836,7 +13821,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13873,14 +13858,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 59522-2025</t>
+          <t>A 10492-2021</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45989.6597800926</v>
+        <v>44258.26988425926</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13892,13 +13877,8 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G216" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13935,14 +13915,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 1788-2026</t>
+          <t>A 13501-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>46034.87616898148</v>
+        <v>45736.45362268519</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13955,7 +13935,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13992,14 +13972,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 60470-2025</t>
+          <t>A 22624-2021</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45995.565625</v>
+        <v>44327</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14011,8 +13991,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G218" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14049,14 +14034,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 2911-2026</t>
+          <t>A 10404-2022</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>46038.56614583333</v>
+        <v>44623.45096064815</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14069,7 +14054,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14106,14 +14091,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 60503-2025</t>
+          <t>A 10506-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45995.62199074074</v>
+        <v>45721</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14126,7 +14111,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14163,14 +14148,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 60508-2025</t>
+          <t>A 21247-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45995.63013888889</v>
+        <v>45779.57381944444</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14182,8 +14167,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G221" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14220,14 +14210,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 60506-2025</t>
+          <t>A 21210-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45995.62744212963</v>
+        <v>45779.48717592593</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14239,8 +14229,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G222" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14277,14 +14272,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 60465-2025</t>
+          <t>A 22234-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45995.55730324074</v>
+        <v>45785</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14297,7 +14292,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14334,14 +14329,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 61788-2025</t>
+          <t>A 38742-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>46002.68515046296</v>
+        <v>45161</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14355,11 +14350,11 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.9</v>
+        <v>4.2</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14396,14 +14391,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 64066-2025</t>
+          <t>A 22244-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>46013</v>
+        <v>45785.67974537037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14416,7 +14411,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14453,14 +14448,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 6255-2026</t>
+          <t>A 21845-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>46055.47542824074</v>
+        <v>45784.33908564815</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14472,8 +14467,13 @@
           <t>KARLSKOGA</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G226" t="n">
-        <v>1.3</v>
+        <v>13.3</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14510,14 +14510,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 63188-2025</t>
+          <t>A 3735-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>46010.44494212963</v>
+        <v>45321</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14531,11 +14531,11 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14572,14 +14572,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 6605-2026</t>
+          <t>A 23308-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>46056.47820601852</v>
+        <v>45791.6047800926</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14592,7 +14592,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14629,14 +14629,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 63628-2025</t>
+          <t>A 23716-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>46014.36813657408</v>
+        <v>45793.39087962963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14649,7 +14649,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14683,17 +14683,17 @@
       </c>
       <c r="R229" s="2" t="inlineStr"/>
     </row>
-    <row r="230" ht="15" customHeight="1">
+    <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 7232-2026</t>
+          <t>A 23717-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>46058.57258101852</v>
+        <v>45793.39612268518</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14739,63 +14739,6 @@
         <v>0</v>
       </c>
       <c r="R230" s="2" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>A 3239-2026</t>
-        </is>
-      </c>
-      <c r="B231" s="1" t="n">
-        <v>46041</v>
-      </c>
-      <c r="C231" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>KARLSKOGA</t>
-        </is>
-      </c>
-      <c r="G231" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="n">
-        <v>0</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0</v>
-      </c>
-      <c r="L231" t="n">
-        <v>0</v>
-      </c>
-      <c r="M231" t="n">
-        <v>0</v>
-      </c>
-      <c r="N231" t="n">
-        <v>0</v>
-      </c>
-      <c r="O231" t="n">
-        <v>0</v>
-      </c>
-      <c r="P231" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q231" t="n">
-        <v>0</v>
-      </c>
-      <c r="R231" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
